--- a/7.Conversion-Functions/Conversion-Functions.xlsx
+++ b/7.Conversion-Functions/Conversion-Functions.xlsx
@@ -8,12 +8,13 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\study\oracle\7.Conversion-Functions\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E255C392-3A44-4280-8572-B8BB06DE1A9A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{650056C1-E058-4E35-B0D9-13D5D798DFAA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28965" yWindow="285" windowWidth="27045" windowHeight="13455" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="28965" yWindow="285" windowWidth="27045" windowHeight="13470" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Conversion Functions" sheetId="1" r:id="rId1"/>
+    <sheet name="TO_CHAR-TO_DATE-TO_NUMBER-Func1" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -25,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="85" uniqueCount="69">
   <si>
     <t>oracle</t>
     <phoneticPr fontId="1"/>
@@ -201,6 +202,351 @@
   <si>
     <t>SELECT * FROM EMPLOYEES WHERE HIRE_DATE = '03-06-17';</t>
   </si>
+  <si>
+    <t>TO_CHAR, TO_DATE, TO_NUMBER Functions (Part 1)</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>2.TO_CHAR,+TO_DATE,+TO_NUMBER+Functions+(Part+1)+(Code+Samples).sql</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>oracle\7.Conversion-Functions\2.TO_CHAR,+TO_DATE,+TO_NUMBER+Functions+(Part+1)+(Code+Samples).sql</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t> * Lecture : TO_CHAR, TO_DATE, TO_NUMBER Functions (Part 1) *</t>
+  </si>
+  <si>
+    <t>SELECT first_name, hire_date FROM employees;</t>
+  </si>
+  <si>
+    <t>SELECT first_name, hire_date, to_char(hire_date,'YYYY') "Formatted Date" FROM employees;</t>
+  </si>
+  <si>
+    <t>SELECT first_name, hire_date, to_char(hire_date,'YY') "Formatted Date" FROM employees;</t>
+  </si>
+  <si>
+    <t>SELECT first_name, hire_date, to_char(hire_date,'RR') "Formatted Date" FROM employees;</t>
+  </si>
+  <si>
+    <t>SELECT first_name, hire_date, to_char(hire_date,'YEAR') "Formatted Date" FROM employees;</t>
+  </si>
+  <si>
+    <t>SELECT first_name, hire_date, to_char(hire_date,'MM') "Formatted Date" FROM employees;</t>
+  </si>
+  <si>
+    <t>SELECT first_name, hire_date, to_char(hire_date,'MM-YYYY') "Formatted Date" FROM employees;</t>
+  </si>
+  <si>
+    <t>SELECT first_name, hire_date, to_char(hire_date,'MON-YYYY') "Formatted Date" FROM employees;</t>
+  </si>
+  <si>
+    <t>SELECT first_name, hire_date, to_char(hire_date,'MON-yyyy') "Formatted Date" FROM employees;</t>
+  </si>
+  <si>
+    <t>SELECT first_name, hire_date, to_char(hire_date,'mon-yyyy') "Formatted Date" FROM employees;</t>
+  </si>
+  <si>
+    <t>SELECT first_name, hire_date, to_char(hire_date,'Mon-yyyy') "Formatted Date" FROM employees;</t>
+  </si>
+  <si>
+    <t>SELECT first_name, hire_date, to_char(hire_date,'MONTH-yyyy') "Formatted Date" FROM employees;</t>
+  </si>
+  <si>
+    <t>SELECT first_name, hire_date, to_char(hire_date,'Month-yyyy') "Formatted Date" FROM employees;</t>
+  </si>
+  <si>
+    <t>SELECT first_name, hire_date, to_char(hire_date,'DD-Month-yyyy') "Formatted Date" FROM employees;</t>
+  </si>
+  <si>
+    <t>SELECT first_name, hire_date, to_char(hire_date,'DY-Month-yyyy') "Formatted Date" FROM employees;</t>
+  </si>
+  <si>
+    <t>SELECT first_name, hire_date, to_char(hire_date,'Dy-Month-yyyy') "Formatted Date" FROM employees;</t>
+  </si>
+  <si>
+    <t>SELECT first_name, hire_date, to_char(hire_date,'Day-Month-yyyy') "Formatted Date" FROM employees;</t>
+  </si>
+  <si>
+    <t>SELECT first_name, hire_date, to_char(hire_date,'Dy-Month-yyyy HH12') "Formatted Date" FROM employees;</t>
+  </si>
+  <si>
+    <t>SELECT first_name, hire_date, to_char(hire_date,'Dy-Month-yyyy HH24') "Formatted Date" FROM employees;</t>
+  </si>
+  <si>
+    <t>SELECT first_name, hire_date, to_char(hire_date,'Dy-Month-yyyy HH24:MI') "Formatted Date" FROM employees;</t>
+  </si>
+  <si>
+    <t>SELECT first_name, hire_date, to_char(hire_date,'Dy-Month-yyyy HH24:MI:SS') "Formatted Date" FROM employees;</t>
+  </si>
+  <si>
+    <t>SELECT first_name, hire_date, to_char(sysdate,'Dy-Month-yyyy HH24:MI:SS') "Formatted Date" FROM employees;</t>
+  </si>
+  <si>
+    <t>SELECT first_name, hire_date, to_char(hire_date,'DDTH-Month-yyyy HH24:MI:SS') "Formatted Date" FROM employees;</t>
+  </si>
+  <si>
+    <t>SELECT first_name, hire_date, to_char(hire_date,'DDTH-MMTH-yyyy HH24:MI:SS') "Formatted Date" FROM employees;</t>
+  </si>
+  <si>
+    <t>SELECT first_name, hire_date, to_char(hire_date,'DDSP-MMTH-yyyy HH24:MI:SS') "Formatted Date" FROM employees;</t>
+  </si>
+  <si>
+    <t>SELECT first_name, hire_date, to_char(hire_date,'DDSPTH-MMTH-yyyy HH24:MI:SS') "Formatted Date" FROM employees;</t>
+  </si>
+  <si>
+    <t>SELECT first_name, hire_date, to_char(hire_date,'DDTHSP-MMTH-yyyy HH24:MI:SS') "Formatted Date" FROM employees;</t>
+  </si>
+  <si>
+    <t>SELECT first_name, hire_date, to_char(hire_date,'YYYY') "Formatted Date" FROM employees;</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <r>
+      <t>SELECT first_name, hire_date, to_char(hire_date,'</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Yu Gothic"/>
+        <family val="3"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>YEAR</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Yu Gothic"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>') "Formatted Date" FROM employees;</t>
+    </r>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <r>
+      <t>SELECT first_name, hire_date, to_char(hire_date,'</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Yu Gothic"/>
+        <family val="3"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>MON</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Yu Gothic"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>-YYYY') "Formatted Date" FROM employees;</t>
+    </r>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <r>
+      <t>SELECT first_name, hire_date, to_char(hire_date,'</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Yu Gothic"/>
+        <family val="3"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>MONTH</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Yu Gothic"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>-yyyy') "Formatted Date" FROM employees;</t>
+    </r>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <r>
+      <t>SELECT first_name, hire_date, to_char(hire_date,'</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Yu Gothic"/>
+        <family val="3"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>DY</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Yu Gothic"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>-Month-yyyy') "Formatted Date" FROM employees;</t>
+    </r>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <r>
+      <t>SELECT first_name, hire_date, to_char(hire_date,'</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Yu Gothic"/>
+        <family val="3"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Day</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Yu Gothic"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>-Month-yyyy') "Formatted Date" FROM employees;</t>
+    </r>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">SELECT first_name, hire_date, to_char(sysdate,'Dy-Month-yyyy </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Yu Gothic"/>
+        <family val="3"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>HH24</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Yu Gothic"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>:MI:SS') "Formatted Date" FROM employees;</t>
+    </r>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <r>
+      <t>SELECT first_name, hire_date, to_char(hire_date,'DD</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Yu Gothic"/>
+        <family val="3"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>TH</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Yu Gothic"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>-MM</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Yu Gothic"/>
+        <family val="3"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>TH</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Yu Gothic"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>-yyyy HH24:MI:SS') "Formatted Date" FROM employees;</t>
+    </r>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <r>
+      <t>SELECT first_name, hire_date, to_char(hire_date,'DD</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Yu Gothic"/>
+        <family val="3"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>SP</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Yu Gothic"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>-MMTH-yyyy HH24:MI:SS') "Formatted Date" FROM employees;</t>
+    </r>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>SELECT first_name, hire_date, to_char(hire_date,'DDSPTH-MMTH-yyyy HH24:MI:SS') "Formatted Date" FROM employees;</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>SELECT first_name, hire_date, to_char(hire_date,'DDTHSP-MMTH-yyyy HH24:MI:SS') "Formatted Date" FROM employees;</t>
+    <phoneticPr fontId="1"/>
+  </si>
 </sst>
 </file>
 
@@ -337,7 +683,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
@@ -348,6 +694,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
@@ -586,6 +933,643 @@
         </a:prstGeom>
       </xdr:spPr>
     </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>176494</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>178173</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>336178</xdr:colOff>
+      <xdr:row>38</xdr:row>
+      <xdr:rowOff>26149</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="図 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B6E49C78-2B11-856F-0AB4-723973DA7F90}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="837641" y="3988173"/>
+          <a:ext cx="12060331" cy="4560797"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>139700</xdr:colOff>
+      <xdr:row>39</xdr:row>
+      <xdr:rowOff>120650</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>390525</xdr:colOff>
+      <xdr:row>71</xdr:row>
+      <xdr:rowOff>31085</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="3" name="図 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6408563D-8BC6-F602-EFF2-F057B7452593}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="796925" y="9036050"/>
+          <a:ext cx="12080875" cy="7225635"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>133350</xdr:colOff>
+      <xdr:row>111</xdr:row>
+      <xdr:rowOff>95250</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>323850</xdr:colOff>
+      <xdr:row>143</xdr:row>
+      <xdr:rowOff>121065</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="4" name="図 3">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7D0C96A4-6571-88C7-EFD5-54F8CAE6CB20}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="790575" y="25469850"/>
+          <a:ext cx="6762750" cy="7341015"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>95250</xdr:colOff>
+      <xdr:row>147</xdr:row>
+      <xdr:rowOff>63500</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>445487</xdr:colOff>
+      <xdr:row>178</xdr:row>
+      <xdr:rowOff>85725</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="5" name="図 4">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{019D70D1-040D-C86C-7705-B790591EFFD8}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId4"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="752475" y="33667700"/>
+          <a:ext cx="6922487" cy="7108825"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>95250</xdr:colOff>
+      <xdr:row>182</xdr:row>
+      <xdr:rowOff>57150</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>381000</xdr:colOff>
+      <xdr:row>213</xdr:row>
+      <xdr:rowOff>65126</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="6" name="図 5">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{EE4CF880-9E32-E461-5C24-6B6842BD86FD}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId5"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="752475" y="41662350"/>
+          <a:ext cx="6858000" cy="7100926"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>120650</xdr:colOff>
+      <xdr:row>217</xdr:row>
+      <xdr:rowOff>63500</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>393549</xdr:colOff>
+      <xdr:row>247</xdr:row>
+      <xdr:rowOff>47625</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="7" name="図 6">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{21BF0F20-4D67-BFBA-6E40-DC6438B8C838}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId6"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="777875" y="49669700"/>
+          <a:ext cx="6845149" cy="6842125"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>95250</xdr:colOff>
+      <xdr:row>251</xdr:row>
+      <xdr:rowOff>66675</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>492125</xdr:colOff>
+      <xdr:row>282</xdr:row>
+      <xdr:rowOff>83283</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="8" name="図 7">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{DA928AE8-325D-FE60-6785-1B4910F6A737}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId7"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="752475" y="57445275"/>
+          <a:ext cx="6969125" cy="7103208"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>63501</xdr:colOff>
+      <xdr:row>286</xdr:row>
+      <xdr:rowOff>95250</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>400051</xdr:colOff>
+      <xdr:row>316</xdr:row>
+      <xdr:rowOff>30161</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="9" name="図 8">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{994F7B0F-ADAB-B3A0-E45F-01C2C6864E13}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId8"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="720726" y="65474850"/>
+          <a:ext cx="6908800" cy="6792911"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>139700</xdr:colOff>
+      <xdr:row>320</xdr:row>
+      <xdr:rowOff>63500</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>400050</xdr:colOff>
+      <xdr:row>348</xdr:row>
+      <xdr:rowOff>122156</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="10" name="図 9">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D803021A-37AB-96C4-A2BA-D9756B7DEFFD}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId9"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="796925" y="73215500"/>
+          <a:ext cx="6832600" cy="6465806"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>158750</xdr:colOff>
+      <xdr:row>352</xdr:row>
+      <xdr:rowOff>66675</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>229710</xdr:colOff>
+      <xdr:row>383</xdr:row>
+      <xdr:rowOff>143875</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="11" name="図 10">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{9A338C11-CB70-504B-27FA-10AAF2DDAD32}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId10"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="815975" y="80533875"/>
+          <a:ext cx="7957660" cy="7163800"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>133350</xdr:colOff>
+      <xdr:row>387</xdr:row>
+      <xdr:rowOff>120650</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>178907</xdr:colOff>
+      <xdr:row>419</xdr:row>
+      <xdr:rowOff>102618</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="12" name="図 11">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{452DA174-D409-F575-14EE-4DD3E98142D1}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId11"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="790575" y="88588850"/>
+          <a:ext cx="7932257" cy="7297168"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>209551</xdr:colOff>
+      <xdr:row>423</xdr:row>
+      <xdr:rowOff>44450</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>219076</xdr:colOff>
+      <xdr:row>454</xdr:row>
+      <xdr:rowOff>86118</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="13" name="図 12">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{9D1B3C39-A679-5102-C1DD-24D1F65D8E7B}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId12"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="866776" y="96742250"/>
+          <a:ext cx="7896225" cy="7128268"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>104775</xdr:colOff>
+      <xdr:row>460</xdr:row>
+      <xdr:rowOff>66675</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>239244</xdr:colOff>
+      <xdr:row>491</xdr:row>
+      <xdr:rowOff>169279</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="14" name="図 13">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{8E7B41E9-CFA4-EBE3-EA9F-0554A63134AE}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId13"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="762000" y="105222675"/>
+          <a:ext cx="8021169" cy="7189204"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>104775</xdr:colOff>
+      <xdr:row>455</xdr:row>
+      <xdr:rowOff>209550</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>390525</xdr:colOff>
+      <xdr:row>458</xdr:row>
+      <xdr:rowOff>95250</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="15" name="矢印: 上下 14">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{951D6B35-5236-4B0B-BE0B-77EF27E645FB}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4048125" y="104222550"/>
+          <a:ext cx="285750" cy="571500"/>
+        </a:xfrm>
+        <a:prstGeom prst="upDownArrow">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="15000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
 </xdr:wsDr>
@@ -856,8 +1840,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="B2:S166"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A155" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="A169" sqref="A169"/>
+    <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="R10" sqref="R10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18"/>
@@ -971,200 +1955,88 @@
       <c r="B98" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="C98" s="10"/>
-      <c r="D98" s="10"/>
-      <c r="E98" s="10"/>
-      <c r="F98" s="10"/>
-      <c r="G98" s="10"/>
-      <c r="H98" s="10"/>
-      <c r="I98" s="10"/>
       <c r="J98" s="5"/>
     </row>
     <row r="99" spans="2:10">
       <c r="B99" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="C99" s="10"/>
-      <c r="D99" s="10"/>
-      <c r="E99" s="10"/>
-      <c r="F99" s="10"/>
-      <c r="G99" s="10"/>
-      <c r="H99" s="10"/>
-      <c r="I99" s="10"/>
       <c r="J99" s="5"/>
     </row>
     <row r="100" spans="2:10">
       <c r="B100" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="C100" s="10"/>
-      <c r="D100" s="10"/>
-      <c r="E100" s="10"/>
-      <c r="F100" s="10"/>
-      <c r="G100" s="10"/>
-      <c r="H100" s="10"/>
-      <c r="I100" s="10"/>
       <c r="J100" s="5"/>
     </row>
     <row r="101" spans="2:10">
       <c r="B101" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="C101" s="10"/>
-      <c r="D101" s="10"/>
-      <c r="E101" s="10"/>
-      <c r="F101" s="10"/>
-      <c r="G101" s="10"/>
-      <c r="H101" s="10"/>
-      <c r="I101" s="10"/>
       <c r="J101" s="5"/>
     </row>
     <row r="102" spans="2:10">
       <c r="B102" s="4"/>
-      <c r="C102" s="10"/>
-      <c r="D102" s="10"/>
-      <c r="E102" s="10"/>
-      <c r="F102" s="10"/>
-      <c r="G102" s="10"/>
-      <c r="H102" s="10"/>
-      <c r="I102" s="10"/>
       <c r="J102" s="5"/>
     </row>
     <row r="103" spans="2:10">
       <c r="B103" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="C103" s="10"/>
-      <c r="D103" s="10"/>
-      <c r="E103" s="10"/>
-      <c r="F103" s="10"/>
-      <c r="G103" s="10"/>
-      <c r="H103" s="10"/>
-      <c r="I103" s="10"/>
       <c r="J103" s="5"/>
     </row>
     <row r="104" spans="2:10">
       <c r="B104" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="C104" s="10"/>
-      <c r="D104" s="10"/>
-      <c r="E104" s="10"/>
-      <c r="F104" s="10"/>
-      <c r="G104" s="10"/>
-      <c r="H104" s="10"/>
-      <c r="I104" s="10"/>
       <c r="J104" s="5"/>
     </row>
     <row r="105" spans="2:10">
       <c r="B105" s="4"/>
-      <c r="C105" s="10"/>
-      <c r="D105" s="10"/>
-      <c r="E105" s="10"/>
-      <c r="F105" s="10"/>
-      <c r="G105" s="10"/>
-      <c r="H105" s="10"/>
-      <c r="I105" s="10"/>
       <c r="J105" s="5"/>
     </row>
     <row r="106" spans="2:10">
       <c r="B106" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="C106" s="10"/>
-      <c r="D106" s="10"/>
-      <c r="E106" s="10"/>
-      <c r="F106" s="10"/>
-      <c r="G106" s="10"/>
-      <c r="H106" s="10"/>
-      <c r="I106" s="10"/>
       <c r="J106" s="5"/>
     </row>
     <row r="107" spans="2:10">
       <c r="B107" s="4" t="s">
         <v>26</v>
       </c>
-      <c r="C107" s="10"/>
-      <c r="D107" s="10"/>
-      <c r="E107" s="10"/>
-      <c r="F107" s="10"/>
-      <c r="G107" s="10"/>
-      <c r="H107" s="10"/>
-      <c r="I107" s="10"/>
       <c r="J107" s="5"/>
     </row>
     <row r="108" spans="2:10">
       <c r="B108" s="4"/>
-      <c r="C108" s="10"/>
-      <c r="D108" s="10"/>
-      <c r="E108" s="10"/>
-      <c r="F108" s="10"/>
-      <c r="G108" s="10"/>
-      <c r="H108" s="10"/>
-      <c r="I108" s="10"/>
       <c r="J108" s="5"/>
     </row>
     <row r="109" spans="2:10">
       <c r="B109" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="C109" s="10"/>
-      <c r="D109" s="10"/>
-      <c r="E109" s="10"/>
-      <c r="F109" s="10"/>
-      <c r="G109" s="10"/>
-      <c r="H109" s="10"/>
-      <c r="I109" s="10"/>
       <c r="J109" s="5"/>
     </row>
     <row r="110" spans="2:10">
       <c r="B110" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="C110" s="10"/>
-      <c r="D110" s="10"/>
-      <c r="E110" s="10"/>
-      <c r="F110" s="10"/>
-      <c r="G110" s="10"/>
-      <c r="H110" s="10"/>
-      <c r="I110" s="10"/>
       <c r="J110" s="5"/>
     </row>
     <row r="111" spans="2:10">
       <c r="B111" s="4"/>
-      <c r="C111" s="10"/>
-      <c r="D111" s="10"/>
-      <c r="E111" s="10"/>
-      <c r="F111" s="10"/>
-      <c r="G111" s="10"/>
-      <c r="H111" s="10"/>
-      <c r="I111" s="10"/>
       <c r="J111" s="5"/>
     </row>
     <row r="112" spans="2:10">
       <c r="B112" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="C112" s="10"/>
-      <c r="D112" s="10"/>
-      <c r="E112" s="10"/>
-      <c r="F112" s="10"/>
-      <c r="G112" s="10"/>
-      <c r="H112" s="10"/>
-      <c r="I112" s="10"/>
       <c r="J112" s="5"/>
     </row>
     <row r="113" spans="2:19">
       <c r="B113" s="4" t="s">
         <v>21</v>
       </c>
-      <c r="C113" s="10"/>
-      <c r="D113" s="10"/>
-      <c r="E113" s="10"/>
-      <c r="F113" s="10"/>
-      <c r="G113" s="10"/>
-      <c r="H113" s="10"/>
-      <c r="I113" s="10"/>
       <c r="J113" s="5"/>
     </row>
     <row r="114" spans="2:19">
@@ -1202,20 +2074,6 @@
       <c r="B118" s="4" t="s">
         <v>23</v>
       </c>
-      <c r="C118" s="10"/>
-      <c r="D118" s="10"/>
-      <c r="E118" s="10"/>
-      <c r="F118" s="10"/>
-      <c r="G118" s="10"/>
-      <c r="H118" s="10"/>
-      <c r="I118" s="10"/>
-      <c r="J118" s="10"/>
-      <c r="K118" s="10"/>
-      <c r="L118" s="10"/>
-      <c r="M118" s="10"/>
-      <c r="N118" s="10"/>
-      <c r="O118" s="10"/>
-      <c r="P118" s="10"/>
       <c r="Q118" s="5"/>
       <c r="R118" t="s">
         <v>22</v>
@@ -1226,20 +2084,6 @@
     </row>
     <row r="119" spans="2:19">
       <c r="B119" s="4"/>
-      <c r="C119" s="10"/>
-      <c r="D119" s="10"/>
-      <c r="E119" s="10"/>
-      <c r="F119" s="10"/>
-      <c r="G119" s="10"/>
-      <c r="H119" s="10"/>
-      <c r="I119" s="10"/>
-      <c r="J119" s="10"/>
-      <c r="K119" s="10"/>
-      <c r="L119" s="10"/>
-      <c r="M119" s="10"/>
-      <c r="N119" s="10"/>
-      <c r="O119" s="10"/>
-      <c r="P119" s="10"/>
       <c r="Q119" s="5"/>
       <c r="S119" t="s">
         <v>25</v>
@@ -1247,542 +2091,122 @@
     </row>
     <row r="120" spans="2:19">
       <c r="B120" s="4"/>
-      <c r="C120" s="10"/>
-      <c r="D120" s="10"/>
-      <c r="E120" s="10"/>
-      <c r="F120" s="10"/>
-      <c r="G120" s="10"/>
-      <c r="H120" s="10"/>
-      <c r="I120" s="10"/>
-      <c r="J120" s="10"/>
-      <c r="K120" s="10"/>
-      <c r="L120" s="10"/>
-      <c r="M120" s="10"/>
-      <c r="N120" s="10"/>
-      <c r="O120" s="10"/>
-      <c r="P120" s="10"/>
       <c r="Q120" s="5"/>
     </row>
     <row r="121" spans="2:19">
       <c r="B121" s="4"/>
-      <c r="C121" s="10"/>
-      <c r="D121" s="10"/>
-      <c r="E121" s="10"/>
-      <c r="F121" s="10"/>
-      <c r="G121" s="10"/>
-      <c r="H121" s="10"/>
-      <c r="I121" s="10"/>
-      <c r="J121" s="10"/>
-      <c r="K121" s="10"/>
-      <c r="L121" s="10"/>
-      <c r="M121" s="10"/>
-      <c r="N121" s="10"/>
-      <c r="O121" s="10"/>
-      <c r="P121" s="10"/>
       <c r="Q121" s="5"/>
     </row>
     <row r="122" spans="2:19">
       <c r="B122" s="4"/>
-      <c r="C122" s="10"/>
-      <c r="D122" s="10"/>
-      <c r="E122" s="10"/>
-      <c r="F122" s="10"/>
-      <c r="G122" s="10"/>
-      <c r="H122" s="10"/>
-      <c r="I122" s="10"/>
-      <c r="J122" s="10"/>
-      <c r="K122" s="10"/>
-      <c r="L122" s="10"/>
-      <c r="M122" s="10"/>
-      <c r="N122" s="10"/>
-      <c r="O122" s="10"/>
-      <c r="P122" s="10"/>
       <c r="Q122" s="5"/>
     </row>
     <row r="123" spans="2:19">
       <c r="B123" s="4"/>
-      <c r="C123" s="10"/>
-      <c r="D123" s="10"/>
-      <c r="E123" s="10"/>
-      <c r="F123" s="10"/>
-      <c r="G123" s="10"/>
-      <c r="H123" s="10"/>
-      <c r="I123" s="10"/>
-      <c r="J123" s="10"/>
-      <c r="K123" s="10"/>
-      <c r="L123" s="10"/>
-      <c r="M123" s="10"/>
-      <c r="N123" s="10"/>
-      <c r="O123" s="10"/>
-      <c r="P123" s="10"/>
       <c r="Q123" s="5"/>
     </row>
     <row r="124" spans="2:19">
       <c r="B124" s="4"/>
-      <c r="C124" s="10"/>
-      <c r="D124" s="10"/>
-      <c r="E124" s="10"/>
-      <c r="F124" s="10"/>
-      <c r="G124" s="10"/>
-      <c r="H124" s="10"/>
-      <c r="I124" s="10"/>
-      <c r="J124" s="10"/>
-      <c r="K124" s="10"/>
-      <c r="L124" s="10"/>
-      <c r="M124" s="10"/>
-      <c r="N124" s="10"/>
-      <c r="O124" s="10"/>
-      <c r="P124" s="10"/>
       <c r="Q124" s="5"/>
     </row>
     <row r="125" spans="2:19">
       <c r="B125" s="4"/>
-      <c r="C125" s="10"/>
-      <c r="D125" s="10"/>
-      <c r="E125" s="10"/>
-      <c r="F125" s="10"/>
-      <c r="G125" s="10"/>
-      <c r="H125" s="10"/>
-      <c r="I125" s="10"/>
-      <c r="J125" s="10"/>
-      <c r="K125" s="10"/>
-      <c r="L125" s="10"/>
-      <c r="M125" s="10"/>
-      <c r="N125" s="10"/>
-      <c r="O125" s="10"/>
-      <c r="P125" s="10"/>
       <c r="Q125" s="5"/>
     </row>
     <row r="126" spans="2:19">
       <c r="B126" s="4"/>
-      <c r="C126" s="10"/>
-      <c r="D126" s="10"/>
-      <c r="E126" s="10"/>
-      <c r="F126" s="10"/>
-      <c r="G126" s="10"/>
-      <c r="H126" s="10"/>
-      <c r="I126" s="10"/>
-      <c r="J126" s="10"/>
-      <c r="K126" s="10"/>
-      <c r="L126" s="10"/>
-      <c r="M126" s="10"/>
-      <c r="N126" s="10"/>
-      <c r="O126" s="10"/>
-      <c r="P126" s="10"/>
       <c r="Q126" s="5"/>
     </row>
     <row r="127" spans="2:19">
       <c r="B127" s="4"/>
-      <c r="C127" s="10"/>
-      <c r="D127" s="10"/>
-      <c r="E127" s="10"/>
-      <c r="F127" s="10"/>
-      <c r="G127" s="10"/>
-      <c r="H127" s="10"/>
-      <c r="I127" s="10"/>
-      <c r="J127" s="10"/>
-      <c r="K127" s="10"/>
-      <c r="L127" s="10"/>
-      <c r="M127" s="10"/>
-      <c r="N127" s="10"/>
-      <c r="O127" s="10"/>
-      <c r="P127" s="10"/>
       <c r="Q127" s="5"/>
     </row>
     <row r="128" spans="2:19">
       <c r="B128" s="4"/>
-      <c r="C128" s="10"/>
-      <c r="D128" s="10"/>
-      <c r="E128" s="10"/>
-      <c r="F128" s="10"/>
-      <c r="G128" s="10"/>
-      <c r="H128" s="10"/>
-      <c r="I128" s="10"/>
-      <c r="J128" s="10"/>
-      <c r="K128" s="10"/>
-      <c r="L128" s="10"/>
-      <c r="M128" s="10"/>
-      <c r="N128" s="10"/>
-      <c r="O128" s="10"/>
-      <c r="P128" s="10"/>
       <c r="Q128" s="5"/>
     </row>
     <row r="129" spans="2:17">
       <c r="B129" s="4"/>
-      <c r="C129" s="10"/>
-      <c r="D129" s="10"/>
-      <c r="E129" s="10"/>
-      <c r="F129" s="10"/>
-      <c r="G129" s="10"/>
-      <c r="H129" s="10"/>
-      <c r="I129" s="10"/>
-      <c r="J129" s="10"/>
-      <c r="K129" s="10"/>
-      <c r="L129" s="10"/>
-      <c r="M129" s="10"/>
-      <c r="N129" s="10"/>
-      <c r="O129" s="10"/>
-      <c r="P129" s="10"/>
       <c r="Q129" s="5"/>
     </row>
     <row r="130" spans="2:17">
       <c r="B130" s="4"/>
-      <c r="C130" s="10"/>
-      <c r="D130" s="10"/>
-      <c r="E130" s="10"/>
-      <c r="F130" s="10"/>
-      <c r="G130" s="10"/>
-      <c r="H130" s="10"/>
-      <c r="I130" s="10"/>
-      <c r="J130" s="10"/>
-      <c r="K130" s="10"/>
-      <c r="L130" s="10"/>
-      <c r="M130" s="10"/>
-      <c r="N130" s="10"/>
-      <c r="O130" s="10"/>
-      <c r="P130" s="10"/>
       <c r="Q130" s="5"/>
     </row>
     <row r="131" spans="2:17">
       <c r="B131" s="4"/>
-      <c r="C131" s="10"/>
-      <c r="D131" s="10"/>
-      <c r="E131" s="10"/>
-      <c r="F131" s="10"/>
-      <c r="G131" s="10"/>
-      <c r="H131" s="10"/>
-      <c r="I131" s="10"/>
-      <c r="J131" s="10"/>
-      <c r="K131" s="10"/>
-      <c r="L131" s="10"/>
-      <c r="M131" s="10"/>
-      <c r="N131" s="10"/>
-      <c r="O131" s="10"/>
-      <c r="P131" s="10"/>
       <c r="Q131" s="5"/>
     </row>
     <row r="132" spans="2:17">
       <c r="B132" s="4"/>
-      <c r="C132" s="10"/>
-      <c r="D132" s="10"/>
-      <c r="E132" s="10"/>
-      <c r="F132" s="10"/>
-      <c r="G132" s="10"/>
-      <c r="H132" s="10"/>
-      <c r="I132" s="10"/>
-      <c r="J132" s="10"/>
-      <c r="K132" s="10"/>
-      <c r="L132" s="10"/>
-      <c r="M132" s="10"/>
-      <c r="N132" s="10"/>
-      <c r="O132" s="10"/>
-      <c r="P132" s="10"/>
       <c r="Q132" s="5"/>
     </row>
     <row r="133" spans="2:17">
       <c r="B133" s="4"/>
-      <c r="C133" s="10"/>
-      <c r="D133" s="10"/>
-      <c r="E133" s="10"/>
-      <c r="F133" s="10"/>
-      <c r="G133" s="10"/>
-      <c r="H133" s="10"/>
-      <c r="I133" s="10"/>
-      <c r="J133" s="10"/>
-      <c r="K133" s="10"/>
-      <c r="L133" s="10"/>
-      <c r="M133" s="10"/>
-      <c r="N133" s="10"/>
-      <c r="O133" s="10"/>
-      <c r="P133" s="10"/>
       <c r="Q133" s="5"/>
     </row>
     <row r="134" spans="2:17">
       <c r="B134" s="4"/>
-      <c r="C134" s="10"/>
-      <c r="D134" s="10"/>
-      <c r="E134" s="10"/>
-      <c r="F134" s="10"/>
-      <c r="G134" s="10"/>
-      <c r="H134" s="10"/>
-      <c r="I134" s="10"/>
-      <c r="J134" s="10"/>
-      <c r="K134" s="10"/>
-      <c r="L134" s="10"/>
-      <c r="M134" s="10"/>
-      <c r="N134" s="10"/>
-      <c r="O134" s="10"/>
-      <c r="P134" s="10"/>
       <c r="Q134" s="5"/>
     </row>
     <row r="135" spans="2:17">
       <c r="B135" s="4"/>
-      <c r="C135" s="10"/>
-      <c r="D135" s="10"/>
-      <c r="E135" s="10"/>
-      <c r="F135" s="10"/>
-      <c r="G135" s="10"/>
-      <c r="H135" s="10"/>
-      <c r="I135" s="10"/>
-      <c r="J135" s="10"/>
-      <c r="K135" s="10"/>
-      <c r="L135" s="10"/>
-      <c r="M135" s="10"/>
-      <c r="N135" s="10"/>
-      <c r="O135" s="10"/>
-      <c r="P135" s="10"/>
       <c r="Q135" s="5"/>
     </row>
     <row r="136" spans="2:17">
       <c r="B136" s="4"/>
-      <c r="C136" s="10"/>
-      <c r="D136" s="10"/>
-      <c r="E136" s="10"/>
-      <c r="F136" s="10"/>
-      <c r="G136" s="10"/>
-      <c r="H136" s="10"/>
-      <c r="I136" s="10"/>
-      <c r="J136" s="10"/>
-      <c r="K136" s="10"/>
-      <c r="L136" s="10"/>
-      <c r="M136" s="10"/>
-      <c r="N136" s="10"/>
-      <c r="O136" s="10"/>
-      <c r="P136" s="10"/>
       <c r="Q136" s="5"/>
     </row>
     <row r="137" spans="2:17">
       <c r="B137" s="4"/>
-      <c r="C137" s="10"/>
-      <c r="D137" s="10"/>
-      <c r="E137" s="10"/>
-      <c r="F137" s="10"/>
-      <c r="G137" s="10"/>
-      <c r="H137" s="10"/>
-      <c r="I137" s="10"/>
-      <c r="J137" s="10"/>
-      <c r="K137" s="10"/>
-      <c r="L137" s="10"/>
-      <c r="M137" s="10"/>
-      <c r="N137" s="10"/>
-      <c r="O137" s="10"/>
-      <c r="P137" s="10"/>
       <c r="Q137" s="5"/>
     </row>
     <row r="138" spans="2:17">
       <c r="B138" s="4"/>
-      <c r="C138" s="10"/>
-      <c r="D138" s="10"/>
-      <c r="E138" s="10"/>
-      <c r="F138" s="10"/>
-      <c r="G138" s="10"/>
-      <c r="H138" s="10"/>
-      <c r="I138" s="10"/>
-      <c r="J138" s="10"/>
-      <c r="K138" s="10"/>
-      <c r="L138" s="10"/>
-      <c r="M138" s="10"/>
-      <c r="N138" s="10"/>
-      <c r="O138" s="10"/>
-      <c r="P138" s="10"/>
       <c r="Q138" s="5"/>
     </row>
     <row r="139" spans="2:17">
       <c r="B139" s="4"/>
-      <c r="C139" s="10"/>
-      <c r="D139" s="10"/>
-      <c r="E139" s="10"/>
-      <c r="F139" s="10"/>
-      <c r="G139" s="10"/>
-      <c r="H139" s="10"/>
-      <c r="I139" s="10"/>
-      <c r="J139" s="10"/>
-      <c r="K139" s="10"/>
-      <c r="L139" s="10"/>
-      <c r="M139" s="10"/>
-      <c r="N139" s="10"/>
-      <c r="O139" s="10"/>
-      <c r="P139" s="10"/>
       <c r="Q139" s="5"/>
     </row>
     <row r="140" spans="2:17">
       <c r="B140" s="4"/>
-      <c r="C140" s="10"/>
-      <c r="D140" s="10"/>
-      <c r="E140" s="10"/>
-      <c r="F140" s="10"/>
-      <c r="G140" s="10"/>
-      <c r="H140" s="10"/>
-      <c r="I140" s="10"/>
-      <c r="J140" s="10"/>
-      <c r="K140" s="10"/>
-      <c r="L140" s="10"/>
-      <c r="M140" s="10"/>
-      <c r="N140" s="10"/>
-      <c r="O140" s="10"/>
-      <c r="P140" s="10"/>
       <c r="Q140" s="5"/>
     </row>
     <row r="141" spans="2:17">
       <c r="B141" s="4"/>
-      <c r="C141" s="10"/>
-      <c r="D141" s="10"/>
-      <c r="E141" s="10"/>
-      <c r="F141" s="10"/>
-      <c r="G141" s="10"/>
-      <c r="H141" s="10"/>
-      <c r="I141" s="10"/>
-      <c r="J141" s="10"/>
-      <c r="K141" s="10"/>
-      <c r="L141" s="10"/>
-      <c r="M141" s="10"/>
-      <c r="N141" s="10"/>
-      <c r="O141" s="10"/>
-      <c r="P141" s="10"/>
       <c r="Q141" s="5"/>
     </row>
     <row r="142" spans="2:17">
       <c r="B142" s="4"/>
-      <c r="C142" s="10"/>
-      <c r="D142" s="10"/>
-      <c r="E142" s="10"/>
-      <c r="F142" s="10"/>
-      <c r="G142" s="10"/>
-      <c r="H142" s="10"/>
-      <c r="I142" s="10"/>
-      <c r="J142" s="10"/>
-      <c r="K142" s="10"/>
-      <c r="L142" s="10"/>
-      <c r="M142" s="10"/>
-      <c r="N142" s="10"/>
-      <c r="O142" s="10"/>
-      <c r="P142" s="10"/>
       <c r="Q142" s="5"/>
     </row>
     <row r="143" spans="2:17">
       <c r="B143" s="4"/>
-      <c r="C143" s="10"/>
-      <c r="D143" s="10"/>
-      <c r="E143" s="10"/>
-      <c r="F143" s="10"/>
-      <c r="G143" s="10"/>
-      <c r="H143" s="10"/>
-      <c r="I143" s="10"/>
-      <c r="J143" s="10"/>
-      <c r="K143" s="10"/>
-      <c r="L143" s="10"/>
-      <c r="M143" s="10"/>
-      <c r="N143" s="10"/>
-      <c r="O143" s="10"/>
-      <c r="P143" s="10"/>
       <c r="Q143" s="5"/>
     </row>
     <row r="144" spans="2:17">
       <c r="B144" s="4"/>
-      <c r="C144" s="10"/>
-      <c r="D144" s="10"/>
-      <c r="E144" s="10"/>
-      <c r="F144" s="10"/>
-      <c r="G144" s="10"/>
-      <c r="H144" s="10"/>
-      <c r="I144" s="10"/>
-      <c r="J144" s="10"/>
-      <c r="K144" s="10"/>
-      <c r="L144" s="10"/>
-      <c r="M144" s="10"/>
-      <c r="N144" s="10"/>
-      <c r="O144" s="10"/>
-      <c r="P144" s="10"/>
       <c r="Q144" s="5"/>
     </row>
     <row r="145" spans="2:17">
       <c r="B145" s="4"/>
-      <c r="C145" s="10"/>
-      <c r="D145" s="10"/>
-      <c r="E145" s="10"/>
-      <c r="F145" s="10"/>
-      <c r="G145" s="10"/>
-      <c r="H145" s="10"/>
-      <c r="I145" s="10"/>
-      <c r="J145" s="10"/>
-      <c r="K145" s="10"/>
-      <c r="L145" s="10"/>
-      <c r="M145" s="10"/>
-      <c r="N145" s="10"/>
-      <c r="O145" s="10"/>
-      <c r="P145" s="10"/>
       <c r="Q145" s="5"/>
     </row>
     <row r="146" spans="2:17">
       <c r="B146" s="4"/>
-      <c r="C146" s="10"/>
-      <c r="D146" s="10"/>
-      <c r="E146" s="10"/>
-      <c r="F146" s="10"/>
-      <c r="G146" s="10"/>
-      <c r="H146" s="10"/>
-      <c r="I146" s="10"/>
-      <c r="J146" s="10"/>
-      <c r="K146" s="10"/>
-      <c r="L146" s="10"/>
-      <c r="M146" s="10"/>
-      <c r="N146" s="10"/>
-      <c r="O146" s="10"/>
-      <c r="P146" s="10"/>
       <c r="Q146" s="5"/>
     </row>
     <row r="147" spans="2:17">
       <c r="B147" s="4"/>
-      <c r="C147" s="10"/>
-      <c r="D147" s="10"/>
-      <c r="E147" s="10"/>
-      <c r="F147" s="10"/>
-      <c r="G147" s="10"/>
-      <c r="H147" s="10"/>
-      <c r="I147" s="10"/>
-      <c r="J147" s="10"/>
-      <c r="K147" s="10"/>
-      <c r="L147" s="10"/>
-      <c r="M147" s="10"/>
-      <c r="N147" s="10"/>
-      <c r="O147" s="10"/>
-      <c r="P147" s="10"/>
       <c r="Q147" s="5"/>
     </row>
     <row r="148" spans="2:17">
       <c r="B148" s="4"/>
-      <c r="C148" s="10"/>
-      <c r="D148" s="10"/>
-      <c r="E148" s="10"/>
-      <c r="F148" s="10"/>
-      <c r="G148" s="10"/>
-      <c r="H148" s="10"/>
-      <c r="I148" s="10"/>
-      <c r="J148" s="10"/>
-      <c r="K148" s="10"/>
-      <c r="L148" s="10"/>
-      <c r="M148" s="10"/>
-      <c r="N148" s="10"/>
-      <c r="O148" s="10"/>
-      <c r="P148" s="10"/>
       <c r="Q148" s="5"/>
     </row>
     <row r="149" spans="2:17">
       <c r="B149" s="4"/>
-      <c r="C149" s="10"/>
-      <c r="D149" s="10"/>
-      <c r="E149" s="10"/>
-      <c r="F149" s="10"/>
-      <c r="G149" s="10"/>
-      <c r="H149" s="10"/>
-      <c r="I149" s="10"/>
-      <c r="J149" s="10"/>
-      <c r="K149" s="10"/>
-      <c r="L149" s="10"/>
-      <c r="M149" s="10"/>
-      <c r="N149" s="10"/>
-      <c r="O149" s="10"/>
-      <c r="P149" s="10"/>
       <c r="Q149" s="5"/>
     </row>
     <row r="150" spans="2:17">
@@ -1827,218 +2251,50 @@
       <c r="B154" s="4" t="s">
         <v>26</v>
       </c>
-      <c r="C154" s="10"/>
-      <c r="D154" s="10"/>
-      <c r="E154" s="10"/>
-      <c r="F154" s="10"/>
-      <c r="G154" s="10"/>
-      <c r="H154" s="10"/>
-      <c r="I154" s="10"/>
-      <c r="J154" s="10"/>
-      <c r="K154" s="10"/>
-      <c r="L154" s="10"/>
-      <c r="M154" s="10"/>
-      <c r="N154" s="10"/>
-      <c r="O154" s="10"/>
-      <c r="P154" s="10"/>
       <c r="Q154" s="5"/>
     </row>
     <row r="155" spans="2:17">
       <c r="B155" s="4"/>
-      <c r="C155" s="10"/>
-      <c r="D155" s="10"/>
-      <c r="E155" s="10"/>
-      <c r="F155" s="10"/>
-      <c r="G155" s="10"/>
-      <c r="H155" s="10"/>
-      <c r="I155" s="10"/>
-      <c r="J155" s="10"/>
-      <c r="K155" s="10"/>
-      <c r="L155" s="10"/>
-      <c r="M155" s="10"/>
-      <c r="N155" s="10"/>
-      <c r="O155" s="10"/>
-      <c r="P155" s="10"/>
       <c r="Q155" s="5"/>
     </row>
     <row r="156" spans="2:17">
       <c r="B156" s="4"/>
-      <c r="C156" s="10"/>
-      <c r="D156" s="10"/>
-      <c r="E156" s="10"/>
-      <c r="F156" s="10"/>
-      <c r="G156" s="10"/>
-      <c r="H156" s="10"/>
-      <c r="I156" s="10"/>
-      <c r="J156" s="10"/>
-      <c r="K156" s="10"/>
-      <c r="L156" s="10"/>
-      <c r="M156" s="10"/>
-      <c r="N156" s="10"/>
-      <c r="O156" s="10"/>
-      <c r="P156" s="10"/>
       <c r="Q156" s="5"/>
     </row>
     <row r="157" spans="2:17">
       <c r="B157" s="4"/>
-      <c r="C157" s="10"/>
-      <c r="D157" s="10"/>
-      <c r="E157" s="10"/>
-      <c r="F157" s="10"/>
-      <c r="G157" s="10"/>
-      <c r="H157" s="10"/>
-      <c r="I157" s="10"/>
-      <c r="J157" s="10"/>
-      <c r="K157" s="10"/>
-      <c r="L157" s="10"/>
-      <c r="M157" s="10"/>
-      <c r="N157" s="10"/>
-      <c r="O157" s="10"/>
-      <c r="P157" s="10"/>
       <c r="Q157" s="5"/>
     </row>
     <row r="158" spans="2:17">
       <c r="B158" s="4"/>
-      <c r="C158" s="10"/>
-      <c r="D158" s="10"/>
-      <c r="E158" s="10"/>
-      <c r="F158" s="10"/>
-      <c r="G158" s="10"/>
-      <c r="H158" s="10"/>
-      <c r="I158" s="10"/>
-      <c r="J158" s="10"/>
-      <c r="K158" s="10"/>
-      <c r="L158" s="10"/>
-      <c r="M158" s="10"/>
-      <c r="N158" s="10"/>
-      <c r="O158" s="10"/>
-      <c r="P158" s="10"/>
       <c r="Q158" s="5"/>
     </row>
     <row r="159" spans="2:17">
       <c r="B159" s="4"/>
-      <c r="C159" s="10"/>
-      <c r="D159" s="10"/>
-      <c r="E159" s="10"/>
-      <c r="F159" s="10"/>
-      <c r="G159" s="10"/>
-      <c r="H159" s="10"/>
-      <c r="I159" s="10"/>
-      <c r="J159" s="10"/>
-      <c r="K159" s="10"/>
-      <c r="L159" s="10"/>
-      <c r="M159" s="10"/>
-      <c r="N159" s="10"/>
-      <c r="O159" s="10"/>
-      <c r="P159" s="10"/>
       <c r="Q159" s="5"/>
     </row>
     <row r="160" spans="2:17">
       <c r="B160" s="4"/>
-      <c r="C160" s="10"/>
-      <c r="D160" s="10"/>
-      <c r="E160" s="10"/>
-      <c r="F160" s="10"/>
-      <c r="G160" s="10"/>
-      <c r="H160" s="10"/>
-      <c r="I160" s="10"/>
-      <c r="J160" s="10"/>
-      <c r="K160" s="10"/>
-      <c r="L160" s="10"/>
-      <c r="M160" s="10"/>
-      <c r="N160" s="10"/>
-      <c r="O160" s="10"/>
-      <c r="P160" s="10"/>
       <c r="Q160" s="5"/>
     </row>
     <row r="161" spans="2:17">
       <c r="B161" s="4"/>
-      <c r="C161" s="10"/>
-      <c r="D161" s="10"/>
-      <c r="E161" s="10"/>
-      <c r="F161" s="10"/>
-      <c r="G161" s="10"/>
-      <c r="H161" s="10"/>
-      <c r="I161" s="10"/>
-      <c r="J161" s="10"/>
-      <c r="K161" s="10"/>
-      <c r="L161" s="10"/>
-      <c r="M161" s="10"/>
-      <c r="N161" s="10"/>
-      <c r="O161" s="10"/>
-      <c r="P161" s="10"/>
       <c r="Q161" s="5"/>
     </row>
     <row r="162" spans="2:17">
       <c r="B162" s="4"/>
-      <c r="C162" s="10"/>
-      <c r="D162" s="10"/>
-      <c r="E162" s="10"/>
-      <c r="F162" s="10"/>
-      <c r="G162" s="10"/>
-      <c r="H162" s="10"/>
-      <c r="I162" s="10"/>
-      <c r="J162" s="10"/>
-      <c r="K162" s="10"/>
-      <c r="L162" s="10"/>
-      <c r="M162" s="10"/>
-      <c r="N162" s="10"/>
-      <c r="O162" s="10"/>
-      <c r="P162" s="10"/>
       <c r="Q162" s="5"/>
     </row>
     <row r="163" spans="2:17">
       <c r="B163" s="4"/>
-      <c r="C163" s="10"/>
-      <c r="D163" s="10"/>
-      <c r="E163" s="10"/>
-      <c r="F163" s="10"/>
-      <c r="G163" s="10"/>
-      <c r="H163" s="10"/>
-      <c r="I163" s="10"/>
-      <c r="J163" s="10"/>
-      <c r="K163" s="10"/>
-      <c r="L163" s="10"/>
-      <c r="M163" s="10"/>
-      <c r="N163" s="10"/>
-      <c r="O163" s="10"/>
-      <c r="P163" s="10"/>
       <c r="Q163" s="5"/>
     </row>
     <row r="164" spans="2:17">
       <c r="B164" s="4"/>
-      <c r="C164" s="10"/>
-      <c r="D164" s="10"/>
-      <c r="E164" s="10"/>
-      <c r="F164" s="10"/>
-      <c r="G164" s="10"/>
-      <c r="H164" s="10"/>
-      <c r="I164" s="10"/>
-      <c r="J164" s="10"/>
-      <c r="K164" s="10"/>
-      <c r="L164" s="10"/>
-      <c r="M164" s="10"/>
-      <c r="N164" s="10"/>
-      <c r="O164" s="10"/>
-      <c r="P164" s="10"/>
       <c r="Q164" s="5"/>
     </row>
     <row r="165" spans="2:17">
       <c r="B165" s="4"/>
-      <c r="C165" s="10"/>
-      <c r="D165" s="10"/>
-      <c r="E165" s="10"/>
-      <c r="F165" s="10"/>
-      <c r="G165" s="10"/>
-      <c r="H165" s="10"/>
-      <c r="I165" s="10"/>
-      <c r="J165" s="10"/>
-      <c r="K165" s="10"/>
-      <c r="L165" s="10"/>
-      <c r="M165" s="10"/>
-      <c r="N165" s="10"/>
-      <c r="O165" s="10"/>
-      <c r="P165" s="10"/>
       <c r="Q165" s="5"/>
     </row>
     <row r="166" spans="2:17">
@@ -2064,4 +2320,5682 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3BFC0363-B2E2-4CEF-9ECB-2A64B70E2817}">
+  <dimension ref="B2:N492"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="A448" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="S458" sqref="S458"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="18"/>
+  <sheetData>
+    <row r="2" spans="2:13">
+      <c r="B2" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="5" spans="2:13">
+      <c r="B5" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C5" s="2"/>
+      <c r="D5" s="2"/>
+      <c r="E5" s="2"/>
+      <c r="F5" s="2"/>
+      <c r="G5" s="2"/>
+      <c r="H5" s="2"/>
+      <c r="I5" s="2"/>
+      <c r="J5" s="2"/>
+      <c r="K5" s="2"/>
+      <c r="L5" s="2"/>
+      <c r="M5" s="3"/>
+    </row>
+    <row r="6" spans="2:13">
+      <c r="B6" s="4"/>
+      <c r="C6" t="s">
+        <v>1</v>
+      </c>
+      <c r="M6" s="5"/>
+    </row>
+    <row r="7" spans="2:13">
+      <c r="B7" s="4"/>
+      <c r="C7" t="s">
+        <v>2</v>
+      </c>
+      <c r="M7" s="5"/>
+    </row>
+    <row r="8" spans="2:13">
+      <c r="B8" s="4"/>
+      <c r="C8" t="s">
+        <v>3</v>
+      </c>
+      <c r="M8" s="5"/>
+    </row>
+    <row r="9" spans="2:13">
+      <c r="B9" s="4"/>
+      <c r="C9" t="s">
+        <v>4</v>
+      </c>
+      <c r="M9" s="5"/>
+    </row>
+    <row r="10" spans="2:13">
+      <c r="B10" s="4"/>
+      <c r="C10" t="s">
+        <v>5</v>
+      </c>
+      <c r="D10" s="6"/>
+      <c r="M10" s="5"/>
+    </row>
+    <row r="11" spans="2:13">
+      <c r="B11" s="4"/>
+      <c r="C11" t="s">
+        <v>6</v>
+      </c>
+      <c r="M11" s="5"/>
+    </row>
+    <row r="12" spans="2:13">
+      <c r="B12" s="4"/>
+      <c r="C12" t="s">
+        <v>7</v>
+      </c>
+      <c r="M12" s="5"/>
+    </row>
+    <row r="13" spans="2:13">
+      <c r="B13" s="4"/>
+      <c r="D13" s="10" t="s">
+        <v>8</v>
+      </c>
+      <c r="M13" s="5"/>
+    </row>
+    <row r="14" spans="2:13">
+      <c r="B14" s="4"/>
+      <c r="D14" s="6" t="s">
+        <v>28</v>
+      </c>
+      <c r="M14" s="5"/>
+    </row>
+    <row r="15" spans="2:13">
+      <c r="B15" s="7"/>
+      <c r="C15" s="8"/>
+      <c r="D15" s="8"/>
+      <c r="E15" s="8"/>
+      <c r="F15" s="8"/>
+      <c r="G15" s="8"/>
+      <c r="H15" s="8"/>
+      <c r="I15" s="8"/>
+      <c r="J15" s="8"/>
+      <c r="K15" s="8"/>
+      <c r="L15" s="8"/>
+      <c r="M15" s="9"/>
+    </row>
+    <row r="74" spans="2:14">
+      <c r="B74" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="75" spans="2:14">
+      <c r="B75" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="C75" s="2"/>
+      <c r="D75" s="2"/>
+      <c r="E75" s="2"/>
+      <c r="F75" s="2"/>
+      <c r="G75" s="2"/>
+      <c r="H75" s="2"/>
+      <c r="I75" s="2"/>
+      <c r="J75" s="2"/>
+      <c r="K75" s="2"/>
+      <c r="L75" s="2"/>
+      <c r="M75" s="2"/>
+      <c r="N75" s="3"/>
+    </row>
+    <row r="76" spans="2:14">
+      <c r="B76" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="C76" s="11"/>
+      <c r="D76" s="11"/>
+      <c r="E76" s="11"/>
+      <c r="F76" s="11"/>
+      <c r="G76" s="11"/>
+      <c r="H76" s="11"/>
+      <c r="I76" s="11"/>
+      <c r="J76" s="11"/>
+      <c r="K76" s="11"/>
+      <c r="L76" s="11"/>
+      <c r="M76" s="11"/>
+      <c r="N76" s="5"/>
+    </row>
+    <row r="77" spans="2:14">
+      <c r="B77" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="C77" s="11"/>
+      <c r="D77" s="11"/>
+      <c r="E77" s="11"/>
+      <c r="F77" s="11"/>
+      <c r="G77" s="11"/>
+      <c r="H77" s="11"/>
+      <c r="I77" s="11"/>
+      <c r="J77" s="11"/>
+      <c r="K77" s="11"/>
+      <c r="L77" s="11"/>
+      <c r="M77" s="11"/>
+      <c r="N77" s="5"/>
+    </row>
+    <row r="78" spans="2:14">
+      <c r="B78" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="C78" s="11"/>
+      <c r="D78" s="11"/>
+      <c r="E78" s="11"/>
+      <c r="F78" s="11"/>
+      <c r="G78" s="11"/>
+      <c r="H78" s="11"/>
+      <c r="I78" s="11"/>
+      <c r="J78" s="11"/>
+      <c r="K78" s="11"/>
+      <c r="L78" s="11"/>
+      <c r="M78" s="11"/>
+      <c r="N78" s="5"/>
+    </row>
+    <row r="79" spans="2:14">
+      <c r="B79" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="C79" s="11"/>
+      <c r="D79" s="11"/>
+      <c r="E79" s="11"/>
+      <c r="F79" s="11"/>
+      <c r="G79" s="11"/>
+      <c r="H79" s="11"/>
+      <c r="I79" s="11"/>
+      <c r="J79" s="11"/>
+      <c r="K79" s="11"/>
+      <c r="L79" s="11"/>
+      <c r="M79" s="11"/>
+      <c r="N79" s="5"/>
+    </row>
+    <row r="80" spans="2:14">
+      <c r="B80" s="4"/>
+      <c r="C80" s="11"/>
+      <c r="D80" s="11"/>
+      <c r="E80" s="11"/>
+      <c r="F80" s="11"/>
+      <c r="G80" s="11"/>
+      <c r="H80" s="11"/>
+      <c r="I80" s="11"/>
+      <c r="J80" s="11"/>
+      <c r="K80" s="11"/>
+      <c r="L80" s="11"/>
+      <c r="M80" s="11"/>
+      <c r="N80" s="5"/>
+    </row>
+    <row r="81" spans="2:14">
+      <c r="B81" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="C81" s="11"/>
+      <c r="D81" s="11"/>
+      <c r="E81" s="11"/>
+      <c r="F81" s="11"/>
+      <c r="G81" s="11"/>
+      <c r="H81" s="11"/>
+      <c r="I81" s="11"/>
+      <c r="J81" s="11"/>
+      <c r="K81" s="11"/>
+      <c r="L81" s="11"/>
+      <c r="M81" s="11"/>
+      <c r="N81" s="5"/>
+    </row>
+    <row r="82" spans="2:14">
+      <c r="B82" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="C82" s="11"/>
+      <c r="D82" s="11"/>
+      <c r="E82" s="11"/>
+      <c r="F82" s="11"/>
+      <c r="G82" s="11"/>
+      <c r="H82" s="11"/>
+      <c r="I82" s="11"/>
+      <c r="J82" s="11"/>
+      <c r="K82" s="11"/>
+      <c r="L82" s="11"/>
+      <c r="M82" s="11"/>
+      <c r="N82" s="5"/>
+    </row>
+    <row r="83" spans="2:14">
+      <c r="B83" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="C83" s="11"/>
+      <c r="D83" s="11"/>
+      <c r="E83" s="11"/>
+      <c r="F83" s="11"/>
+      <c r="G83" s="11"/>
+      <c r="H83" s="11"/>
+      <c r="I83" s="11"/>
+      <c r="J83" s="11"/>
+      <c r="K83" s="11"/>
+      <c r="L83" s="11"/>
+      <c r="M83" s="11"/>
+      <c r="N83" s="5"/>
+    </row>
+    <row r="84" spans="2:14">
+      <c r="B84" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="C84" s="11"/>
+      <c r="D84" s="11"/>
+      <c r="E84" s="11"/>
+      <c r="F84" s="11"/>
+      <c r="G84" s="11"/>
+      <c r="H84" s="11"/>
+      <c r="I84" s="11"/>
+      <c r="J84" s="11"/>
+      <c r="K84" s="11"/>
+      <c r="L84" s="11"/>
+      <c r="M84" s="11"/>
+      <c r="N84" s="5"/>
+    </row>
+    <row r="85" spans="2:14">
+      <c r="B85" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="C85" s="11"/>
+      <c r="D85" s="11"/>
+      <c r="E85" s="11"/>
+      <c r="F85" s="11"/>
+      <c r="G85" s="11"/>
+      <c r="H85" s="11"/>
+      <c r="I85" s="11"/>
+      <c r="J85" s="11"/>
+      <c r="K85" s="11"/>
+      <c r="L85" s="11"/>
+      <c r="M85" s="11"/>
+      <c r="N85" s="5"/>
+    </row>
+    <row r="86" spans="2:14">
+      <c r="B86" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="C86" s="11"/>
+      <c r="D86" s="11"/>
+      <c r="E86" s="11"/>
+      <c r="F86" s="11"/>
+      <c r="G86" s="11"/>
+      <c r="H86" s="11"/>
+      <c r="I86" s="11"/>
+      <c r="J86" s="11"/>
+      <c r="K86" s="11"/>
+      <c r="L86" s="11"/>
+      <c r="M86" s="11"/>
+      <c r="N86" s="5"/>
+    </row>
+    <row r="87" spans="2:14">
+      <c r="B87" s="4" t="s">
+        <v>37</v>
+      </c>
+      <c r="C87" s="11"/>
+      <c r="D87" s="11"/>
+      <c r="E87" s="11"/>
+      <c r="F87" s="11"/>
+      <c r="G87" s="11"/>
+      <c r="H87" s="11"/>
+      <c r="I87" s="11"/>
+      <c r="J87" s="11"/>
+      <c r="K87" s="11"/>
+      <c r="L87" s="11"/>
+      <c r="M87" s="11"/>
+      <c r="N87" s="5"/>
+    </row>
+    <row r="88" spans="2:14">
+      <c r="B88" s="4" t="s">
+        <v>38</v>
+      </c>
+      <c r="C88" s="11"/>
+      <c r="D88" s="11"/>
+      <c r="E88" s="11"/>
+      <c r="F88" s="11"/>
+      <c r="G88" s="11"/>
+      <c r="H88" s="11"/>
+      <c r="I88" s="11"/>
+      <c r="J88" s="11"/>
+      <c r="K88" s="11"/>
+      <c r="L88" s="11"/>
+      <c r="M88" s="11"/>
+      <c r="N88" s="5"/>
+    </row>
+    <row r="89" spans="2:14">
+      <c r="B89" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="C89" s="11"/>
+      <c r="D89" s="11"/>
+      <c r="E89" s="11"/>
+      <c r="F89" s="11"/>
+      <c r="G89" s="11"/>
+      <c r="H89" s="11"/>
+      <c r="I89" s="11"/>
+      <c r="J89" s="11"/>
+      <c r="K89" s="11"/>
+      <c r="L89" s="11"/>
+      <c r="M89" s="11"/>
+      <c r="N89" s="5"/>
+    </row>
+    <row r="90" spans="2:14">
+      <c r="B90" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="C90" s="11"/>
+      <c r="D90" s="11"/>
+      <c r="E90" s="11"/>
+      <c r="F90" s="11"/>
+      <c r="G90" s="11"/>
+      <c r="H90" s="11"/>
+      <c r="I90" s="11"/>
+      <c r="J90" s="11"/>
+      <c r="K90" s="11"/>
+      <c r="L90" s="11"/>
+      <c r="M90" s="11"/>
+      <c r="N90" s="5"/>
+    </row>
+    <row r="91" spans="2:14">
+      <c r="B91" s="4" t="s">
+        <v>41</v>
+      </c>
+      <c r="C91" s="11"/>
+      <c r="D91" s="11"/>
+      <c r="E91" s="11"/>
+      <c r="F91" s="11"/>
+      <c r="G91" s="11"/>
+      <c r="H91" s="11"/>
+      <c r="I91" s="11"/>
+      <c r="J91" s="11"/>
+      <c r="K91" s="11"/>
+      <c r="L91" s="11"/>
+      <c r="M91" s="11"/>
+      <c r="N91" s="5"/>
+    </row>
+    <row r="92" spans="2:14">
+      <c r="B92" s="4" t="s">
+        <v>42</v>
+      </c>
+      <c r="C92" s="11"/>
+      <c r="D92" s="11"/>
+      <c r="E92" s="11"/>
+      <c r="F92" s="11"/>
+      <c r="G92" s="11"/>
+      <c r="H92" s="11"/>
+      <c r="I92" s="11"/>
+      <c r="J92" s="11"/>
+      <c r="K92" s="11"/>
+      <c r="L92" s="11"/>
+      <c r="M92" s="11"/>
+      <c r="N92" s="5"/>
+    </row>
+    <row r="93" spans="2:14">
+      <c r="B93" s="4" t="s">
+        <v>43</v>
+      </c>
+      <c r="C93" s="11"/>
+      <c r="D93" s="11"/>
+      <c r="E93" s="11"/>
+      <c r="F93" s="11"/>
+      <c r="G93" s="11"/>
+      <c r="H93" s="11"/>
+      <c r="I93" s="11"/>
+      <c r="J93" s="11"/>
+      <c r="K93" s="11"/>
+      <c r="L93" s="11"/>
+      <c r="M93" s="11"/>
+      <c r="N93" s="5"/>
+    </row>
+    <row r="94" spans="2:14">
+      <c r="B94" s="4" t="s">
+        <v>44</v>
+      </c>
+      <c r="C94" s="11"/>
+      <c r="D94" s="11"/>
+      <c r="E94" s="11"/>
+      <c r="F94" s="11"/>
+      <c r="G94" s="11"/>
+      <c r="H94" s="11"/>
+      <c r="I94" s="11"/>
+      <c r="J94" s="11"/>
+      <c r="K94" s="11"/>
+      <c r="L94" s="11"/>
+      <c r="M94" s="11"/>
+      <c r="N94" s="5"/>
+    </row>
+    <row r="95" spans="2:14">
+      <c r="B95" s="4" t="s">
+        <v>45</v>
+      </c>
+      <c r="C95" s="11"/>
+      <c r="D95" s="11"/>
+      <c r="E95" s="11"/>
+      <c r="F95" s="11"/>
+      <c r="G95" s="11"/>
+      <c r="H95" s="11"/>
+      <c r="I95" s="11"/>
+      <c r="J95" s="11"/>
+      <c r="K95" s="11"/>
+      <c r="L95" s="11"/>
+      <c r="M95" s="11"/>
+      <c r="N95" s="5"/>
+    </row>
+    <row r="96" spans="2:14">
+      <c r="B96" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="C96" s="11"/>
+      <c r="D96" s="11"/>
+      <c r="E96" s="11"/>
+      <c r="F96" s="11"/>
+      <c r="G96" s="11"/>
+      <c r="H96" s="11"/>
+      <c r="I96" s="11"/>
+      <c r="J96" s="11"/>
+      <c r="K96" s="11"/>
+      <c r="L96" s="11"/>
+      <c r="M96" s="11"/>
+      <c r="N96" s="5"/>
+    </row>
+    <row r="97" spans="2:14">
+      <c r="B97" s="4" t="s">
+        <v>47</v>
+      </c>
+      <c r="C97" s="11"/>
+      <c r="D97" s="11"/>
+      <c r="E97" s="11"/>
+      <c r="F97" s="11"/>
+      <c r="G97" s="11"/>
+      <c r="H97" s="11"/>
+      <c r="I97" s="11"/>
+      <c r="J97" s="11"/>
+      <c r="K97" s="11"/>
+      <c r="L97" s="11"/>
+      <c r="M97" s="11"/>
+      <c r="N97" s="5"/>
+    </row>
+    <row r="98" spans="2:14">
+      <c r="B98" s="4" t="s">
+        <v>48</v>
+      </c>
+      <c r="C98" s="11"/>
+      <c r="D98" s="11"/>
+      <c r="E98" s="11"/>
+      <c r="F98" s="11"/>
+      <c r="G98" s="11"/>
+      <c r="H98" s="11"/>
+      <c r="I98" s="11"/>
+      <c r="J98" s="11"/>
+      <c r="K98" s="11"/>
+      <c r="L98" s="11"/>
+      <c r="M98" s="11"/>
+      <c r="N98" s="5"/>
+    </row>
+    <row r="99" spans="2:14">
+      <c r="B99" s="4" t="s">
+        <v>49</v>
+      </c>
+      <c r="C99" s="11"/>
+      <c r="D99" s="11"/>
+      <c r="E99" s="11"/>
+      <c r="F99" s="11"/>
+      <c r="G99" s="11"/>
+      <c r="H99" s="11"/>
+      <c r="I99" s="11"/>
+      <c r="J99" s="11"/>
+      <c r="K99" s="11"/>
+      <c r="L99" s="11"/>
+      <c r="M99" s="11"/>
+      <c r="N99" s="5"/>
+    </row>
+    <row r="100" spans="2:14">
+      <c r="B100" s="4" t="s">
+        <v>50</v>
+      </c>
+      <c r="C100" s="11"/>
+      <c r="D100" s="11"/>
+      <c r="E100" s="11"/>
+      <c r="F100" s="11"/>
+      <c r="G100" s="11"/>
+      <c r="H100" s="11"/>
+      <c r="I100" s="11"/>
+      <c r="J100" s="11"/>
+      <c r="K100" s="11"/>
+      <c r="L100" s="11"/>
+      <c r="M100" s="11"/>
+      <c r="N100" s="5"/>
+    </row>
+    <row r="101" spans="2:14">
+      <c r="B101" s="4" t="s">
+        <v>51</v>
+      </c>
+      <c r="C101" s="11"/>
+      <c r="D101" s="11"/>
+      <c r="E101" s="11"/>
+      <c r="F101" s="11"/>
+      <c r="G101" s="11"/>
+      <c r="H101" s="11"/>
+      <c r="I101" s="11"/>
+      <c r="J101" s="11"/>
+      <c r="K101" s="11"/>
+      <c r="L101" s="11"/>
+      <c r="M101" s="11"/>
+      <c r="N101" s="5"/>
+    </row>
+    <row r="102" spans="2:14">
+      <c r="B102" s="4" t="s">
+        <v>52</v>
+      </c>
+      <c r="C102" s="11"/>
+      <c r="D102" s="11"/>
+      <c r="E102" s="11"/>
+      <c r="F102" s="11"/>
+      <c r="G102" s="11"/>
+      <c r="H102" s="11"/>
+      <c r="I102" s="11"/>
+      <c r="J102" s="11"/>
+      <c r="K102" s="11"/>
+      <c r="L102" s="11"/>
+      <c r="M102" s="11"/>
+      <c r="N102" s="5"/>
+    </row>
+    <row r="103" spans="2:14">
+      <c r="B103" s="4" t="s">
+        <v>53</v>
+      </c>
+      <c r="C103" s="11"/>
+      <c r="D103" s="11"/>
+      <c r="E103" s="11"/>
+      <c r="F103" s="11"/>
+      <c r="G103" s="11"/>
+      <c r="H103" s="11"/>
+      <c r="I103" s="11"/>
+      <c r="J103" s="11"/>
+      <c r="K103" s="11"/>
+      <c r="L103" s="11"/>
+      <c r="M103" s="11"/>
+      <c r="N103" s="5"/>
+    </row>
+    <row r="104" spans="2:14">
+      <c r="B104" s="4" t="s">
+        <v>54</v>
+      </c>
+      <c r="C104" s="11"/>
+      <c r="D104" s="11"/>
+      <c r="E104" s="11"/>
+      <c r="F104" s="11"/>
+      <c r="G104" s="11"/>
+      <c r="H104" s="11"/>
+      <c r="I104" s="11"/>
+      <c r="J104" s="11"/>
+      <c r="K104" s="11"/>
+      <c r="L104" s="11"/>
+      <c r="M104" s="11"/>
+      <c r="N104" s="5"/>
+    </row>
+    <row r="105" spans="2:14">
+      <c r="B105" s="4" t="s">
+        <v>55</v>
+      </c>
+      <c r="C105" s="11"/>
+      <c r="D105" s="11"/>
+      <c r="E105" s="11"/>
+      <c r="F105" s="11"/>
+      <c r="G105" s="11"/>
+      <c r="H105" s="11"/>
+      <c r="I105" s="11"/>
+      <c r="J105" s="11"/>
+      <c r="K105" s="11"/>
+      <c r="L105" s="11"/>
+      <c r="M105" s="11"/>
+      <c r="N105" s="5"/>
+    </row>
+    <row r="106" spans="2:14">
+      <c r="B106" s="4" t="s">
+        <v>56</v>
+      </c>
+      <c r="C106" s="11"/>
+      <c r="D106" s="11"/>
+      <c r="E106" s="11"/>
+      <c r="F106" s="11"/>
+      <c r="G106" s="11"/>
+      <c r="H106" s="11"/>
+      <c r="I106" s="11"/>
+      <c r="J106" s="11"/>
+      <c r="K106" s="11"/>
+      <c r="L106" s="11"/>
+      <c r="M106" s="11"/>
+      <c r="N106" s="5"/>
+    </row>
+    <row r="107" spans="2:14">
+      <c r="B107" s="4" t="s">
+        <v>57</v>
+      </c>
+      <c r="C107" s="11"/>
+      <c r="D107" s="11"/>
+      <c r="E107" s="11"/>
+      <c r="F107" s="11"/>
+      <c r="G107" s="11"/>
+      <c r="H107" s="11"/>
+      <c r="I107" s="11"/>
+      <c r="J107" s="11"/>
+      <c r="K107" s="11"/>
+      <c r="L107" s="11"/>
+      <c r="M107" s="11"/>
+      <c r="N107" s="5"/>
+    </row>
+    <row r="108" spans="2:14">
+      <c r="B108" s="7"/>
+      <c r="C108" s="8"/>
+      <c r="D108" s="8"/>
+      <c r="E108" s="8"/>
+      <c r="F108" s="8"/>
+      <c r="G108" s="8"/>
+      <c r="H108" s="8"/>
+      <c r="I108" s="8"/>
+      <c r="J108" s="8"/>
+      <c r="K108" s="8"/>
+      <c r="L108" s="8"/>
+      <c r="M108" s="8"/>
+      <c r="N108" s="9"/>
+    </row>
+    <row r="111" spans="2:14">
+      <c r="B111" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="C111" s="2"/>
+      <c r="D111" s="2"/>
+      <c r="E111" s="2"/>
+      <c r="F111" s="2"/>
+      <c r="G111" s="2"/>
+      <c r="H111" s="2"/>
+      <c r="I111" s="2"/>
+      <c r="J111" s="2"/>
+      <c r="K111" s="2"/>
+      <c r="L111" s="3"/>
+    </row>
+    <row r="112" spans="2:14">
+      <c r="B112" s="4"/>
+      <c r="C112" s="11"/>
+      <c r="D112" s="11"/>
+      <c r="E112" s="11"/>
+      <c r="F112" s="11"/>
+      <c r="G112" s="11"/>
+      <c r="H112" s="11"/>
+      <c r="I112" s="11"/>
+      <c r="J112" s="11"/>
+      <c r="K112" s="11"/>
+      <c r="L112" s="5"/>
+    </row>
+    <row r="113" spans="2:12">
+      <c r="B113" s="4"/>
+      <c r="C113" s="11"/>
+      <c r="D113" s="11"/>
+      <c r="E113" s="11"/>
+      <c r="F113" s="11"/>
+      <c r="G113" s="11"/>
+      <c r="H113" s="11"/>
+      <c r="I113" s="11"/>
+      <c r="J113" s="11"/>
+      <c r="K113" s="11"/>
+      <c r="L113" s="5"/>
+    </row>
+    <row r="114" spans="2:12">
+      <c r="B114" s="4"/>
+      <c r="C114" s="11"/>
+      <c r="D114" s="11"/>
+      <c r="E114" s="11"/>
+      <c r="F114" s="11"/>
+      <c r="G114" s="11"/>
+      <c r="H114" s="11"/>
+      <c r="I114" s="11"/>
+      <c r="J114" s="11"/>
+      <c r="K114" s="11"/>
+      <c r="L114" s="5"/>
+    </row>
+    <row r="115" spans="2:12">
+      <c r="B115" s="4"/>
+      <c r="C115" s="11"/>
+      <c r="D115" s="11"/>
+      <c r="E115" s="11"/>
+      <c r="F115" s="11"/>
+      <c r="G115" s="11"/>
+      <c r="H115" s="11"/>
+      <c r="I115" s="11"/>
+      <c r="J115" s="11"/>
+      <c r="K115" s="11"/>
+      <c r="L115" s="5"/>
+    </row>
+    <row r="116" spans="2:12">
+      <c r="B116" s="4"/>
+      <c r="C116" s="11"/>
+      <c r="D116" s="11"/>
+      <c r="E116" s="11"/>
+      <c r="F116" s="11"/>
+      <c r="G116" s="11"/>
+      <c r="H116" s="11"/>
+      <c r="I116" s="11"/>
+      <c r="J116" s="11"/>
+      <c r="K116" s="11"/>
+      <c r="L116" s="5"/>
+    </row>
+    <row r="117" spans="2:12">
+      <c r="B117" s="4"/>
+      <c r="C117" s="11"/>
+      <c r="D117" s="11"/>
+      <c r="E117" s="11"/>
+      <c r="F117" s="11"/>
+      <c r="G117" s="11"/>
+      <c r="H117" s="11"/>
+      <c r="I117" s="11"/>
+      <c r="J117" s="11"/>
+      <c r="K117" s="11"/>
+      <c r="L117" s="5"/>
+    </row>
+    <row r="118" spans="2:12">
+      <c r="B118" s="4"/>
+      <c r="C118" s="11"/>
+      <c r="D118" s="11"/>
+      <c r="E118" s="11"/>
+      <c r="F118" s="11"/>
+      <c r="G118" s="11"/>
+      <c r="H118" s="11"/>
+      <c r="I118" s="11"/>
+      <c r="J118" s="11"/>
+      <c r="K118" s="11"/>
+      <c r="L118" s="5"/>
+    </row>
+    <row r="119" spans="2:12">
+      <c r="B119" s="4"/>
+      <c r="C119" s="11"/>
+      <c r="D119" s="11"/>
+      <c r="E119" s="11"/>
+      <c r="F119" s="11"/>
+      <c r="G119" s="11"/>
+      <c r="H119" s="11"/>
+      <c r="I119" s="11"/>
+      <c r="J119" s="11"/>
+      <c r="K119" s="11"/>
+      <c r="L119" s="5"/>
+    </row>
+    <row r="120" spans="2:12">
+      <c r="B120" s="4"/>
+      <c r="C120" s="11"/>
+      <c r="D120" s="11"/>
+      <c r="E120" s="11"/>
+      <c r="F120" s="11"/>
+      <c r="G120" s="11"/>
+      <c r="H120" s="11"/>
+      <c r="I120" s="11"/>
+      <c r="J120" s="11"/>
+      <c r="K120" s="11"/>
+      <c r="L120" s="5"/>
+    </row>
+    <row r="121" spans="2:12">
+      <c r="B121" s="4"/>
+      <c r="C121" s="11"/>
+      <c r="D121" s="11"/>
+      <c r="E121" s="11"/>
+      <c r="F121" s="11"/>
+      <c r="G121" s="11"/>
+      <c r="H121" s="11"/>
+      <c r="I121" s="11"/>
+      <c r="J121" s="11"/>
+      <c r="K121" s="11"/>
+      <c r="L121" s="5"/>
+    </row>
+    <row r="122" spans="2:12">
+      <c r="B122" s="4"/>
+      <c r="C122" s="11"/>
+      <c r="D122" s="11"/>
+      <c r="E122" s="11"/>
+      <c r="F122" s="11"/>
+      <c r="G122" s="11"/>
+      <c r="H122" s="11"/>
+      <c r="I122" s="11"/>
+      <c r="J122" s="11"/>
+      <c r="K122" s="11"/>
+      <c r="L122" s="5"/>
+    </row>
+    <row r="123" spans="2:12">
+      <c r="B123" s="4"/>
+      <c r="C123" s="11"/>
+      <c r="D123" s="11"/>
+      <c r="E123" s="11"/>
+      <c r="F123" s="11"/>
+      <c r="G123" s="11"/>
+      <c r="H123" s="11"/>
+      <c r="I123" s="11"/>
+      <c r="J123" s="11"/>
+      <c r="K123" s="11"/>
+      <c r="L123" s="5"/>
+    </row>
+    <row r="124" spans="2:12">
+      <c r="B124" s="4"/>
+      <c r="C124" s="11"/>
+      <c r="D124" s="11"/>
+      <c r="E124" s="11"/>
+      <c r="F124" s="11"/>
+      <c r="G124" s="11"/>
+      <c r="H124" s="11"/>
+      <c r="I124" s="11"/>
+      <c r="J124" s="11"/>
+      <c r="K124" s="11"/>
+      <c r="L124" s="5"/>
+    </row>
+    <row r="125" spans="2:12">
+      <c r="B125" s="4"/>
+      <c r="C125" s="11"/>
+      <c r="D125" s="11"/>
+      <c r="E125" s="11"/>
+      <c r="F125" s="11"/>
+      <c r="G125" s="11"/>
+      <c r="H125" s="11"/>
+      <c r="I125" s="11"/>
+      <c r="J125" s="11"/>
+      <c r="K125" s="11"/>
+      <c r="L125" s="5"/>
+    </row>
+    <row r="126" spans="2:12">
+      <c r="B126" s="4"/>
+      <c r="C126" s="11"/>
+      <c r="D126" s="11"/>
+      <c r="E126" s="11"/>
+      <c r="F126" s="11"/>
+      <c r="G126" s="11"/>
+      <c r="H126" s="11"/>
+      <c r="I126" s="11"/>
+      <c r="J126" s="11"/>
+      <c r="K126" s="11"/>
+      <c r="L126" s="5"/>
+    </row>
+    <row r="127" spans="2:12">
+      <c r="B127" s="4"/>
+      <c r="C127" s="11"/>
+      <c r="D127" s="11"/>
+      <c r="E127" s="11"/>
+      <c r="F127" s="11"/>
+      <c r="G127" s="11"/>
+      <c r="H127" s="11"/>
+      <c r="I127" s="11"/>
+      <c r="J127" s="11"/>
+      <c r="K127" s="11"/>
+      <c r="L127" s="5"/>
+    </row>
+    <row r="128" spans="2:12">
+      <c r="B128" s="4"/>
+      <c r="C128" s="11"/>
+      <c r="D128" s="11"/>
+      <c r="E128" s="11"/>
+      <c r="F128" s="11"/>
+      <c r="G128" s="11"/>
+      <c r="H128" s="11"/>
+      <c r="I128" s="11"/>
+      <c r="J128" s="11"/>
+      <c r="K128" s="11"/>
+      <c r="L128" s="5"/>
+    </row>
+    <row r="129" spans="2:12">
+      <c r="B129" s="4"/>
+      <c r="C129" s="11"/>
+      <c r="D129" s="11"/>
+      <c r="E129" s="11"/>
+      <c r="F129" s="11"/>
+      <c r="G129" s="11"/>
+      <c r="H129" s="11"/>
+      <c r="I129" s="11"/>
+      <c r="J129" s="11"/>
+      <c r="K129" s="11"/>
+      <c r="L129" s="5"/>
+    </row>
+    <row r="130" spans="2:12">
+      <c r="B130" s="4"/>
+      <c r="C130" s="11"/>
+      <c r="D130" s="11"/>
+      <c r="E130" s="11"/>
+      <c r="F130" s="11"/>
+      <c r="G130" s="11"/>
+      <c r="H130" s="11"/>
+      <c r="I130" s="11"/>
+      <c r="J130" s="11"/>
+      <c r="K130" s="11"/>
+      <c r="L130" s="5"/>
+    </row>
+    <row r="131" spans="2:12">
+      <c r="B131" s="4"/>
+      <c r="C131" s="11"/>
+      <c r="D131" s="11"/>
+      <c r="E131" s="11"/>
+      <c r="F131" s="11"/>
+      <c r="G131" s="11"/>
+      <c r="H131" s="11"/>
+      <c r="I131" s="11"/>
+      <c r="J131" s="11"/>
+      <c r="K131" s="11"/>
+      <c r="L131" s="5"/>
+    </row>
+    <row r="132" spans="2:12">
+      <c r="B132" s="4"/>
+      <c r="C132" s="11"/>
+      <c r="D132" s="11"/>
+      <c r="E132" s="11"/>
+      <c r="F132" s="11"/>
+      <c r="G132" s="11"/>
+      <c r="H132" s="11"/>
+      <c r="I132" s="11"/>
+      <c r="J132" s="11"/>
+      <c r="K132" s="11"/>
+      <c r="L132" s="5"/>
+    </row>
+    <row r="133" spans="2:12">
+      <c r="B133" s="4"/>
+      <c r="C133" s="11"/>
+      <c r="D133" s="11"/>
+      <c r="E133" s="11"/>
+      <c r="F133" s="11"/>
+      <c r="G133" s="11"/>
+      <c r="H133" s="11"/>
+      <c r="I133" s="11"/>
+      <c r="J133" s="11"/>
+      <c r="K133" s="11"/>
+      <c r="L133" s="5"/>
+    </row>
+    <row r="134" spans="2:12">
+      <c r="B134" s="4"/>
+      <c r="C134" s="11"/>
+      <c r="D134" s="11"/>
+      <c r="E134" s="11"/>
+      <c r="F134" s="11"/>
+      <c r="G134" s="11"/>
+      <c r="H134" s="11"/>
+      <c r="I134" s="11"/>
+      <c r="J134" s="11"/>
+      <c r="K134" s="11"/>
+      <c r="L134" s="5"/>
+    </row>
+    <row r="135" spans="2:12">
+      <c r="B135" s="4"/>
+      <c r="C135" s="11"/>
+      <c r="D135" s="11"/>
+      <c r="E135" s="11"/>
+      <c r="F135" s="11"/>
+      <c r="G135" s="11"/>
+      <c r="H135" s="11"/>
+      <c r="I135" s="11"/>
+      <c r="J135" s="11"/>
+      <c r="K135" s="11"/>
+      <c r="L135" s="5"/>
+    </row>
+    <row r="136" spans="2:12">
+      <c r="B136" s="4"/>
+      <c r="C136" s="11"/>
+      <c r="D136" s="11"/>
+      <c r="E136" s="11"/>
+      <c r="F136" s="11"/>
+      <c r="G136" s="11"/>
+      <c r="H136" s="11"/>
+      <c r="I136" s="11"/>
+      <c r="J136" s="11"/>
+      <c r="K136" s="11"/>
+      <c r="L136" s="5"/>
+    </row>
+    <row r="137" spans="2:12">
+      <c r="B137" s="4"/>
+      <c r="C137" s="11"/>
+      <c r="D137" s="11"/>
+      <c r="E137" s="11"/>
+      <c r="F137" s="11"/>
+      <c r="G137" s="11"/>
+      <c r="H137" s="11"/>
+      <c r="I137" s="11"/>
+      <c r="J137" s="11"/>
+      <c r="K137" s="11"/>
+      <c r="L137" s="5"/>
+    </row>
+    <row r="138" spans="2:12">
+      <c r="B138" s="4"/>
+      <c r="C138" s="11"/>
+      <c r="D138" s="11"/>
+      <c r="E138" s="11"/>
+      <c r="F138" s="11"/>
+      <c r="G138" s="11"/>
+      <c r="H138" s="11"/>
+      <c r="I138" s="11"/>
+      <c r="J138" s="11"/>
+      <c r="K138" s="11"/>
+      <c r="L138" s="5"/>
+    </row>
+    <row r="139" spans="2:12">
+      <c r="B139" s="4"/>
+      <c r="C139" s="11"/>
+      <c r="D139" s="11"/>
+      <c r="E139" s="11"/>
+      <c r="F139" s="11"/>
+      <c r="G139" s="11"/>
+      <c r="H139" s="11"/>
+      <c r="I139" s="11"/>
+      <c r="J139" s="11"/>
+      <c r="K139" s="11"/>
+      <c r="L139" s="5"/>
+    </row>
+    <row r="140" spans="2:12">
+      <c r="B140" s="4"/>
+      <c r="C140" s="11"/>
+      <c r="D140" s="11"/>
+      <c r="E140" s="11"/>
+      <c r="F140" s="11"/>
+      <c r="G140" s="11"/>
+      <c r="H140" s="11"/>
+      <c r="I140" s="11"/>
+      <c r="J140" s="11"/>
+      <c r="K140" s="11"/>
+      <c r="L140" s="5"/>
+    </row>
+    <row r="141" spans="2:12">
+      <c r="B141" s="4"/>
+      <c r="C141" s="11"/>
+      <c r="D141" s="11"/>
+      <c r="E141" s="11"/>
+      <c r="F141" s="11"/>
+      <c r="G141" s="11"/>
+      <c r="H141" s="11"/>
+      <c r="I141" s="11"/>
+      <c r="J141" s="11"/>
+      <c r="K141" s="11"/>
+      <c r="L141" s="5"/>
+    </row>
+    <row r="142" spans="2:12">
+      <c r="B142" s="4"/>
+      <c r="C142" s="11"/>
+      <c r="D142" s="11"/>
+      <c r="E142" s="11"/>
+      <c r="F142" s="11"/>
+      <c r="G142" s="11"/>
+      <c r="H142" s="11"/>
+      <c r="I142" s="11"/>
+      <c r="J142" s="11"/>
+      <c r="K142" s="11"/>
+      <c r="L142" s="5"/>
+    </row>
+    <row r="143" spans="2:12">
+      <c r="B143" s="4"/>
+      <c r="C143" s="11"/>
+      <c r="D143" s="11"/>
+      <c r="E143" s="11"/>
+      <c r="F143" s="11"/>
+      <c r="G143" s="11"/>
+      <c r="H143" s="11"/>
+      <c r="I143" s="11"/>
+      <c r="J143" s="11"/>
+      <c r="K143" s="11"/>
+      <c r="L143" s="5"/>
+    </row>
+    <row r="144" spans="2:12">
+      <c r="B144" s="7"/>
+      <c r="C144" s="8"/>
+      <c r="D144" s="8"/>
+      <c r="E144" s="8"/>
+      <c r="F144" s="8"/>
+      <c r="G144" s="8"/>
+      <c r="H144" s="8"/>
+      <c r="I144" s="8"/>
+      <c r="J144" s="8"/>
+      <c r="K144" s="8"/>
+      <c r="L144" s="9"/>
+    </row>
+    <row r="147" spans="2:12">
+      <c r="B147" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="C147" s="2"/>
+      <c r="D147" s="2"/>
+      <c r="E147" s="2"/>
+      <c r="F147" s="2"/>
+      <c r="G147" s="2"/>
+      <c r="H147" s="2"/>
+      <c r="I147" s="2"/>
+      <c r="J147" s="2"/>
+      <c r="K147" s="2"/>
+      <c r="L147" s="3"/>
+    </row>
+    <row r="148" spans="2:12">
+      <c r="B148" s="4"/>
+      <c r="C148" s="11"/>
+      <c r="D148" s="11"/>
+      <c r="E148" s="11"/>
+      <c r="F148" s="11"/>
+      <c r="G148" s="11"/>
+      <c r="H148" s="11"/>
+      <c r="I148" s="11"/>
+      <c r="J148" s="11"/>
+      <c r="K148" s="11"/>
+      <c r="L148" s="5"/>
+    </row>
+    <row r="149" spans="2:12">
+      <c r="B149" s="4"/>
+      <c r="C149" s="11"/>
+      <c r="D149" s="11"/>
+      <c r="E149" s="11"/>
+      <c r="F149" s="11"/>
+      <c r="G149" s="11"/>
+      <c r="H149" s="11"/>
+      <c r="I149" s="11"/>
+      <c r="J149" s="11"/>
+      <c r="K149" s="11"/>
+      <c r="L149" s="5"/>
+    </row>
+    <row r="150" spans="2:12">
+      <c r="B150" s="4"/>
+      <c r="C150" s="11"/>
+      <c r="D150" s="11"/>
+      <c r="E150" s="11"/>
+      <c r="F150" s="11"/>
+      <c r="G150" s="11"/>
+      <c r="H150" s="11"/>
+      <c r="I150" s="11"/>
+      <c r="J150" s="11"/>
+      <c r="K150" s="11"/>
+      <c r="L150" s="5"/>
+    </row>
+    <row r="151" spans="2:12">
+      <c r="B151" s="4"/>
+      <c r="C151" s="11"/>
+      <c r="D151" s="11"/>
+      <c r="E151" s="11"/>
+      <c r="F151" s="11"/>
+      <c r="G151" s="11"/>
+      <c r="H151" s="11"/>
+      <c r="I151" s="11"/>
+      <c r="J151" s="11"/>
+      <c r="K151" s="11"/>
+      <c r="L151" s="5"/>
+    </row>
+    <row r="152" spans="2:12">
+      <c r="B152" s="4"/>
+      <c r="C152" s="11"/>
+      <c r="D152" s="11"/>
+      <c r="E152" s="11"/>
+      <c r="F152" s="11"/>
+      <c r="G152" s="11"/>
+      <c r="H152" s="11"/>
+      <c r="I152" s="11"/>
+      <c r="J152" s="11"/>
+      <c r="K152" s="11"/>
+      <c r="L152" s="5"/>
+    </row>
+    <row r="153" spans="2:12">
+      <c r="B153" s="4"/>
+      <c r="C153" s="11"/>
+      <c r="D153" s="11"/>
+      <c r="E153" s="11"/>
+      <c r="F153" s="11"/>
+      <c r="G153" s="11"/>
+      <c r="H153" s="11"/>
+      <c r="I153" s="11"/>
+      <c r="J153" s="11"/>
+      <c r="K153" s="11"/>
+      <c r="L153" s="5"/>
+    </row>
+    <row r="154" spans="2:12">
+      <c r="B154" s="4"/>
+      <c r="C154" s="11"/>
+      <c r="D154" s="11"/>
+      <c r="E154" s="11"/>
+      <c r="F154" s="11"/>
+      <c r="G154" s="11"/>
+      <c r="H154" s="11"/>
+      <c r="I154" s="11"/>
+      <c r="J154" s="11"/>
+      <c r="K154" s="11"/>
+      <c r="L154" s="5"/>
+    </row>
+    <row r="155" spans="2:12">
+      <c r="B155" s="4"/>
+      <c r="C155" s="11"/>
+      <c r="D155" s="11"/>
+      <c r="E155" s="11"/>
+      <c r="F155" s="11"/>
+      <c r="G155" s="11"/>
+      <c r="H155" s="11"/>
+      <c r="I155" s="11"/>
+      <c r="J155" s="11"/>
+      <c r="K155" s="11"/>
+      <c r="L155" s="5"/>
+    </row>
+    <row r="156" spans="2:12">
+      <c r="B156" s="4"/>
+      <c r="C156" s="11"/>
+      <c r="D156" s="11"/>
+      <c r="E156" s="11"/>
+      <c r="F156" s="11"/>
+      <c r="G156" s="11"/>
+      <c r="H156" s="11"/>
+      <c r="I156" s="11"/>
+      <c r="J156" s="11"/>
+      <c r="K156" s="11"/>
+      <c r="L156" s="5"/>
+    </row>
+    <row r="157" spans="2:12">
+      <c r="B157" s="4"/>
+      <c r="C157" s="11"/>
+      <c r="D157" s="11"/>
+      <c r="E157" s="11"/>
+      <c r="F157" s="11"/>
+      <c r="G157" s="11"/>
+      <c r="H157" s="11"/>
+      <c r="I157" s="11"/>
+      <c r="J157" s="11"/>
+      <c r="K157" s="11"/>
+      <c r="L157" s="5"/>
+    </row>
+    <row r="158" spans="2:12">
+      <c r="B158" s="4"/>
+      <c r="C158" s="11"/>
+      <c r="D158" s="11"/>
+      <c r="E158" s="11"/>
+      <c r="F158" s="11"/>
+      <c r="G158" s="11"/>
+      <c r="H158" s="11"/>
+      <c r="I158" s="11"/>
+      <c r="J158" s="11"/>
+      <c r="K158" s="11"/>
+      <c r="L158" s="5"/>
+    </row>
+    <row r="159" spans="2:12">
+      <c r="B159" s="4"/>
+      <c r="C159" s="11"/>
+      <c r="D159" s="11"/>
+      <c r="E159" s="11"/>
+      <c r="F159" s="11"/>
+      <c r="G159" s="11"/>
+      <c r="H159" s="11"/>
+      <c r="I159" s="11"/>
+      <c r="J159" s="11"/>
+      <c r="K159" s="11"/>
+      <c r="L159" s="5"/>
+    </row>
+    <row r="160" spans="2:12">
+      <c r="B160" s="4"/>
+      <c r="C160" s="11"/>
+      <c r="D160" s="11"/>
+      <c r="E160" s="11"/>
+      <c r="F160" s="11"/>
+      <c r="G160" s="11"/>
+      <c r="H160" s="11"/>
+      <c r="I160" s="11"/>
+      <c r="J160" s="11"/>
+      <c r="K160" s="11"/>
+      <c r="L160" s="5"/>
+    </row>
+    <row r="161" spans="2:12">
+      <c r="B161" s="4"/>
+      <c r="C161" s="11"/>
+      <c r="D161" s="11"/>
+      <c r="E161" s="11"/>
+      <c r="F161" s="11"/>
+      <c r="G161" s="11"/>
+      <c r="H161" s="11"/>
+      <c r="I161" s="11"/>
+      <c r="J161" s="11"/>
+      <c r="K161" s="11"/>
+      <c r="L161" s="5"/>
+    </row>
+    <row r="162" spans="2:12">
+      <c r="B162" s="4"/>
+      <c r="C162" s="11"/>
+      <c r="D162" s="11"/>
+      <c r="E162" s="11"/>
+      <c r="F162" s="11"/>
+      <c r="G162" s="11"/>
+      <c r="H162" s="11"/>
+      <c r="I162" s="11"/>
+      <c r="J162" s="11"/>
+      <c r="K162" s="11"/>
+      <c r="L162" s="5"/>
+    </row>
+    <row r="163" spans="2:12">
+      <c r="B163" s="4"/>
+      <c r="C163" s="11"/>
+      <c r="D163" s="11"/>
+      <c r="E163" s="11"/>
+      <c r="F163" s="11"/>
+      <c r="G163" s="11"/>
+      <c r="H163" s="11"/>
+      <c r="I163" s="11"/>
+      <c r="J163" s="11"/>
+      <c r="K163" s="11"/>
+      <c r="L163" s="5"/>
+    </row>
+    <row r="164" spans="2:12">
+      <c r="B164" s="4"/>
+      <c r="C164" s="11"/>
+      <c r="D164" s="11"/>
+      <c r="E164" s="11"/>
+      <c r="F164" s="11"/>
+      <c r="G164" s="11"/>
+      <c r="H164" s="11"/>
+      <c r="I164" s="11"/>
+      <c r="J164" s="11"/>
+      <c r="K164" s="11"/>
+      <c r="L164" s="5"/>
+    </row>
+    <row r="165" spans="2:12">
+      <c r="B165" s="4"/>
+      <c r="C165" s="11"/>
+      <c r="D165" s="11"/>
+      <c r="E165" s="11"/>
+      <c r="F165" s="11"/>
+      <c r="G165" s="11"/>
+      <c r="H165" s="11"/>
+      <c r="I165" s="11"/>
+      <c r="J165" s="11"/>
+      <c r="K165" s="11"/>
+      <c r="L165" s="5"/>
+    </row>
+    <row r="166" spans="2:12">
+      <c r="B166" s="4"/>
+      <c r="C166" s="11"/>
+      <c r="D166" s="11"/>
+      <c r="E166" s="11"/>
+      <c r="F166" s="11"/>
+      <c r="G166" s="11"/>
+      <c r="H166" s="11"/>
+      <c r="I166" s="11"/>
+      <c r="J166" s="11"/>
+      <c r="K166" s="11"/>
+      <c r="L166" s="5"/>
+    </row>
+    <row r="167" spans="2:12">
+      <c r="B167" s="4"/>
+      <c r="C167" s="11"/>
+      <c r="D167" s="11"/>
+      <c r="E167" s="11"/>
+      <c r="F167" s="11"/>
+      <c r="G167" s="11"/>
+      <c r="H167" s="11"/>
+      <c r="I167" s="11"/>
+      <c r="J167" s="11"/>
+      <c r="K167" s="11"/>
+      <c r="L167" s="5"/>
+    </row>
+    <row r="168" spans="2:12">
+      <c r="B168" s="4"/>
+      <c r="C168" s="11"/>
+      <c r="D168" s="11"/>
+      <c r="E168" s="11"/>
+      <c r="F168" s="11"/>
+      <c r="G168" s="11"/>
+      <c r="H168" s="11"/>
+      <c r="I168" s="11"/>
+      <c r="J168" s="11"/>
+      <c r="K168" s="11"/>
+      <c r="L168" s="5"/>
+    </row>
+    <row r="169" spans="2:12">
+      <c r="B169" s="4"/>
+      <c r="C169" s="11"/>
+      <c r="D169" s="11"/>
+      <c r="E169" s="11"/>
+      <c r="F169" s="11"/>
+      <c r="G169" s="11"/>
+      <c r="H169" s="11"/>
+      <c r="I169" s="11"/>
+      <c r="J169" s="11"/>
+      <c r="K169" s="11"/>
+      <c r="L169" s="5"/>
+    </row>
+    <row r="170" spans="2:12">
+      <c r="B170" s="4"/>
+      <c r="C170" s="11"/>
+      <c r="D170" s="11"/>
+      <c r="E170" s="11"/>
+      <c r="F170" s="11"/>
+      <c r="G170" s="11"/>
+      <c r="H170" s="11"/>
+      <c r="I170" s="11"/>
+      <c r="J170" s="11"/>
+      <c r="K170" s="11"/>
+      <c r="L170" s="5"/>
+    </row>
+    <row r="171" spans="2:12">
+      <c r="B171" s="4"/>
+      <c r="C171" s="11"/>
+      <c r="D171" s="11"/>
+      <c r="E171" s="11"/>
+      <c r="F171" s="11"/>
+      <c r="G171" s="11"/>
+      <c r="H171" s="11"/>
+      <c r="I171" s="11"/>
+      <c r="J171" s="11"/>
+      <c r="K171" s="11"/>
+      <c r="L171" s="5"/>
+    </row>
+    <row r="172" spans="2:12">
+      <c r="B172" s="4"/>
+      <c r="C172" s="11"/>
+      <c r="D172" s="11"/>
+      <c r="E172" s="11"/>
+      <c r="F172" s="11"/>
+      <c r="G172" s="11"/>
+      <c r="H172" s="11"/>
+      <c r="I172" s="11"/>
+      <c r="J172" s="11"/>
+      <c r="K172" s="11"/>
+      <c r="L172" s="5"/>
+    </row>
+    <row r="173" spans="2:12">
+      <c r="B173" s="4"/>
+      <c r="C173" s="11"/>
+      <c r="D173" s="11"/>
+      <c r="E173" s="11"/>
+      <c r="F173" s="11"/>
+      <c r="G173" s="11"/>
+      <c r="H173" s="11"/>
+      <c r="I173" s="11"/>
+      <c r="J173" s="11"/>
+      <c r="K173" s="11"/>
+      <c r="L173" s="5"/>
+    </row>
+    <row r="174" spans="2:12">
+      <c r="B174" s="4"/>
+      <c r="C174" s="11"/>
+      <c r="D174" s="11"/>
+      <c r="E174" s="11"/>
+      <c r="F174" s="11"/>
+      <c r="G174" s="11"/>
+      <c r="H174" s="11"/>
+      <c r="I174" s="11"/>
+      <c r="J174" s="11"/>
+      <c r="K174" s="11"/>
+      <c r="L174" s="5"/>
+    </row>
+    <row r="175" spans="2:12">
+      <c r="B175" s="4"/>
+      <c r="C175" s="11"/>
+      <c r="D175" s="11"/>
+      <c r="E175" s="11"/>
+      <c r="F175" s="11"/>
+      <c r="G175" s="11"/>
+      <c r="H175" s="11"/>
+      <c r="I175" s="11"/>
+      <c r="J175" s="11"/>
+      <c r="K175" s="11"/>
+      <c r="L175" s="5"/>
+    </row>
+    <row r="176" spans="2:12">
+      <c r="B176" s="4"/>
+      <c r="C176" s="11"/>
+      <c r="D176" s="11"/>
+      <c r="E176" s="11"/>
+      <c r="F176" s="11"/>
+      <c r="G176" s="11"/>
+      <c r="H176" s="11"/>
+      <c r="I176" s="11"/>
+      <c r="J176" s="11"/>
+      <c r="K176" s="11"/>
+      <c r="L176" s="5"/>
+    </row>
+    <row r="177" spans="2:12">
+      <c r="B177" s="4"/>
+      <c r="C177" s="11"/>
+      <c r="D177" s="11"/>
+      <c r="E177" s="11"/>
+      <c r="F177" s="11"/>
+      <c r="G177" s="11"/>
+      <c r="H177" s="11"/>
+      <c r="I177" s="11"/>
+      <c r="J177" s="11"/>
+      <c r="K177" s="11"/>
+      <c r="L177" s="5"/>
+    </row>
+    <row r="178" spans="2:12">
+      <c r="B178" s="4"/>
+      <c r="C178" s="11"/>
+      <c r="D178" s="11"/>
+      <c r="E178" s="11"/>
+      <c r="F178" s="11"/>
+      <c r="G178" s="11"/>
+      <c r="H178" s="11"/>
+      <c r="I178" s="11"/>
+      <c r="J178" s="11"/>
+      <c r="K178" s="11"/>
+      <c r="L178" s="5"/>
+    </row>
+    <row r="179" spans="2:12">
+      <c r="B179" s="7"/>
+      <c r="C179" s="8"/>
+      <c r="D179" s="8"/>
+      <c r="E179" s="8"/>
+      <c r="F179" s="8"/>
+      <c r="G179" s="8"/>
+      <c r="H179" s="8"/>
+      <c r="I179" s="8"/>
+      <c r="J179" s="8"/>
+      <c r="K179" s="8"/>
+      <c r="L179" s="9"/>
+    </row>
+    <row r="182" spans="2:12">
+      <c r="B182" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="C182" s="2"/>
+      <c r="D182" s="2"/>
+      <c r="E182" s="2"/>
+      <c r="F182" s="2"/>
+      <c r="G182" s="2"/>
+      <c r="H182" s="2"/>
+      <c r="I182" s="2"/>
+      <c r="J182" s="2"/>
+      <c r="K182" s="2"/>
+      <c r="L182" s="3"/>
+    </row>
+    <row r="183" spans="2:12">
+      <c r="B183" s="4"/>
+      <c r="C183" s="11"/>
+      <c r="D183" s="11"/>
+      <c r="E183" s="11"/>
+      <c r="F183" s="11"/>
+      <c r="G183" s="11"/>
+      <c r="H183" s="11"/>
+      <c r="I183" s="11"/>
+      <c r="J183" s="11"/>
+      <c r="K183" s="11"/>
+      <c r="L183" s="5"/>
+    </row>
+    <row r="184" spans="2:12">
+      <c r="B184" s="4"/>
+      <c r="C184" s="11"/>
+      <c r="D184" s="11"/>
+      <c r="E184" s="11"/>
+      <c r="F184" s="11"/>
+      <c r="G184" s="11"/>
+      <c r="H184" s="11"/>
+      <c r="I184" s="11"/>
+      <c r="J184" s="11"/>
+      <c r="K184" s="11"/>
+      <c r="L184" s="5"/>
+    </row>
+    <row r="185" spans="2:12">
+      <c r="B185" s="4"/>
+      <c r="C185" s="11"/>
+      <c r="D185" s="11"/>
+      <c r="E185" s="11"/>
+      <c r="F185" s="11"/>
+      <c r="G185" s="11"/>
+      <c r="H185" s="11"/>
+      <c r="I185" s="11"/>
+      <c r="J185" s="11"/>
+      <c r="K185" s="11"/>
+      <c r="L185" s="5"/>
+    </row>
+    <row r="186" spans="2:12">
+      <c r="B186" s="4"/>
+      <c r="C186" s="11"/>
+      <c r="D186" s="11"/>
+      <c r="E186" s="11"/>
+      <c r="F186" s="11"/>
+      <c r="G186" s="11"/>
+      <c r="H186" s="11"/>
+      <c r="I186" s="11"/>
+      <c r="J186" s="11"/>
+      <c r="K186" s="11"/>
+      <c r="L186" s="5"/>
+    </row>
+    <row r="187" spans="2:12">
+      <c r="B187" s="4"/>
+      <c r="C187" s="11"/>
+      <c r="D187" s="11"/>
+      <c r="E187" s="11"/>
+      <c r="F187" s="11"/>
+      <c r="G187" s="11"/>
+      <c r="H187" s="11"/>
+      <c r="I187" s="11"/>
+      <c r="J187" s="11"/>
+      <c r="K187" s="11"/>
+      <c r="L187" s="5"/>
+    </row>
+    <row r="188" spans="2:12">
+      <c r="B188" s="4"/>
+      <c r="C188" s="11"/>
+      <c r="D188" s="11"/>
+      <c r="E188" s="11"/>
+      <c r="F188" s="11"/>
+      <c r="G188" s="11"/>
+      <c r="H188" s="11"/>
+      <c r="I188" s="11"/>
+      <c r="J188" s="11"/>
+      <c r="K188" s="11"/>
+      <c r="L188" s="5"/>
+    </row>
+    <row r="189" spans="2:12">
+      <c r="B189" s="4"/>
+      <c r="C189" s="11"/>
+      <c r="D189" s="11"/>
+      <c r="E189" s="11"/>
+      <c r="F189" s="11"/>
+      <c r="G189" s="11"/>
+      <c r="H189" s="11"/>
+      <c r="I189" s="11"/>
+      <c r="J189" s="11"/>
+      <c r="K189" s="11"/>
+      <c r="L189" s="5"/>
+    </row>
+    <row r="190" spans="2:12">
+      <c r="B190" s="4"/>
+      <c r="C190" s="11"/>
+      <c r="D190" s="11"/>
+      <c r="E190" s="11"/>
+      <c r="F190" s="11"/>
+      <c r="G190" s="11"/>
+      <c r="H190" s="11"/>
+      <c r="I190" s="11"/>
+      <c r="J190" s="11"/>
+      <c r="K190" s="11"/>
+      <c r="L190" s="5"/>
+    </row>
+    <row r="191" spans="2:12">
+      <c r="B191" s="4"/>
+      <c r="C191" s="11"/>
+      <c r="D191" s="11"/>
+      <c r="E191" s="11"/>
+      <c r="F191" s="11"/>
+      <c r="G191" s="11"/>
+      <c r="H191" s="11"/>
+      <c r="I191" s="11"/>
+      <c r="J191" s="11"/>
+      <c r="K191" s="11"/>
+      <c r="L191" s="5"/>
+    </row>
+    <row r="192" spans="2:12">
+      <c r="B192" s="4"/>
+      <c r="C192" s="11"/>
+      <c r="D192" s="11"/>
+      <c r="E192" s="11"/>
+      <c r="F192" s="11"/>
+      <c r="G192" s="11"/>
+      <c r="H192" s="11"/>
+      <c r="I192" s="11"/>
+      <c r="J192" s="11"/>
+      <c r="K192" s="11"/>
+      <c r="L192" s="5"/>
+    </row>
+    <row r="193" spans="2:12">
+      <c r="B193" s="4"/>
+      <c r="C193" s="11"/>
+      <c r="D193" s="11"/>
+      <c r="E193" s="11"/>
+      <c r="F193" s="11"/>
+      <c r="G193" s="11"/>
+      <c r="H193" s="11"/>
+      <c r="I193" s="11"/>
+      <c r="J193" s="11"/>
+      <c r="K193" s="11"/>
+      <c r="L193" s="5"/>
+    </row>
+    <row r="194" spans="2:12">
+      <c r="B194" s="4"/>
+      <c r="C194" s="11"/>
+      <c r="D194" s="11"/>
+      <c r="E194" s="11"/>
+      <c r="F194" s="11"/>
+      <c r="G194" s="11"/>
+      <c r="H194" s="11"/>
+      <c r="I194" s="11"/>
+      <c r="J194" s="11"/>
+      <c r="K194" s="11"/>
+      <c r="L194" s="5"/>
+    </row>
+    <row r="195" spans="2:12">
+      <c r="B195" s="4"/>
+      <c r="C195" s="11"/>
+      <c r="D195" s="11"/>
+      <c r="E195" s="11"/>
+      <c r="F195" s="11"/>
+      <c r="G195" s="11"/>
+      <c r="H195" s="11"/>
+      <c r="I195" s="11"/>
+      <c r="J195" s="11"/>
+      <c r="K195" s="11"/>
+      <c r="L195" s="5"/>
+    </row>
+    <row r="196" spans="2:12">
+      <c r="B196" s="4"/>
+      <c r="C196" s="11"/>
+      <c r="D196" s="11"/>
+      <c r="E196" s="11"/>
+      <c r="F196" s="11"/>
+      <c r="G196" s="11"/>
+      <c r="H196" s="11"/>
+      <c r="I196" s="11"/>
+      <c r="J196" s="11"/>
+      <c r="K196" s="11"/>
+      <c r="L196" s="5"/>
+    </row>
+    <row r="197" spans="2:12">
+      <c r="B197" s="4"/>
+      <c r="C197" s="11"/>
+      <c r="D197" s="11"/>
+      <c r="E197" s="11"/>
+      <c r="F197" s="11"/>
+      <c r="G197" s="11"/>
+      <c r="H197" s="11"/>
+      <c r="I197" s="11"/>
+      <c r="J197" s="11"/>
+      <c r="K197" s="11"/>
+      <c r="L197" s="5"/>
+    </row>
+    <row r="198" spans="2:12">
+      <c r="B198" s="4"/>
+      <c r="C198" s="11"/>
+      <c r="D198" s="11"/>
+      <c r="E198" s="11"/>
+      <c r="F198" s="11"/>
+      <c r="G198" s="11"/>
+      <c r="H198" s="11"/>
+      <c r="I198" s="11"/>
+      <c r="J198" s="11"/>
+      <c r="K198" s="11"/>
+      <c r="L198" s="5"/>
+    </row>
+    <row r="199" spans="2:12">
+      <c r="B199" s="4"/>
+      <c r="C199" s="11"/>
+      <c r="D199" s="11"/>
+      <c r="E199" s="11"/>
+      <c r="F199" s="11"/>
+      <c r="G199" s="11"/>
+      <c r="H199" s="11"/>
+      <c r="I199" s="11"/>
+      <c r="J199" s="11"/>
+      <c r="K199" s="11"/>
+      <c r="L199" s="5"/>
+    </row>
+    <row r="200" spans="2:12">
+      <c r="B200" s="4"/>
+      <c r="C200" s="11"/>
+      <c r="D200" s="11"/>
+      <c r="E200" s="11"/>
+      <c r="F200" s="11"/>
+      <c r="G200" s="11"/>
+      <c r="H200" s="11"/>
+      <c r="I200" s="11"/>
+      <c r="J200" s="11"/>
+      <c r="K200" s="11"/>
+      <c r="L200" s="5"/>
+    </row>
+    <row r="201" spans="2:12">
+      <c r="B201" s="4"/>
+      <c r="C201" s="11"/>
+      <c r="D201" s="11"/>
+      <c r="E201" s="11"/>
+      <c r="F201" s="11"/>
+      <c r="G201" s="11"/>
+      <c r="H201" s="11"/>
+      <c r="I201" s="11"/>
+      <c r="J201" s="11"/>
+      <c r="K201" s="11"/>
+      <c r="L201" s="5"/>
+    </row>
+    <row r="202" spans="2:12">
+      <c r="B202" s="4"/>
+      <c r="C202" s="11"/>
+      <c r="D202" s="11"/>
+      <c r="E202" s="11"/>
+      <c r="F202" s="11"/>
+      <c r="G202" s="11"/>
+      <c r="H202" s="11"/>
+      <c r="I202" s="11"/>
+      <c r="J202" s="11"/>
+      <c r="K202" s="11"/>
+      <c r="L202" s="5"/>
+    </row>
+    <row r="203" spans="2:12">
+      <c r="B203" s="4"/>
+      <c r="C203" s="11"/>
+      <c r="D203" s="11"/>
+      <c r="E203" s="11"/>
+      <c r="F203" s="11"/>
+      <c r="G203" s="11"/>
+      <c r="H203" s="11"/>
+      <c r="I203" s="11"/>
+      <c r="J203" s="11"/>
+      <c r="K203" s="11"/>
+      <c r="L203" s="5"/>
+    </row>
+    <row r="204" spans="2:12">
+      <c r="B204" s="4"/>
+      <c r="C204" s="11"/>
+      <c r="D204" s="11"/>
+      <c r="E204" s="11"/>
+      <c r="F204" s="11"/>
+      <c r="G204" s="11"/>
+      <c r="H204" s="11"/>
+      <c r="I204" s="11"/>
+      <c r="J204" s="11"/>
+      <c r="K204" s="11"/>
+      <c r="L204" s="5"/>
+    </row>
+    <row r="205" spans="2:12">
+      <c r="B205" s="4"/>
+      <c r="C205" s="11"/>
+      <c r="D205" s="11"/>
+      <c r="E205" s="11"/>
+      <c r="F205" s="11"/>
+      <c r="G205" s="11"/>
+      <c r="H205" s="11"/>
+      <c r="I205" s="11"/>
+      <c r="J205" s="11"/>
+      <c r="K205" s="11"/>
+      <c r="L205" s="5"/>
+    </row>
+    <row r="206" spans="2:12">
+      <c r="B206" s="4"/>
+      <c r="C206" s="11"/>
+      <c r="D206" s="11"/>
+      <c r="E206" s="11"/>
+      <c r="F206" s="11"/>
+      <c r="G206" s="11"/>
+      <c r="H206" s="11"/>
+      <c r="I206" s="11"/>
+      <c r="J206" s="11"/>
+      <c r="K206" s="11"/>
+      <c r="L206" s="5"/>
+    </row>
+    <row r="207" spans="2:12">
+      <c r="B207" s="4"/>
+      <c r="C207" s="11"/>
+      <c r="D207" s="11"/>
+      <c r="E207" s="11"/>
+      <c r="F207" s="11"/>
+      <c r="G207" s="11"/>
+      <c r="H207" s="11"/>
+      <c r="I207" s="11"/>
+      <c r="J207" s="11"/>
+      <c r="K207" s="11"/>
+      <c r="L207" s="5"/>
+    </row>
+    <row r="208" spans="2:12">
+      <c r="B208" s="4"/>
+      <c r="C208" s="11"/>
+      <c r="D208" s="11"/>
+      <c r="E208" s="11"/>
+      <c r="F208" s="11"/>
+      <c r="G208" s="11"/>
+      <c r="H208" s="11"/>
+      <c r="I208" s="11"/>
+      <c r="J208" s="11"/>
+      <c r="K208" s="11"/>
+      <c r="L208" s="5"/>
+    </row>
+    <row r="209" spans="2:12">
+      <c r="B209" s="4"/>
+      <c r="C209" s="11"/>
+      <c r="D209" s="11"/>
+      <c r="E209" s="11"/>
+      <c r="F209" s="11"/>
+      <c r="G209" s="11"/>
+      <c r="H209" s="11"/>
+      <c r="I209" s="11"/>
+      <c r="J209" s="11"/>
+      <c r="K209" s="11"/>
+      <c r="L209" s="5"/>
+    </row>
+    <row r="210" spans="2:12">
+      <c r="B210" s="4"/>
+      <c r="C210" s="11"/>
+      <c r="D210" s="11"/>
+      <c r="E210" s="11"/>
+      <c r="F210" s="11"/>
+      <c r="G210" s="11"/>
+      <c r="H210" s="11"/>
+      <c r="I210" s="11"/>
+      <c r="J210" s="11"/>
+      <c r="K210" s="11"/>
+      <c r="L210" s="5"/>
+    </row>
+    <row r="211" spans="2:12">
+      <c r="B211" s="4"/>
+      <c r="C211" s="11"/>
+      <c r="D211" s="11"/>
+      <c r="E211" s="11"/>
+      <c r="F211" s="11"/>
+      <c r="G211" s="11"/>
+      <c r="H211" s="11"/>
+      <c r="I211" s="11"/>
+      <c r="J211" s="11"/>
+      <c r="K211" s="11"/>
+      <c r="L211" s="5"/>
+    </row>
+    <row r="212" spans="2:12">
+      <c r="B212" s="4"/>
+      <c r="C212" s="11"/>
+      <c r="D212" s="11"/>
+      <c r="E212" s="11"/>
+      <c r="F212" s="11"/>
+      <c r="G212" s="11"/>
+      <c r="H212" s="11"/>
+      <c r="I212" s="11"/>
+      <c r="J212" s="11"/>
+      <c r="K212" s="11"/>
+      <c r="L212" s="5"/>
+    </row>
+    <row r="213" spans="2:12">
+      <c r="B213" s="4"/>
+      <c r="C213" s="11"/>
+      <c r="D213" s="11"/>
+      <c r="E213" s="11"/>
+      <c r="F213" s="11"/>
+      <c r="G213" s="11"/>
+      <c r="H213" s="11"/>
+      <c r="I213" s="11"/>
+      <c r="J213" s="11"/>
+      <c r="K213" s="11"/>
+      <c r="L213" s="5"/>
+    </row>
+    <row r="214" spans="2:12">
+      <c r="B214" s="7"/>
+      <c r="C214" s="8"/>
+      <c r="D214" s="8"/>
+      <c r="E214" s="8"/>
+      <c r="F214" s="8"/>
+      <c r="G214" s="8"/>
+      <c r="H214" s="8"/>
+      <c r="I214" s="8"/>
+      <c r="J214" s="8"/>
+      <c r="K214" s="8"/>
+      <c r="L214" s="9"/>
+    </row>
+    <row r="217" spans="2:12">
+      <c r="B217" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="C217" s="2"/>
+      <c r="D217" s="2"/>
+      <c r="E217" s="2"/>
+      <c r="F217" s="2"/>
+      <c r="G217" s="2"/>
+      <c r="H217" s="2"/>
+      <c r="I217" s="2"/>
+      <c r="J217" s="2"/>
+      <c r="K217" s="2"/>
+      <c r="L217" s="3"/>
+    </row>
+    <row r="218" spans="2:12">
+      <c r="B218" s="4"/>
+      <c r="C218" s="11"/>
+      <c r="D218" s="11"/>
+      <c r="E218" s="11"/>
+      <c r="F218" s="11"/>
+      <c r="G218" s="11"/>
+      <c r="H218" s="11"/>
+      <c r="I218" s="11"/>
+      <c r="J218" s="11"/>
+      <c r="K218" s="11"/>
+      <c r="L218" s="5"/>
+    </row>
+    <row r="219" spans="2:12">
+      <c r="B219" s="4"/>
+      <c r="C219" s="11"/>
+      <c r="D219" s="11"/>
+      <c r="E219" s="11"/>
+      <c r="F219" s="11"/>
+      <c r="G219" s="11"/>
+      <c r="H219" s="11"/>
+      <c r="I219" s="11"/>
+      <c r="J219" s="11"/>
+      <c r="K219" s="11"/>
+      <c r="L219" s="5"/>
+    </row>
+    <row r="220" spans="2:12">
+      <c r="B220" s="4"/>
+      <c r="C220" s="11"/>
+      <c r="D220" s="11"/>
+      <c r="E220" s="11"/>
+      <c r="F220" s="11"/>
+      <c r="G220" s="11"/>
+      <c r="H220" s="11"/>
+      <c r="I220" s="11"/>
+      <c r="J220" s="11"/>
+      <c r="K220" s="11"/>
+      <c r="L220" s="5"/>
+    </row>
+    <row r="221" spans="2:12">
+      <c r="B221" s="4"/>
+      <c r="C221" s="11"/>
+      <c r="D221" s="11"/>
+      <c r="E221" s="11"/>
+      <c r="F221" s="11"/>
+      <c r="G221" s="11"/>
+      <c r="H221" s="11"/>
+      <c r="I221" s="11"/>
+      <c r="J221" s="11"/>
+      <c r="K221" s="11"/>
+      <c r="L221" s="5"/>
+    </row>
+    <row r="222" spans="2:12">
+      <c r="B222" s="4"/>
+      <c r="C222" s="11"/>
+      <c r="D222" s="11"/>
+      <c r="E222" s="11"/>
+      <c r="F222" s="11"/>
+      <c r="G222" s="11"/>
+      <c r="H222" s="11"/>
+      <c r="I222" s="11"/>
+      <c r="J222" s="11"/>
+      <c r="K222" s="11"/>
+      <c r="L222" s="5"/>
+    </row>
+    <row r="223" spans="2:12">
+      <c r="B223" s="4"/>
+      <c r="C223" s="11"/>
+      <c r="D223" s="11"/>
+      <c r="E223" s="11"/>
+      <c r="F223" s="11"/>
+      <c r="G223" s="11"/>
+      <c r="H223" s="11"/>
+      <c r="I223" s="11"/>
+      <c r="J223" s="11"/>
+      <c r="K223" s="11"/>
+      <c r="L223" s="5"/>
+    </row>
+    <row r="224" spans="2:12">
+      <c r="B224" s="4"/>
+      <c r="C224" s="11"/>
+      <c r="D224" s="11"/>
+      <c r="E224" s="11"/>
+      <c r="F224" s="11"/>
+      <c r="G224" s="11"/>
+      <c r="H224" s="11"/>
+      <c r="I224" s="11"/>
+      <c r="J224" s="11"/>
+      <c r="K224" s="11"/>
+      <c r="L224" s="5"/>
+    </row>
+    <row r="225" spans="2:12">
+      <c r="B225" s="4"/>
+      <c r="C225" s="11"/>
+      <c r="D225" s="11"/>
+      <c r="E225" s="11"/>
+      <c r="F225" s="11"/>
+      <c r="G225" s="11"/>
+      <c r="H225" s="11"/>
+      <c r="I225" s="11"/>
+      <c r="J225" s="11"/>
+      <c r="K225" s="11"/>
+      <c r="L225" s="5"/>
+    </row>
+    <row r="226" spans="2:12">
+      <c r="B226" s="4"/>
+      <c r="C226" s="11"/>
+      <c r="D226" s="11"/>
+      <c r="E226" s="11"/>
+      <c r="F226" s="11"/>
+      <c r="G226" s="11"/>
+      <c r="H226" s="11"/>
+      <c r="I226" s="11"/>
+      <c r="J226" s="11"/>
+      <c r="K226" s="11"/>
+      <c r="L226" s="5"/>
+    </row>
+    <row r="227" spans="2:12">
+      <c r="B227" s="4"/>
+      <c r="C227" s="11"/>
+      <c r="D227" s="11"/>
+      <c r="E227" s="11"/>
+      <c r="F227" s="11"/>
+      <c r="G227" s="11"/>
+      <c r="H227" s="11"/>
+      <c r="I227" s="11"/>
+      <c r="J227" s="11"/>
+      <c r="K227" s="11"/>
+      <c r="L227" s="5"/>
+    </row>
+    <row r="228" spans="2:12">
+      <c r="B228" s="4"/>
+      <c r="C228" s="11"/>
+      <c r="D228" s="11"/>
+      <c r="E228" s="11"/>
+      <c r="F228" s="11"/>
+      <c r="G228" s="11"/>
+      <c r="H228" s="11"/>
+      <c r="I228" s="11"/>
+      <c r="J228" s="11"/>
+      <c r="K228" s="11"/>
+      <c r="L228" s="5"/>
+    </row>
+    <row r="229" spans="2:12">
+      <c r="B229" s="4"/>
+      <c r="C229" s="11"/>
+      <c r="D229" s="11"/>
+      <c r="E229" s="11"/>
+      <c r="F229" s="11"/>
+      <c r="G229" s="11"/>
+      <c r="H229" s="11"/>
+      <c r="I229" s="11"/>
+      <c r="J229" s="11"/>
+      <c r="K229" s="11"/>
+      <c r="L229" s="5"/>
+    </row>
+    <row r="230" spans="2:12">
+      <c r="B230" s="4"/>
+      <c r="C230" s="11"/>
+      <c r="D230" s="11"/>
+      <c r="E230" s="11"/>
+      <c r="F230" s="11"/>
+      <c r="G230" s="11"/>
+      <c r="H230" s="11"/>
+      <c r="I230" s="11"/>
+      <c r="J230" s="11"/>
+      <c r="K230" s="11"/>
+      <c r="L230" s="5"/>
+    </row>
+    <row r="231" spans="2:12">
+      <c r="B231" s="4"/>
+      <c r="C231" s="11"/>
+      <c r="D231" s="11"/>
+      <c r="E231" s="11"/>
+      <c r="F231" s="11"/>
+      <c r="G231" s="11"/>
+      <c r="H231" s="11"/>
+      <c r="I231" s="11"/>
+      <c r="J231" s="11"/>
+      <c r="K231" s="11"/>
+      <c r="L231" s="5"/>
+    </row>
+    <row r="232" spans="2:12">
+      <c r="B232" s="4"/>
+      <c r="C232" s="11"/>
+      <c r="D232" s="11"/>
+      <c r="E232" s="11"/>
+      <c r="F232" s="11"/>
+      <c r="G232" s="11"/>
+      <c r="H232" s="11"/>
+      <c r="I232" s="11"/>
+      <c r="J232" s="11"/>
+      <c r="K232" s="11"/>
+      <c r="L232" s="5"/>
+    </row>
+    <row r="233" spans="2:12">
+      <c r="B233" s="4"/>
+      <c r="C233" s="11"/>
+      <c r="D233" s="11"/>
+      <c r="E233" s="11"/>
+      <c r="F233" s="11"/>
+      <c r="G233" s="11"/>
+      <c r="H233" s="11"/>
+      <c r="I233" s="11"/>
+      <c r="J233" s="11"/>
+      <c r="K233" s="11"/>
+      <c r="L233" s="5"/>
+    </row>
+    <row r="234" spans="2:12">
+      <c r="B234" s="4"/>
+      <c r="C234" s="11"/>
+      <c r="D234" s="11"/>
+      <c r="E234" s="11"/>
+      <c r="F234" s="11"/>
+      <c r="G234" s="11"/>
+      <c r="H234" s="11"/>
+      <c r="I234" s="11"/>
+      <c r="J234" s="11"/>
+      <c r="K234" s="11"/>
+      <c r="L234" s="5"/>
+    </row>
+    <row r="235" spans="2:12">
+      <c r="B235" s="4"/>
+      <c r="C235" s="11"/>
+      <c r="D235" s="11"/>
+      <c r="E235" s="11"/>
+      <c r="F235" s="11"/>
+      <c r="G235" s="11"/>
+      <c r="H235" s="11"/>
+      <c r="I235" s="11"/>
+      <c r="J235" s="11"/>
+      <c r="K235" s="11"/>
+      <c r="L235" s="5"/>
+    </row>
+    <row r="236" spans="2:12">
+      <c r="B236" s="4"/>
+      <c r="C236" s="11"/>
+      <c r="D236" s="11"/>
+      <c r="E236" s="11"/>
+      <c r="F236" s="11"/>
+      <c r="G236" s="11"/>
+      <c r="H236" s="11"/>
+      <c r="I236" s="11"/>
+      <c r="J236" s="11"/>
+      <c r="K236" s="11"/>
+      <c r="L236" s="5"/>
+    </row>
+    <row r="237" spans="2:12">
+      <c r="B237" s="4"/>
+      <c r="C237" s="11"/>
+      <c r="D237" s="11"/>
+      <c r="E237" s="11"/>
+      <c r="F237" s="11"/>
+      <c r="G237" s="11"/>
+      <c r="H237" s="11"/>
+      <c r="I237" s="11"/>
+      <c r="J237" s="11"/>
+      <c r="K237" s="11"/>
+      <c r="L237" s="5"/>
+    </row>
+    <row r="238" spans="2:12">
+      <c r="B238" s="4"/>
+      <c r="C238" s="11"/>
+      <c r="D238" s="11"/>
+      <c r="E238" s="11"/>
+      <c r="F238" s="11"/>
+      <c r="G238" s="11"/>
+      <c r="H238" s="11"/>
+      <c r="I238" s="11"/>
+      <c r="J238" s="11"/>
+      <c r="K238" s="11"/>
+      <c r="L238" s="5"/>
+    </row>
+    <row r="239" spans="2:12">
+      <c r="B239" s="4"/>
+      <c r="C239" s="11"/>
+      <c r="D239" s="11"/>
+      <c r="E239" s="11"/>
+      <c r="F239" s="11"/>
+      <c r="G239" s="11"/>
+      <c r="H239" s="11"/>
+      <c r="I239" s="11"/>
+      <c r="J239" s="11"/>
+      <c r="K239" s="11"/>
+      <c r="L239" s="5"/>
+    </row>
+    <row r="240" spans="2:12">
+      <c r="B240" s="4"/>
+      <c r="C240" s="11"/>
+      <c r="D240" s="11"/>
+      <c r="E240" s="11"/>
+      <c r="F240" s="11"/>
+      <c r="G240" s="11"/>
+      <c r="H240" s="11"/>
+      <c r="I240" s="11"/>
+      <c r="J240" s="11"/>
+      <c r="K240" s="11"/>
+      <c r="L240" s="5"/>
+    </row>
+    <row r="241" spans="2:12">
+      <c r="B241" s="4"/>
+      <c r="C241" s="11"/>
+      <c r="D241" s="11"/>
+      <c r="E241" s="11"/>
+      <c r="F241" s="11"/>
+      <c r="G241" s="11"/>
+      <c r="H241" s="11"/>
+      <c r="I241" s="11"/>
+      <c r="J241" s="11"/>
+      <c r="K241" s="11"/>
+      <c r="L241" s="5"/>
+    </row>
+    <row r="242" spans="2:12">
+      <c r="B242" s="4"/>
+      <c r="C242" s="11"/>
+      <c r="D242" s="11"/>
+      <c r="E242" s="11"/>
+      <c r="F242" s="11"/>
+      <c r="G242" s="11"/>
+      <c r="H242" s="11"/>
+      <c r="I242" s="11"/>
+      <c r="J242" s="11"/>
+      <c r="K242" s="11"/>
+      <c r="L242" s="5"/>
+    </row>
+    <row r="243" spans="2:12">
+      <c r="B243" s="4"/>
+      <c r="C243" s="11"/>
+      <c r="D243" s="11"/>
+      <c r="E243" s="11"/>
+      <c r="F243" s="11"/>
+      <c r="G243" s="11"/>
+      <c r="H243" s="11"/>
+      <c r="I243" s="11"/>
+      <c r="J243" s="11"/>
+      <c r="K243" s="11"/>
+      <c r="L243" s="5"/>
+    </row>
+    <row r="244" spans="2:12">
+      <c r="B244" s="4"/>
+      <c r="C244" s="11"/>
+      <c r="D244" s="11"/>
+      <c r="E244" s="11"/>
+      <c r="F244" s="11"/>
+      <c r="G244" s="11"/>
+      <c r="H244" s="11"/>
+      <c r="I244" s="11"/>
+      <c r="J244" s="11"/>
+      <c r="K244" s="11"/>
+      <c r="L244" s="5"/>
+    </row>
+    <row r="245" spans="2:12">
+      <c r="B245" s="4"/>
+      <c r="C245" s="11"/>
+      <c r="D245" s="11"/>
+      <c r="E245" s="11"/>
+      <c r="F245" s="11"/>
+      <c r="G245" s="11"/>
+      <c r="H245" s="11"/>
+      <c r="I245" s="11"/>
+      <c r="J245" s="11"/>
+      <c r="K245" s="11"/>
+      <c r="L245" s="5"/>
+    </row>
+    <row r="246" spans="2:12">
+      <c r="B246" s="4"/>
+      <c r="C246" s="11"/>
+      <c r="D246" s="11"/>
+      <c r="E246" s="11"/>
+      <c r="F246" s="11"/>
+      <c r="G246" s="11"/>
+      <c r="H246" s="11"/>
+      <c r="I246" s="11"/>
+      <c r="J246" s="11"/>
+      <c r="K246" s="11"/>
+      <c r="L246" s="5"/>
+    </row>
+    <row r="247" spans="2:12">
+      <c r="B247" s="4"/>
+      <c r="C247" s="11"/>
+      <c r="D247" s="11"/>
+      <c r="E247" s="11"/>
+      <c r="F247" s="11"/>
+      <c r="G247" s="11"/>
+      <c r="H247" s="11"/>
+      <c r="I247" s="11"/>
+      <c r="J247" s="11"/>
+      <c r="K247" s="11"/>
+      <c r="L247" s="5"/>
+    </row>
+    <row r="248" spans="2:12">
+      <c r="B248" s="7"/>
+      <c r="C248" s="8"/>
+      <c r="D248" s="8"/>
+      <c r="E248" s="8"/>
+      <c r="F248" s="8"/>
+      <c r="G248" s="8"/>
+      <c r="H248" s="8"/>
+      <c r="I248" s="8"/>
+      <c r="J248" s="8"/>
+      <c r="K248" s="8"/>
+      <c r="L248" s="9"/>
+    </row>
+    <row r="251" spans="2:12">
+      <c r="B251" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="C251" s="2"/>
+      <c r="D251" s="2"/>
+      <c r="E251" s="2"/>
+      <c r="F251" s="2"/>
+      <c r="G251" s="2"/>
+      <c r="H251" s="2"/>
+      <c r="I251" s="2"/>
+      <c r="J251" s="2"/>
+      <c r="K251" s="2"/>
+      <c r="L251" s="3"/>
+    </row>
+    <row r="252" spans="2:12">
+      <c r="B252" s="4"/>
+      <c r="C252" s="11"/>
+      <c r="D252" s="11"/>
+      <c r="E252" s="11"/>
+      <c r="F252" s="11"/>
+      <c r="G252" s="11"/>
+      <c r="H252" s="11"/>
+      <c r="I252" s="11"/>
+      <c r="J252" s="11"/>
+      <c r="K252" s="11"/>
+      <c r="L252" s="5"/>
+    </row>
+    <row r="253" spans="2:12">
+      <c r="B253" s="4"/>
+      <c r="C253" s="11"/>
+      <c r="D253" s="11"/>
+      <c r="E253" s="11"/>
+      <c r="F253" s="11"/>
+      <c r="G253" s="11"/>
+      <c r="H253" s="11"/>
+      <c r="I253" s="11"/>
+      <c r="J253" s="11"/>
+      <c r="K253" s="11"/>
+      <c r="L253" s="5"/>
+    </row>
+    <row r="254" spans="2:12">
+      <c r="B254" s="4"/>
+      <c r="C254" s="11"/>
+      <c r="D254" s="11"/>
+      <c r="E254" s="11"/>
+      <c r="F254" s="11"/>
+      <c r="G254" s="11"/>
+      <c r="H254" s="11"/>
+      <c r="I254" s="11"/>
+      <c r="J254" s="11"/>
+      <c r="K254" s="11"/>
+      <c r="L254" s="5"/>
+    </row>
+    <row r="255" spans="2:12">
+      <c r="B255" s="4"/>
+      <c r="C255" s="11"/>
+      <c r="D255" s="11"/>
+      <c r="E255" s="11"/>
+      <c r="F255" s="11"/>
+      <c r="G255" s="11"/>
+      <c r="H255" s="11"/>
+      <c r="I255" s="11"/>
+      <c r="J255" s="11"/>
+      <c r="K255" s="11"/>
+      <c r="L255" s="5"/>
+    </row>
+    <row r="256" spans="2:12">
+      <c r="B256" s="4"/>
+      <c r="C256" s="11"/>
+      <c r="D256" s="11"/>
+      <c r="E256" s="11"/>
+      <c r="F256" s="11"/>
+      <c r="G256" s="11"/>
+      <c r="H256" s="11"/>
+      <c r="I256" s="11"/>
+      <c r="J256" s="11"/>
+      <c r="K256" s="11"/>
+      <c r="L256" s="5"/>
+    </row>
+    <row r="257" spans="2:12">
+      <c r="B257" s="4"/>
+      <c r="C257" s="11"/>
+      <c r="D257" s="11"/>
+      <c r="E257" s="11"/>
+      <c r="F257" s="11"/>
+      <c r="G257" s="11"/>
+      <c r="H257" s="11"/>
+      <c r="I257" s="11"/>
+      <c r="J257" s="11"/>
+      <c r="K257" s="11"/>
+      <c r="L257" s="5"/>
+    </row>
+    <row r="258" spans="2:12">
+      <c r="B258" s="4"/>
+      <c r="C258" s="11"/>
+      <c r="D258" s="11"/>
+      <c r="E258" s="11"/>
+      <c r="F258" s="11"/>
+      <c r="G258" s="11"/>
+      <c r="H258" s="11"/>
+      <c r="I258" s="11"/>
+      <c r="J258" s="11"/>
+      <c r="K258" s="11"/>
+      <c r="L258" s="5"/>
+    </row>
+    <row r="259" spans="2:12">
+      <c r="B259" s="4"/>
+      <c r="C259" s="11"/>
+      <c r="D259" s="11"/>
+      <c r="E259" s="11"/>
+      <c r="F259" s="11"/>
+      <c r="G259" s="11"/>
+      <c r="H259" s="11"/>
+      <c r="I259" s="11"/>
+      <c r="J259" s="11"/>
+      <c r="K259" s="11"/>
+      <c r="L259" s="5"/>
+    </row>
+    <row r="260" spans="2:12">
+      <c r="B260" s="4"/>
+      <c r="C260" s="11"/>
+      <c r="D260" s="11"/>
+      <c r="E260" s="11"/>
+      <c r="F260" s="11"/>
+      <c r="G260" s="11"/>
+      <c r="H260" s="11"/>
+      <c r="I260" s="11"/>
+      <c r="J260" s="11"/>
+      <c r="K260" s="11"/>
+      <c r="L260" s="5"/>
+    </row>
+    <row r="261" spans="2:12">
+      <c r="B261" s="4"/>
+      <c r="C261" s="11"/>
+      <c r="D261" s="11"/>
+      <c r="E261" s="11"/>
+      <c r="F261" s="11"/>
+      <c r="G261" s="11"/>
+      <c r="H261" s="11"/>
+      <c r="I261" s="11"/>
+      <c r="J261" s="11"/>
+      <c r="K261" s="11"/>
+      <c r="L261" s="5"/>
+    </row>
+    <row r="262" spans="2:12">
+      <c r="B262" s="4"/>
+      <c r="C262" s="11"/>
+      <c r="D262" s="11"/>
+      <c r="E262" s="11"/>
+      <c r="F262" s="11"/>
+      <c r="G262" s="11"/>
+      <c r="H262" s="11"/>
+      <c r="I262" s="11"/>
+      <c r="J262" s="11"/>
+      <c r="K262" s="11"/>
+      <c r="L262" s="5"/>
+    </row>
+    <row r="263" spans="2:12">
+      <c r="B263" s="4"/>
+      <c r="C263" s="11"/>
+      <c r="D263" s="11"/>
+      <c r="E263" s="11"/>
+      <c r="F263" s="11"/>
+      <c r="G263" s="11"/>
+      <c r="H263" s="11"/>
+      <c r="I263" s="11"/>
+      <c r="J263" s="11"/>
+      <c r="K263" s="11"/>
+      <c r="L263" s="5"/>
+    </row>
+    <row r="264" spans="2:12">
+      <c r="B264" s="4"/>
+      <c r="C264" s="11"/>
+      <c r="D264" s="11"/>
+      <c r="E264" s="11"/>
+      <c r="F264" s="11"/>
+      <c r="G264" s="11"/>
+      <c r="H264" s="11"/>
+      <c r="I264" s="11"/>
+      <c r="J264" s="11"/>
+      <c r="K264" s="11"/>
+      <c r="L264" s="5"/>
+    </row>
+    <row r="265" spans="2:12">
+      <c r="B265" s="4"/>
+      <c r="C265" s="11"/>
+      <c r="D265" s="11"/>
+      <c r="E265" s="11"/>
+      <c r="F265" s="11"/>
+      <c r="G265" s="11"/>
+      <c r="H265" s="11"/>
+      <c r="I265" s="11"/>
+      <c r="J265" s="11"/>
+      <c r="K265" s="11"/>
+      <c r="L265" s="5"/>
+    </row>
+    <row r="266" spans="2:12">
+      <c r="B266" s="4"/>
+      <c r="C266" s="11"/>
+      <c r="D266" s="11"/>
+      <c r="E266" s="11"/>
+      <c r="F266" s="11"/>
+      <c r="G266" s="11"/>
+      <c r="H266" s="11"/>
+      <c r="I266" s="11"/>
+      <c r="J266" s="11"/>
+      <c r="K266" s="11"/>
+      <c r="L266" s="5"/>
+    </row>
+    <row r="267" spans="2:12">
+      <c r="B267" s="4"/>
+      <c r="C267" s="11"/>
+      <c r="D267" s="11"/>
+      <c r="E267" s="11"/>
+      <c r="F267" s="11"/>
+      <c r="G267" s="11"/>
+      <c r="H267" s="11"/>
+      <c r="I267" s="11"/>
+      <c r="J267" s="11"/>
+      <c r="K267" s="11"/>
+      <c r="L267" s="5"/>
+    </row>
+    <row r="268" spans="2:12">
+      <c r="B268" s="4"/>
+      <c r="C268" s="11"/>
+      <c r="D268" s="11"/>
+      <c r="E268" s="11"/>
+      <c r="F268" s="11"/>
+      <c r="G268" s="11"/>
+      <c r="H268" s="11"/>
+      <c r="I268" s="11"/>
+      <c r="J268" s="11"/>
+      <c r="K268" s="11"/>
+      <c r="L268" s="5"/>
+    </row>
+    <row r="269" spans="2:12">
+      <c r="B269" s="4"/>
+      <c r="C269" s="11"/>
+      <c r="D269" s="11"/>
+      <c r="E269" s="11"/>
+      <c r="F269" s="11"/>
+      <c r="G269" s="11"/>
+      <c r="H269" s="11"/>
+      <c r="I269" s="11"/>
+      <c r="J269" s="11"/>
+      <c r="K269" s="11"/>
+      <c r="L269" s="5"/>
+    </row>
+    <row r="270" spans="2:12">
+      <c r="B270" s="4"/>
+      <c r="C270" s="11"/>
+      <c r="D270" s="11"/>
+      <c r="E270" s="11"/>
+      <c r="F270" s="11"/>
+      <c r="G270" s="11"/>
+      <c r="H270" s="11"/>
+      <c r="I270" s="11"/>
+      <c r="J270" s="11"/>
+      <c r="K270" s="11"/>
+      <c r="L270" s="5"/>
+    </row>
+    <row r="271" spans="2:12">
+      <c r="B271" s="4"/>
+      <c r="C271" s="11"/>
+      <c r="D271" s="11"/>
+      <c r="E271" s="11"/>
+      <c r="F271" s="11"/>
+      <c r="G271" s="11"/>
+      <c r="H271" s="11"/>
+      <c r="I271" s="11"/>
+      <c r="J271" s="11"/>
+      <c r="K271" s="11"/>
+      <c r="L271" s="5"/>
+    </row>
+    <row r="272" spans="2:12">
+      <c r="B272" s="4"/>
+      <c r="C272" s="11"/>
+      <c r="D272" s="11"/>
+      <c r="E272" s="11"/>
+      <c r="F272" s="11"/>
+      <c r="G272" s="11"/>
+      <c r="H272" s="11"/>
+      <c r="I272" s="11"/>
+      <c r="J272" s="11"/>
+      <c r="K272" s="11"/>
+      <c r="L272" s="5"/>
+    </row>
+    <row r="273" spans="2:12">
+      <c r="B273" s="4"/>
+      <c r="C273" s="11"/>
+      <c r="D273" s="11"/>
+      <c r="E273" s="11"/>
+      <c r="F273" s="11"/>
+      <c r="G273" s="11"/>
+      <c r="H273" s="11"/>
+      <c r="I273" s="11"/>
+      <c r="J273" s="11"/>
+      <c r="K273" s="11"/>
+      <c r="L273" s="5"/>
+    </row>
+    <row r="274" spans="2:12">
+      <c r="B274" s="4"/>
+      <c r="C274" s="11"/>
+      <c r="D274" s="11"/>
+      <c r="E274" s="11"/>
+      <c r="F274" s="11"/>
+      <c r="G274" s="11"/>
+      <c r="H274" s="11"/>
+      <c r="I274" s="11"/>
+      <c r="J274" s="11"/>
+      <c r="K274" s="11"/>
+      <c r="L274" s="5"/>
+    </row>
+    <row r="275" spans="2:12">
+      <c r="B275" s="4"/>
+      <c r="C275" s="11"/>
+      <c r="D275" s="11"/>
+      <c r="E275" s="11"/>
+      <c r="F275" s="11"/>
+      <c r="G275" s="11"/>
+      <c r="H275" s="11"/>
+      <c r="I275" s="11"/>
+      <c r="J275" s="11"/>
+      <c r="K275" s="11"/>
+      <c r="L275" s="5"/>
+    </row>
+    <row r="276" spans="2:12">
+      <c r="B276" s="4"/>
+      <c r="C276" s="11"/>
+      <c r="D276" s="11"/>
+      <c r="E276" s="11"/>
+      <c r="F276" s="11"/>
+      <c r="G276" s="11"/>
+      <c r="H276" s="11"/>
+      <c r="I276" s="11"/>
+      <c r="J276" s="11"/>
+      <c r="K276" s="11"/>
+      <c r="L276" s="5"/>
+    </row>
+    <row r="277" spans="2:12">
+      <c r="B277" s="4"/>
+      <c r="C277" s="11"/>
+      <c r="D277" s="11"/>
+      <c r="E277" s="11"/>
+      <c r="F277" s="11"/>
+      <c r="G277" s="11"/>
+      <c r="H277" s="11"/>
+      <c r="I277" s="11"/>
+      <c r="J277" s="11"/>
+      <c r="K277" s="11"/>
+      <c r="L277" s="5"/>
+    </row>
+    <row r="278" spans="2:12">
+      <c r="B278" s="4"/>
+      <c r="C278" s="11"/>
+      <c r="D278" s="11"/>
+      <c r="E278" s="11"/>
+      <c r="F278" s="11"/>
+      <c r="G278" s="11"/>
+      <c r="H278" s="11"/>
+      <c r="I278" s="11"/>
+      <c r="J278" s="11"/>
+      <c r="K278" s="11"/>
+      <c r="L278" s="5"/>
+    </row>
+    <row r="279" spans="2:12">
+      <c r="B279" s="4"/>
+      <c r="C279" s="11"/>
+      <c r="D279" s="11"/>
+      <c r="E279" s="11"/>
+      <c r="F279" s="11"/>
+      <c r="G279" s="11"/>
+      <c r="H279" s="11"/>
+      <c r="I279" s="11"/>
+      <c r="J279" s="11"/>
+      <c r="K279" s="11"/>
+      <c r="L279" s="5"/>
+    </row>
+    <row r="280" spans="2:12">
+      <c r="B280" s="4"/>
+      <c r="C280" s="11"/>
+      <c r="D280" s="11"/>
+      <c r="E280" s="11"/>
+      <c r="F280" s="11"/>
+      <c r="G280" s="11"/>
+      <c r="H280" s="11"/>
+      <c r="I280" s="11"/>
+      <c r="J280" s="11"/>
+      <c r="K280" s="11"/>
+      <c r="L280" s="5"/>
+    </row>
+    <row r="281" spans="2:12">
+      <c r="B281" s="4"/>
+      <c r="C281" s="11"/>
+      <c r="D281" s="11"/>
+      <c r="E281" s="11"/>
+      <c r="F281" s="11"/>
+      <c r="G281" s="11"/>
+      <c r="H281" s="11"/>
+      <c r="I281" s="11"/>
+      <c r="J281" s="11"/>
+      <c r="K281" s="11"/>
+      <c r="L281" s="5"/>
+    </row>
+    <row r="282" spans="2:12">
+      <c r="B282" s="4"/>
+      <c r="C282" s="11"/>
+      <c r="D282" s="11"/>
+      <c r="E282" s="11"/>
+      <c r="F282" s="11"/>
+      <c r="G282" s="11"/>
+      <c r="H282" s="11"/>
+      <c r="I282" s="11"/>
+      <c r="J282" s="11"/>
+      <c r="K282" s="11"/>
+      <c r="L282" s="5"/>
+    </row>
+    <row r="283" spans="2:12">
+      <c r="B283" s="7"/>
+      <c r="C283" s="8"/>
+      <c r="D283" s="8"/>
+      <c r="E283" s="8"/>
+      <c r="F283" s="8"/>
+      <c r="G283" s="8"/>
+      <c r="H283" s="8"/>
+      <c r="I283" s="8"/>
+      <c r="J283" s="8"/>
+      <c r="K283" s="8"/>
+      <c r="L283" s="9"/>
+    </row>
+    <row r="286" spans="2:12">
+      <c r="B286" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="C286" s="2"/>
+      <c r="D286" s="2"/>
+      <c r="E286" s="2"/>
+      <c r="F286" s="2"/>
+      <c r="G286" s="2"/>
+      <c r="H286" s="2"/>
+      <c r="I286" s="2"/>
+      <c r="J286" s="2"/>
+      <c r="K286" s="2"/>
+      <c r="L286" s="3"/>
+    </row>
+    <row r="287" spans="2:12">
+      <c r="B287" s="4"/>
+      <c r="C287" s="11"/>
+      <c r="D287" s="11"/>
+      <c r="E287" s="11"/>
+      <c r="F287" s="11"/>
+      <c r="G287" s="11"/>
+      <c r="H287" s="11"/>
+      <c r="I287" s="11"/>
+      <c r="J287" s="11"/>
+      <c r="K287" s="11"/>
+      <c r="L287" s="5"/>
+    </row>
+    <row r="288" spans="2:12">
+      <c r="B288" s="4"/>
+      <c r="C288" s="11"/>
+      <c r="D288" s="11"/>
+      <c r="E288" s="11"/>
+      <c r="F288" s="11"/>
+      <c r="G288" s="11"/>
+      <c r="H288" s="11"/>
+      <c r="I288" s="11"/>
+      <c r="J288" s="11"/>
+      <c r="K288" s="11"/>
+      <c r="L288" s="5"/>
+    </row>
+    <row r="289" spans="2:12">
+      <c r="B289" s="4"/>
+      <c r="C289" s="11"/>
+      <c r="D289" s="11"/>
+      <c r="E289" s="11"/>
+      <c r="F289" s="11"/>
+      <c r="G289" s="11"/>
+      <c r="H289" s="11"/>
+      <c r="I289" s="11"/>
+      <c r="J289" s="11"/>
+      <c r="K289" s="11"/>
+      <c r="L289" s="5"/>
+    </row>
+    <row r="290" spans="2:12">
+      <c r="B290" s="4"/>
+      <c r="C290" s="11"/>
+      <c r="D290" s="11"/>
+      <c r="E290" s="11"/>
+      <c r="F290" s="11"/>
+      <c r="G290" s="11"/>
+      <c r="H290" s="11"/>
+      <c r="I290" s="11"/>
+      <c r="J290" s="11"/>
+      <c r="K290" s="11"/>
+      <c r="L290" s="5"/>
+    </row>
+    <row r="291" spans="2:12">
+      <c r="B291" s="4"/>
+      <c r="C291" s="11"/>
+      <c r="D291" s="11"/>
+      <c r="E291" s="11"/>
+      <c r="F291" s="11"/>
+      <c r="G291" s="11"/>
+      <c r="H291" s="11"/>
+      <c r="I291" s="11"/>
+      <c r="J291" s="11"/>
+      <c r="K291" s="11"/>
+      <c r="L291" s="5"/>
+    </row>
+    <row r="292" spans="2:12">
+      <c r="B292" s="4"/>
+      <c r="C292" s="11"/>
+      <c r="D292" s="11"/>
+      <c r="E292" s="11"/>
+      <c r="F292" s="11"/>
+      <c r="G292" s="11"/>
+      <c r="H292" s="11"/>
+      <c r="I292" s="11"/>
+      <c r="J292" s="11"/>
+      <c r="K292" s="11"/>
+      <c r="L292" s="5"/>
+    </row>
+    <row r="293" spans="2:12">
+      <c r="B293" s="4"/>
+      <c r="C293" s="11"/>
+      <c r="D293" s="11"/>
+      <c r="E293" s="11"/>
+      <c r="F293" s="11"/>
+      <c r="G293" s="11"/>
+      <c r="H293" s="11"/>
+      <c r="I293" s="11"/>
+      <c r="J293" s="11"/>
+      <c r="K293" s="11"/>
+      <c r="L293" s="5"/>
+    </row>
+    <row r="294" spans="2:12">
+      <c r="B294" s="4"/>
+      <c r="C294" s="11"/>
+      <c r="D294" s="11"/>
+      <c r="E294" s="11"/>
+      <c r="F294" s="11"/>
+      <c r="G294" s="11"/>
+      <c r="H294" s="11"/>
+      <c r="I294" s="11"/>
+      <c r="J294" s="11"/>
+      <c r="K294" s="11"/>
+      <c r="L294" s="5"/>
+    </row>
+    <row r="295" spans="2:12">
+      <c r="B295" s="4"/>
+      <c r="C295" s="11"/>
+      <c r="D295" s="11"/>
+      <c r="E295" s="11"/>
+      <c r="F295" s="11"/>
+      <c r="G295" s="11"/>
+      <c r="H295" s="11"/>
+      <c r="I295" s="11"/>
+      <c r="J295" s="11"/>
+      <c r="K295" s="11"/>
+      <c r="L295" s="5"/>
+    </row>
+    <row r="296" spans="2:12">
+      <c r="B296" s="4"/>
+      <c r="C296" s="11"/>
+      <c r="D296" s="11"/>
+      <c r="E296" s="11"/>
+      <c r="F296" s="11"/>
+      <c r="G296" s="11"/>
+      <c r="H296" s="11"/>
+      <c r="I296" s="11"/>
+      <c r="J296" s="11"/>
+      <c r="K296" s="11"/>
+      <c r="L296" s="5"/>
+    </row>
+    <row r="297" spans="2:12">
+      <c r="B297" s="4"/>
+      <c r="C297" s="11"/>
+      <c r="D297" s="11"/>
+      <c r="E297" s="11"/>
+      <c r="F297" s="11"/>
+      <c r="G297" s="11"/>
+      <c r="H297" s="11"/>
+      <c r="I297" s="11"/>
+      <c r="J297" s="11"/>
+      <c r="K297" s="11"/>
+      <c r="L297" s="5"/>
+    </row>
+    <row r="298" spans="2:12">
+      <c r="B298" s="4"/>
+      <c r="C298" s="11"/>
+      <c r="D298" s="11"/>
+      <c r="E298" s="11"/>
+      <c r="F298" s="11"/>
+      <c r="G298" s="11"/>
+      <c r="H298" s="11"/>
+      <c r="I298" s="11"/>
+      <c r="J298" s="11"/>
+      <c r="K298" s="11"/>
+      <c r="L298" s="5"/>
+    </row>
+    <row r="299" spans="2:12">
+      <c r="B299" s="4"/>
+      <c r="C299" s="11"/>
+      <c r="D299" s="11"/>
+      <c r="E299" s="11"/>
+      <c r="F299" s="11"/>
+      <c r="G299" s="11"/>
+      <c r="H299" s="11"/>
+      <c r="I299" s="11"/>
+      <c r="J299" s="11"/>
+      <c r="K299" s="11"/>
+      <c r="L299" s="5"/>
+    </row>
+    <row r="300" spans="2:12">
+      <c r="B300" s="4"/>
+      <c r="C300" s="11"/>
+      <c r="D300" s="11"/>
+      <c r="E300" s="11"/>
+      <c r="F300" s="11"/>
+      <c r="G300" s="11"/>
+      <c r="H300" s="11"/>
+      <c r="I300" s="11"/>
+      <c r="J300" s="11"/>
+      <c r="K300" s="11"/>
+      <c r="L300" s="5"/>
+    </row>
+    <row r="301" spans="2:12">
+      <c r="B301" s="4"/>
+      <c r="C301" s="11"/>
+      <c r="D301" s="11"/>
+      <c r="E301" s="11"/>
+      <c r="F301" s="11"/>
+      <c r="G301" s="11"/>
+      <c r="H301" s="11"/>
+      <c r="I301" s="11"/>
+      <c r="J301" s="11"/>
+      <c r="K301" s="11"/>
+      <c r="L301" s="5"/>
+    </row>
+    <row r="302" spans="2:12">
+      <c r="B302" s="4"/>
+      <c r="C302" s="11"/>
+      <c r="D302" s="11"/>
+      <c r="E302" s="11"/>
+      <c r="F302" s="11"/>
+      <c r="G302" s="11"/>
+      <c r="H302" s="11"/>
+      <c r="I302" s="11"/>
+      <c r="J302" s="11"/>
+      <c r="K302" s="11"/>
+      <c r="L302" s="5"/>
+    </row>
+    <row r="303" spans="2:12">
+      <c r="B303" s="4"/>
+      <c r="C303" s="11"/>
+      <c r="D303" s="11"/>
+      <c r="E303" s="11"/>
+      <c r="F303" s="11"/>
+      <c r="G303" s="11"/>
+      <c r="H303" s="11"/>
+      <c r="I303" s="11"/>
+      <c r="J303" s="11"/>
+      <c r="K303" s="11"/>
+      <c r="L303" s="5"/>
+    </row>
+    <row r="304" spans="2:12">
+      <c r="B304" s="4"/>
+      <c r="C304" s="11"/>
+      <c r="D304" s="11"/>
+      <c r="E304" s="11"/>
+      <c r="F304" s="11"/>
+      <c r="G304" s="11"/>
+      <c r="H304" s="11"/>
+      <c r="I304" s="11"/>
+      <c r="J304" s="11"/>
+      <c r="K304" s="11"/>
+      <c r="L304" s="5"/>
+    </row>
+    <row r="305" spans="2:12">
+      <c r="B305" s="4"/>
+      <c r="C305" s="11"/>
+      <c r="D305" s="11"/>
+      <c r="E305" s="11"/>
+      <c r="F305" s="11"/>
+      <c r="G305" s="11"/>
+      <c r="H305" s="11"/>
+      <c r="I305" s="11"/>
+      <c r="J305" s="11"/>
+      <c r="K305" s="11"/>
+      <c r="L305" s="5"/>
+    </row>
+    <row r="306" spans="2:12">
+      <c r="B306" s="4"/>
+      <c r="C306" s="11"/>
+      <c r="D306" s="11"/>
+      <c r="E306" s="11"/>
+      <c r="F306" s="11"/>
+      <c r="G306" s="11"/>
+      <c r="H306" s="11"/>
+      <c r="I306" s="11"/>
+      <c r="J306" s="11"/>
+      <c r="K306" s="11"/>
+      <c r="L306" s="5"/>
+    </row>
+    <row r="307" spans="2:12">
+      <c r="B307" s="4"/>
+      <c r="C307" s="11"/>
+      <c r="D307" s="11"/>
+      <c r="E307" s="11"/>
+      <c r="F307" s="11"/>
+      <c r="G307" s="11"/>
+      <c r="H307" s="11"/>
+      <c r="I307" s="11"/>
+      <c r="J307" s="11"/>
+      <c r="K307" s="11"/>
+      <c r="L307" s="5"/>
+    </row>
+    <row r="308" spans="2:12">
+      <c r="B308" s="4"/>
+      <c r="C308" s="11"/>
+      <c r="D308" s="11"/>
+      <c r="E308" s="11"/>
+      <c r="F308" s="11"/>
+      <c r="G308" s="11"/>
+      <c r="H308" s="11"/>
+      <c r="I308" s="11"/>
+      <c r="J308" s="11"/>
+      <c r="K308" s="11"/>
+      <c r="L308" s="5"/>
+    </row>
+    <row r="309" spans="2:12">
+      <c r="B309" s="4"/>
+      <c r="C309" s="11"/>
+      <c r="D309" s="11"/>
+      <c r="E309" s="11"/>
+      <c r="F309" s="11"/>
+      <c r="G309" s="11"/>
+      <c r="H309" s="11"/>
+      <c r="I309" s="11"/>
+      <c r="J309" s="11"/>
+      <c r="K309" s="11"/>
+      <c r="L309" s="5"/>
+    </row>
+    <row r="310" spans="2:12">
+      <c r="B310" s="4"/>
+      <c r="C310" s="11"/>
+      <c r="D310" s="11"/>
+      <c r="E310" s="11"/>
+      <c r="F310" s="11"/>
+      <c r="G310" s="11"/>
+      <c r="H310" s="11"/>
+      <c r="I310" s="11"/>
+      <c r="J310" s="11"/>
+      <c r="K310" s="11"/>
+      <c r="L310" s="5"/>
+    </row>
+    <row r="311" spans="2:12">
+      <c r="B311" s="4"/>
+      <c r="C311" s="11"/>
+      <c r="D311" s="11"/>
+      <c r="E311" s="11"/>
+      <c r="F311" s="11"/>
+      <c r="G311" s="11"/>
+      <c r="H311" s="11"/>
+      <c r="I311" s="11"/>
+      <c r="J311" s="11"/>
+      <c r="K311" s="11"/>
+      <c r="L311" s="5"/>
+    </row>
+    <row r="312" spans="2:12">
+      <c r="B312" s="4"/>
+      <c r="C312" s="11"/>
+      <c r="D312" s="11"/>
+      <c r="E312" s="11"/>
+      <c r="F312" s="11"/>
+      <c r="G312" s="11"/>
+      <c r="H312" s="11"/>
+      <c r="I312" s="11"/>
+      <c r="J312" s="11"/>
+      <c r="K312" s="11"/>
+      <c r="L312" s="5"/>
+    </row>
+    <row r="313" spans="2:12">
+      <c r="B313" s="4"/>
+      <c r="C313" s="11"/>
+      <c r="D313" s="11"/>
+      <c r="E313" s="11"/>
+      <c r="F313" s="11"/>
+      <c r="G313" s="11"/>
+      <c r="H313" s="11"/>
+      <c r="I313" s="11"/>
+      <c r="J313" s="11"/>
+      <c r="K313" s="11"/>
+      <c r="L313" s="5"/>
+    </row>
+    <row r="314" spans="2:12">
+      <c r="B314" s="4"/>
+      <c r="C314" s="11"/>
+      <c r="D314" s="11"/>
+      <c r="E314" s="11"/>
+      <c r="F314" s="11"/>
+      <c r="G314" s="11"/>
+      <c r="H314" s="11"/>
+      <c r="I314" s="11"/>
+      <c r="J314" s="11"/>
+      <c r="K314" s="11"/>
+      <c r="L314" s="5"/>
+    </row>
+    <row r="315" spans="2:12">
+      <c r="B315" s="4"/>
+      <c r="C315" s="11"/>
+      <c r="D315" s="11"/>
+      <c r="E315" s="11"/>
+      <c r="F315" s="11"/>
+      <c r="G315" s="11"/>
+      <c r="H315" s="11"/>
+      <c r="I315" s="11"/>
+      <c r="J315" s="11"/>
+      <c r="K315" s="11"/>
+      <c r="L315" s="5"/>
+    </row>
+    <row r="316" spans="2:12">
+      <c r="B316" s="4"/>
+      <c r="C316" s="11"/>
+      <c r="D316" s="11"/>
+      <c r="E316" s="11"/>
+      <c r="F316" s="11"/>
+      <c r="G316" s="11"/>
+      <c r="H316" s="11"/>
+      <c r="I316" s="11"/>
+      <c r="J316" s="11"/>
+      <c r="K316" s="11"/>
+      <c r="L316" s="5"/>
+    </row>
+    <row r="317" spans="2:12">
+      <c r="B317" s="7"/>
+      <c r="C317" s="8"/>
+      <c r="D317" s="8"/>
+      <c r="E317" s="8"/>
+      <c r="F317" s="8"/>
+      <c r="G317" s="8"/>
+      <c r="H317" s="8"/>
+      <c r="I317" s="8"/>
+      <c r="J317" s="8"/>
+      <c r="K317" s="8"/>
+      <c r="L317" s="9"/>
+    </row>
+    <row r="320" spans="2:12">
+      <c r="B320" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="C320" s="2"/>
+      <c r="D320" s="2"/>
+      <c r="E320" s="2"/>
+      <c r="F320" s="2"/>
+      <c r="G320" s="2"/>
+      <c r="H320" s="2"/>
+      <c r="I320" s="2"/>
+      <c r="J320" s="2"/>
+      <c r="K320" s="2"/>
+      <c r="L320" s="3"/>
+    </row>
+    <row r="321" spans="2:12">
+      <c r="B321" s="4"/>
+      <c r="C321" s="11"/>
+      <c r="D321" s="11"/>
+      <c r="E321" s="11"/>
+      <c r="F321" s="11"/>
+      <c r="G321" s="11"/>
+      <c r="H321" s="11"/>
+      <c r="I321" s="11"/>
+      <c r="J321" s="11"/>
+      <c r="K321" s="11"/>
+      <c r="L321" s="5"/>
+    </row>
+    <row r="322" spans="2:12">
+      <c r="B322" s="4"/>
+      <c r="C322" s="11"/>
+      <c r="D322" s="11"/>
+      <c r="E322" s="11"/>
+      <c r="F322" s="11"/>
+      <c r="G322" s="11"/>
+      <c r="H322" s="11"/>
+      <c r="I322" s="11"/>
+      <c r="J322" s="11"/>
+      <c r="K322" s="11"/>
+      <c r="L322" s="5"/>
+    </row>
+    <row r="323" spans="2:12">
+      <c r="B323" s="4"/>
+      <c r="C323" s="11"/>
+      <c r="D323" s="11"/>
+      <c r="E323" s="11"/>
+      <c r="F323" s="11"/>
+      <c r="G323" s="11"/>
+      <c r="H323" s="11"/>
+      <c r="I323" s="11"/>
+      <c r="J323" s="11"/>
+      <c r="K323" s="11"/>
+      <c r="L323" s="5"/>
+    </row>
+    <row r="324" spans="2:12">
+      <c r="B324" s="4"/>
+      <c r="C324" s="11"/>
+      <c r="D324" s="11"/>
+      <c r="E324" s="11"/>
+      <c r="F324" s="11"/>
+      <c r="G324" s="11"/>
+      <c r="H324" s="11"/>
+      <c r="I324" s="11"/>
+      <c r="J324" s="11"/>
+      <c r="K324" s="11"/>
+      <c r="L324" s="5"/>
+    </row>
+    <row r="325" spans="2:12">
+      <c r="B325" s="4"/>
+      <c r="C325" s="11"/>
+      <c r="D325" s="11"/>
+      <c r="E325" s="11"/>
+      <c r="F325" s="11"/>
+      <c r="G325" s="11"/>
+      <c r="H325" s="11"/>
+      <c r="I325" s="11"/>
+      <c r="J325" s="11"/>
+      <c r="K325" s="11"/>
+      <c r="L325" s="5"/>
+    </row>
+    <row r="326" spans="2:12">
+      <c r="B326" s="4"/>
+      <c r="C326" s="11"/>
+      <c r="D326" s="11"/>
+      <c r="E326" s="11"/>
+      <c r="F326" s="11"/>
+      <c r="G326" s="11"/>
+      <c r="H326" s="11"/>
+      <c r="I326" s="11"/>
+      <c r="J326" s="11"/>
+      <c r="K326" s="11"/>
+      <c r="L326" s="5"/>
+    </row>
+    <row r="327" spans="2:12">
+      <c r="B327" s="4"/>
+      <c r="C327" s="11"/>
+      <c r="D327" s="11"/>
+      <c r="E327" s="11"/>
+      <c r="F327" s="11"/>
+      <c r="G327" s="11"/>
+      <c r="H327" s="11"/>
+      <c r="I327" s="11"/>
+      <c r="J327" s="11"/>
+      <c r="K327" s="11"/>
+      <c r="L327" s="5"/>
+    </row>
+    <row r="328" spans="2:12">
+      <c r="B328" s="4"/>
+      <c r="C328" s="11"/>
+      <c r="D328" s="11"/>
+      <c r="E328" s="11"/>
+      <c r="F328" s="11"/>
+      <c r="G328" s="11"/>
+      <c r="H328" s="11"/>
+      <c r="I328" s="11"/>
+      <c r="J328" s="11"/>
+      <c r="K328" s="11"/>
+      <c r="L328" s="5"/>
+    </row>
+    <row r="329" spans="2:12">
+      <c r="B329" s="4"/>
+      <c r="C329" s="11"/>
+      <c r="D329" s="11"/>
+      <c r="E329" s="11"/>
+      <c r="F329" s="11"/>
+      <c r="G329" s="11"/>
+      <c r="H329" s="11"/>
+      <c r="I329" s="11"/>
+      <c r="J329" s="11"/>
+      <c r="K329" s="11"/>
+      <c r="L329" s="5"/>
+    </row>
+    <row r="330" spans="2:12">
+      <c r="B330" s="4"/>
+      <c r="C330" s="11"/>
+      <c r="D330" s="11"/>
+      <c r="E330" s="11"/>
+      <c r="F330" s="11"/>
+      <c r="G330" s="11"/>
+      <c r="H330" s="11"/>
+      <c r="I330" s="11"/>
+      <c r="J330" s="11"/>
+      <c r="K330" s="11"/>
+      <c r="L330" s="5"/>
+    </row>
+    <row r="331" spans="2:12">
+      <c r="B331" s="4"/>
+      <c r="C331" s="11"/>
+      <c r="D331" s="11"/>
+      <c r="E331" s="11"/>
+      <c r="F331" s="11"/>
+      <c r="G331" s="11"/>
+      <c r="H331" s="11"/>
+      <c r="I331" s="11"/>
+      <c r="J331" s="11"/>
+      <c r="K331" s="11"/>
+      <c r="L331" s="5"/>
+    </row>
+    <row r="332" spans="2:12">
+      <c r="B332" s="4"/>
+      <c r="C332" s="11"/>
+      <c r="D332" s="11"/>
+      <c r="E332" s="11"/>
+      <c r="F332" s="11"/>
+      <c r="G332" s="11"/>
+      <c r="H332" s="11"/>
+      <c r="I332" s="11"/>
+      <c r="J332" s="11"/>
+      <c r="K332" s="11"/>
+      <c r="L332" s="5"/>
+    </row>
+    <row r="333" spans="2:12">
+      <c r="B333" s="4"/>
+      <c r="C333" s="11"/>
+      <c r="D333" s="11"/>
+      <c r="E333" s="11"/>
+      <c r="F333" s="11"/>
+      <c r="G333" s="11"/>
+      <c r="H333" s="11"/>
+      <c r="I333" s="11"/>
+      <c r="J333" s="11"/>
+      <c r="K333" s="11"/>
+      <c r="L333" s="5"/>
+    </row>
+    <row r="334" spans="2:12">
+      <c r="B334" s="4"/>
+      <c r="C334" s="11"/>
+      <c r="D334" s="11"/>
+      <c r="E334" s="11"/>
+      <c r="F334" s="11"/>
+      <c r="G334" s="11"/>
+      <c r="H334" s="11"/>
+      <c r="I334" s="11"/>
+      <c r="J334" s="11"/>
+      <c r="K334" s="11"/>
+      <c r="L334" s="5"/>
+    </row>
+    <row r="335" spans="2:12">
+      <c r="B335" s="4"/>
+      <c r="C335" s="11"/>
+      <c r="D335" s="11"/>
+      <c r="E335" s="11"/>
+      <c r="F335" s="11"/>
+      <c r="G335" s="11"/>
+      <c r="H335" s="11"/>
+      <c r="I335" s="11"/>
+      <c r="J335" s="11"/>
+      <c r="K335" s="11"/>
+      <c r="L335" s="5"/>
+    </row>
+    <row r="336" spans="2:12">
+      <c r="B336" s="4"/>
+      <c r="C336" s="11"/>
+      <c r="D336" s="11"/>
+      <c r="E336" s="11"/>
+      <c r="F336" s="11"/>
+      <c r="G336" s="11"/>
+      <c r="H336" s="11"/>
+      <c r="I336" s="11"/>
+      <c r="J336" s="11"/>
+      <c r="K336" s="11"/>
+      <c r="L336" s="5"/>
+    </row>
+    <row r="337" spans="2:14">
+      <c r="B337" s="4"/>
+      <c r="C337" s="11"/>
+      <c r="D337" s="11"/>
+      <c r="E337" s="11"/>
+      <c r="F337" s="11"/>
+      <c r="G337" s="11"/>
+      <c r="H337" s="11"/>
+      <c r="I337" s="11"/>
+      <c r="J337" s="11"/>
+      <c r="K337" s="11"/>
+      <c r="L337" s="5"/>
+    </row>
+    <row r="338" spans="2:14">
+      <c r="B338" s="4"/>
+      <c r="C338" s="11"/>
+      <c r="D338" s="11"/>
+      <c r="E338" s="11"/>
+      <c r="F338" s="11"/>
+      <c r="G338" s="11"/>
+      <c r="H338" s="11"/>
+      <c r="I338" s="11"/>
+      <c r="J338" s="11"/>
+      <c r="K338" s="11"/>
+      <c r="L338" s="5"/>
+    </row>
+    <row r="339" spans="2:14">
+      <c r="B339" s="4"/>
+      <c r="C339" s="11"/>
+      <c r="D339" s="11"/>
+      <c r="E339" s="11"/>
+      <c r="F339" s="11"/>
+      <c r="G339" s="11"/>
+      <c r="H339" s="11"/>
+      <c r="I339" s="11"/>
+      <c r="J339" s="11"/>
+      <c r="K339" s="11"/>
+      <c r="L339" s="5"/>
+    </row>
+    <row r="340" spans="2:14">
+      <c r="B340" s="4"/>
+      <c r="C340" s="11"/>
+      <c r="D340" s="11"/>
+      <c r="E340" s="11"/>
+      <c r="F340" s="11"/>
+      <c r="G340" s="11"/>
+      <c r="H340" s="11"/>
+      <c r="I340" s="11"/>
+      <c r="J340" s="11"/>
+      <c r="K340" s="11"/>
+      <c r="L340" s="5"/>
+    </row>
+    <row r="341" spans="2:14">
+      <c r="B341" s="4"/>
+      <c r="C341" s="11"/>
+      <c r="D341" s="11"/>
+      <c r="E341" s="11"/>
+      <c r="F341" s="11"/>
+      <c r="G341" s="11"/>
+      <c r="H341" s="11"/>
+      <c r="I341" s="11"/>
+      <c r="J341" s="11"/>
+      <c r="K341" s="11"/>
+      <c r="L341" s="5"/>
+    </row>
+    <row r="342" spans="2:14">
+      <c r="B342" s="4"/>
+      <c r="C342" s="11"/>
+      <c r="D342" s="11"/>
+      <c r="E342" s="11"/>
+      <c r="F342" s="11"/>
+      <c r="G342" s="11"/>
+      <c r="H342" s="11"/>
+      <c r="I342" s="11"/>
+      <c r="J342" s="11"/>
+      <c r="K342" s="11"/>
+      <c r="L342" s="5"/>
+    </row>
+    <row r="343" spans="2:14">
+      <c r="B343" s="4"/>
+      <c r="C343" s="11"/>
+      <c r="D343" s="11"/>
+      <c r="E343" s="11"/>
+      <c r="F343" s="11"/>
+      <c r="G343" s="11"/>
+      <c r="H343" s="11"/>
+      <c r="I343" s="11"/>
+      <c r="J343" s="11"/>
+      <c r="K343" s="11"/>
+      <c r="L343" s="5"/>
+    </row>
+    <row r="344" spans="2:14">
+      <c r="B344" s="4"/>
+      <c r="C344" s="11"/>
+      <c r="D344" s="11"/>
+      <c r="E344" s="11"/>
+      <c r="F344" s="11"/>
+      <c r="G344" s="11"/>
+      <c r="H344" s="11"/>
+      <c r="I344" s="11"/>
+      <c r="J344" s="11"/>
+      <c r="K344" s="11"/>
+      <c r="L344" s="5"/>
+    </row>
+    <row r="345" spans="2:14">
+      <c r="B345" s="4"/>
+      <c r="C345" s="11"/>
+      <c r="D345" s="11"/>
+      <c r="E345" s="11"/>
+      <c r="F345" s="11"/>
+      <c r="G345" s="11"/>
+      <c r="H345" s="11"/>
+      <c r="I345" s="11"/>
+      <c r="J345" s="11"/>
+      <c r="K345" s="11"/>
+      <c r="L345" s="5"/>
+    </row>
+    <row r="346" spans="2:14">
+      <c r="B346" s="4"/>
+      <c r="C346" s="11"/>
+      <c r="D346" s="11"/>
+      <c r="E346" s="11"/>
+      <c r="F346" s="11"/>
+      <c r="G346" s="11"/>
+      <c r="H346" s="11"/>
+      <c r="I346" s="11"/>
+      <c r="J346" s="11"/>
+      <c r="K346" s="11"/>
+      <c r="L346" s="5"/>
+    </row>
+    <row r="347" spans="2:14">
+      <c r="B347" s="4"/>
+      <c r="C347" s="11"/>
+      <c r="D347" s="11"/>
+      <c r="E347" s="11"/>
+      <c r="F347" s="11"/>
+      <c r="G347" s="11"/>
+      <c r="H347" s="11"/>
+      <c r="I347" s="11"/>
+      <c r="J347" s="11"/>
+      <c r="K347" s="11"/>
+      <c r="L347" s="5"/>
+    </row>
+    <row r="348" spans="2:14">
+      <c r="B348" s="4"/>
+      <c r="C348" s="11"/>
+      <c r="D348" s="11"/>
+      <c r="E348" s="11"/>
+      <c r="F348" s="11"/>
+      <c r="G348" s="11"/>
+      <c r="H348" s="11"/>
+      <c r="I348" s="11"/>
+      <c r="J348" s="11"/>
+      <c r="K348" s="11"/>
+      <c r="L348" s="5"/>
+    </row>
+    <row r="349" spans="2:14">
+      <c r="B349" s="7"/>
+      <c r="C349" s="8"/>
+      <c r="D349" s="8"/>
+      <c r="E349" s="8"/>
+      <c r="F349" s="8"/>
+      <c r="G349" s="8"/>
+      <c r="H349" s="8"/>
+      <c r="I349" s="8"/>
+      <c r="J349" s="8"/>
+      <c r="K349" s="8"/>
+      <c r="L349" s="9"/>
+    </row>
+    <row r="352" spans="2:14">
+      <c r="B352" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="C352" s="2"/>
+      <c r="D352" s="2"/>
+      <c r="E352" s="2"/>
+      <c r="F352" s="2"/>
+      <c r="G352" s="2"/>
+      <c r="H352" s="2"/>
+      <c r="I352" s="2"/>
+      <c r="J352" s="2"/>
+      <c r="K352" s="2"/>
+      <c r="L352" s="2"/>
+      <c r="M352" s="2"/>
+      <c r="N352" s="3"/>
+    </row>
+    <row r="353" spans="2:14">
+      <c r="B353" s="4"/>
+      <c r="C353" s="11"/>
+      <c r="D353" s="11"/>
+      <c r="E353" s="11"/>
+      <c r="F353" s="11"/>
+      <c r="G353" s="11"/>
+      <c r="H353" s="11"/>
+      <c r="I353" s="11"/>
+      <c r="J353" s="11"/>
+      <c r="K353" s="11"/>
+      <c r="L353" s="11"/>
+      <c r="M353" s="11"/>
+      <c r="N353" s="5"/>
+    </row>
+    <row r="354" spans="2:14">
+      <c r="B354" s="4"/>
+      <c r="C354" s="11"/>
+      <c r="D354" s="11"/>
+      <c r="E354" s="11"/>
+      <c r="F354" s="11"/>
+      <c r="G354" s="11"/>
+      <c r="H354" s="11"/>
+      <c r="I354" s="11"/>
+      <c r="J354" s="11"/>
+      <c r="K354" s="11"/>
+      <c r="L354" s="11"/>
+      <c r="M354" s="11"/>
+      <c r="N354" s="5"/>
+    </row>
+    <row r="355" spans="2:14">
+      <c r="B355" s="4"/>
+      <c r="C355" s="11"/>
+      <c r="D355" s="11"/>
+      <c r="E355" s="11"/>
+      <c r="F355" s="11"/>
+      <c r="G355" s="11"/>
+      <c r="H355" s="11"/>
+      <c r="I355" s="11"/>
+      <c r="J355" s="11"/>
+      <c r="K355" s="11"/>
+      <c r="L355" s="11"/>
+      <c r="M355" s="11"/>
+      <c r="N355" s="5"/>
+    </row>
+    <row r="356" spans="2:14">
+      <c r="B356" s="4"/>
+      <c r="C356" s="11"/>
+      <c r="D356" s="11"/>
+      <c r="E356" s="11"/>
+      <c r="F356" s="11"/>
+      <c r="G356" s="11"/>
+      <c r="H356" s="11"/>
+      <c r="I356" s="11"/>
+      <c r="J356" s="11"/>
+      <c r="K356" s="11"/>
+      <c r="L356" s="11"/>
+      <c r="M356" s="11"/>
+      <c r="N356" s="5"/>
+    </row>
+    <row r="357" spans="2:14">
+      <c r="B357" s="4"/>
+      <c r="C357" s="11"/>
+      <c r="D357" s="11"/>
+      <c r="E357" s="11"/>
+      <c r="F357" s="11"/>
+      <c r="G357" s="11"/>
+      <c r="H357" s="11"/>
+      <c r="I357" s="11"/>
+      <c r="J357" s="11"/>
+      <c r="K357" s="11"/>
+      <c r="L357" s="11"/>
+      <c r="M357" s="11"/>
+      <c r="N357" s="5"/>
+    </row>
+    <row r="358" spans="2:14">
+      <c r="B358" s="4"/>
+      <c r="C358" s="11"/>
+      <c r="D358" s="11"/>
+      <c r="E358" s="11"/>
+      <c r="F358" s="11"/>
+      <c r="G358" s="11"/>
+      <c r="H358" s="11"/>
+      <c r="I358" s="11"/>
+      <c r="J358" s="11"/>
+      <c r="K358" s="11"/>
+      <c r="L358" s="11"/>
+      <c r="M358" s="11"/>
+      <c r="N358" s="5"/>
+    </row>
+    <row r="359" spans="2:14">
+      <c r="B359" s="4"/>
+      <c r="C359" s="11"/>
+      <c r="D359" s="11"/>
+      <c r="E359" s="11"/>
+      <c r="F359" s="11"/>
+      <c r="G359" s="11"/>
+      <c r="H359" s="11"/>
+      <c r="I359" s="11"/>
+      <c r="J359" s="11"/>
+      <c r="K359" s="11"/>
+      <c r="L359" s="11"/>
+      <c r="M359" s="11"/>
+      <c r="N359" s="5"/>
+    </row>
+    <row r="360" spans="2:14">
+      <c r="B360" s="4"/>
+      <c r="C360" s="11"/>
+      <c r="D360" s="11"/>
+      <c r="E360" s="11"/>
+      <c r="F360" s="11"/>
+      <c r="G360" s="11"/>
+      <c r="H360" s="11"/>
+      <c r="I360" s="11"/>
+      <c r="J360" s="11"/>
+      <c r="K360" s="11"/>
+      <c r="L360" s="11"/>
+      <c r="M360" s="11"/>
+      <c r="N360" s="5"/>
+    </row>
+    <row r="361" spans="2:14">
+      <c r="B361" s="4"/>
+      <c r="C361" s="11"/>
+      <c r="D361" s="11"/>
+      <c r="E361" s="11"/>
+      <c r="F361" s="11"/>
+      <c r="G361" s="11"/>
+      <c r="H361" s="11"/>
+      <c r="I361" s="11"/>
+      <c r="J361" s="11"/>
+      <c r="K361" s="11"/>
+      <c r="L361" s="11"/>
+      <c r="M361" s="11"/>
+      <c r="N361" s="5"/>
+    </row>
+    <row r="362" spans="2:14">
+      <c r="B362" s="4"/>
+      <c r="C362" s="11"/>
+      <c r="D362" s="11"/>
+      <c r="E362" s="11"/>
+      <c r="F362" s="11"/>
+      <c r="G362" s="11"/>
+      <c r="H362" s="11"/>
+      <c r="I362" s="11"/>
+      <c r="J362" s="11"/>
+      <c r="K362" s="11"/>
+      <c r="L362" s="11"/>
+      <c r="M362" s="11"/>
+      <c r="N362" s="5"/>
+    </row>
+    <row r="363" spans="2:14">
+      <c r="B363" s="4"/>
+      <c r="C363" s="11"/>
+      <c r="D363" s="11"/>
+      <c r="E363" s="11"/>
+      <c r="F363" s="11"/>
+      <c r="G363" s="11"/>
+      <c r="H363" s="11"/>
+      <c r="I363" s="11"/>
+      <c r="J363" s="11"/>
+      <c r="K363" s="11"/>
+      <c r="L363" s="11"/>
+      <c r="M363" s="11"/>
+      <c r="N363" s="5"/>
+    </row>
+    <row r="364" spans="2:14">
+      <c r="B364" s="4"/>
+      <c r="C364" s="11"/>
+      <c r="D364" s="11"/>
+      <c r="E364" s="11"/>
+      <c r="F364" s="11"/>
+      <c r="G364" s="11"/>
+      <c r="H364" s="11"/>
+      <c r="I364" s="11"/>
+      <c r="J364" s="11"/>
+      <c r="K364" s="11"/>
+      <c r="L364" s="11"/>
+      <c r="M364" s="11"/>
+      <c r="N364" s="5"/>
+    </row>
+    <row r="365" spans="2:14">
+      <c r="B365" s="4"/>
+      <c r="C365" s="11"/>
+      <c r="D365" s="11"/>
+      <c r="E365" s="11"/>
+      <c r="F365" s="11"/>
+      <c r="G365" s="11"/>
+      <c r="H365" s="11"/>
+      <c r="I365" s="11"/>
+      <c r="J365" s="11"/>
+      <c r="K365" s="11"/>
+      <c r="L365" s="11"/>
+      <c r="M365" s="11"/>
+      <c r="N365" s="5"/>
+    </row>
+    <row r="366" spans="2:14">
+      <c r="B366" s="4"/>
+      <c r="C366" s="11"/>
+      <c r="D366" s="11"/>
+      <c r="E366" s="11"/>
+      <c r="F366" s="11"/>
+      <c r="G366" s="11"/>
+      <c r="H366" s="11"/>
+      <c r="I366" s="11"/>
+      <c r="J366" s="11"/>
+      <c r="K366" s="11"/>
+      <c r="L366" s="11"/>
+      <c r="M366" s="11"/>
+      <c r="N366" s="5"/>
+    </row>
+    <row r="367" spans="2:14">
+      <c r="B367" s="4"/>
+      <c r="C367" s="11"/>
+      <c r="D367" s="11"/>
+      <c r="E367" s="11"/>
+      <c r="F367" s="11"/>
+      <c r="G367" s="11"/>
+      <c r="H367" s="11"/>
+      <c r="I367" s="11"/>
+      <c r="J367" s="11"/>
+      <c r="K367" s="11"/>
+      <c r="L367" s="11"/>
+      <c r="M367" s="11"/>
+      <c r="N367" s="5"/>
+    </row>
+    <row r="368" spans="2:14">
+      <c r="B368" s="4"/>
+      <c r="C368" s="11"/>
+      <c r="D368" s="11"/>
+      <c r="E368" s="11"/>
+      <c r="F368" s="11"/>
+      <c r="G368" s="11"/>
+      <c r="H368" s="11"/>
+      <c r="I368" s="11"/>
+      <c r="J368" s="11"/>
+      <c r="K368" s="11"/>
+      <c r="L368" s="11"/>
+      <c r="M368" s="11"/>
+      <c r="N368" s="5"/>
+    </row>
+    <row r="369" spans="2:14">
+      <c r="B369" s="4"/>
+      <c r="C369" s="11"/>
+      <c r="D369" s="11"/>
+      <c r="E369" s="11"/>
+      <c r="F369" s="11"/>
+      <c r="G369" s="11"/>
+      <c r="H369" s="11"/>
+      <c r="I369" s="11"/>
+      <c r="J369" s="11"/>
+      <c r="K369" s="11"/>
+      <c r="L369" s="11"/>
+      <c r="M369" s="11"/>
+      <c r="N369" s="5"/>
+    </row>
+    <row r="370" spans="2:14">
+      <c r="B370" s="4"/>
+      <c r="C370" s="11"/>
+      <c r="D370" s="11"/>
+      <c r="E370" s="11"/>
+      <c r="F370" s="11"/>
+      <c r="G370" s="11"/>
+      <c r="H370" s="11"/>
+      <c r="I370" s="11"/>
+      <c r="J370" s="11"/>
+      <c r="K370" s="11"/>
+      <c r="L370" s="11"/>
+      <c r="M370" s="11"/>
+      <c r="N370" s="5"/>
+    </row>
+    <row r="371" spans="2:14">
+      <c r="B371" s="4"/>
+      <c r="C371" s="11"/>
+      <c r="D371" s="11"/>
+      <c r="E371" s="11"/>
+      <c r="F371" s="11"/>
+      <c r="G371" s="11"/>
+      <c r="H371" s="11"/>
+      <c r="I371" s="11"/>
+      <c r="J371" s="11"/>
+      <c r="K371" s="11"/>
+      <c r="L371" s="11"/>
+      <c r="M371" s="11"/>
+      <c r="N371" s="5"/>
+    </row>
+    <row r="372" spans="2:14">
+      <c r="B372" s="4"/>
+      <c r="C372" s="11"/>
+      <c r="D372" s="11"/>
+      <c r="E372" s="11"/>
+      <c r="F372" s="11"/>
+      <c r="G372" s="11"/>
+      <c r="H372" s="11"/>
+      <c r="I372" s="11"/>
+      <c r="J372" s="11"/>
+      <c r="K372" s="11"/>
+      <c r="L372" s="11"/>
+      <c r="M372" s="11"/>
+      <c r="N372" s="5"/>
+    </row>
+    <row r="373" spans="2:14">
+      <c r="B373" s="4"/>
+      <c r="C373" s="11"/>
+      <c r="D373" s="11"/>
+      <c r="E373" s="11"/>
+      <c r="F373" s="11"/>
+      <c r="G373" s="11"/>
+      <c r="H373" s="11"/>
+      <c r="I373" s="11"/>
+      <c r="J373" s="11"/>
+      <c r="K373" s="11"/>
+      <c r="L373" s="11"/>
+      <c r="M373" s="11"/>
+      <c r="N373" s="5"/>
+    </row>
+    <row r="374" spans="2:14">
+      <c r="B374" s="4"/>
+      <c r="C374" s="11"/>
+      <c r="D374" s="11"/>
+      <c r="E374" s="11"/>
+      <c r="F374" s="11"/>
+      <c r="G374" s="11"/>
+      <c r="H374" s="11"/>
+      <c r="I374" s="11"/>
+      <c r="J374" s="11"/>
+      <c r="K374" s="11"/>
+      <c r="L374" s="11"/>
+      <c r="M374" s="11"/>
+      <c r="N374" s="5"/>
+    </row>
+    <row r="375" spans="2:14">
+      <c r="B375" s="4"/>
+      <c r="C375" s="11"/>
+      <c r="D375" s="11"/>
+      <c r="E375" s="11"/>
+      <c r="F375" s="11"/>
+      <c r="G375" s="11"/>
+      <c r="H375" s="11"/>
+      <c r="I375" s="11"/>
+      <c r="J375" s="11"/>
+      <c r="K375" s="11"/>
+      <c r="L375" s="11"/>
+      <c r="M375" s="11"/>
+      <c r="N375" s="5"/>
+    </row>
+    <row r="376" spans="2:14">
+      <c r="B376" s="4"/>
+      <c r="C376" s="11"/>
+      <c r="D376" s="11"/>
+      <c r="E376" s="11"/>
+      <c r="F376" s="11"/>
+      <c r="G376" s="11"/>
+      <c r="H376" s="11"/>
+      <c r="I376" s="11"/>
+      <c r="J376" s="11"/>
+      <c r="K376" s="11"/>
+      <c r="L376" s="11"/>
+      <c r="M376" s="11"/>
+      <c r="N376" s="5"/>
+    </row>
+    <row r="377" spans="2:14">
+      <c r="B377" s="4"/>
+      <c r="C377" s="11"/>
+      <c r="D377" s="11"/>
+      <c r="E377" s="11"/>
+      <c r="F377" s="11"/>
+      <c r="G377" s="11"/>
+      <c r="H377" s="11"/>
+      <c r="I377" s="11"/>
+      <c r="J377" s="11"/>
+      <c r="K377" s="11"/>
+      <c r="L377" s="11"/>
+      <c r="M377" s="11"/>
+      <c r="N377" s="5"/>
+    </row>
+    <row r="378" spans="2:14">
+      <c r="B378" s="4"/>
+      <c r="C378" s="11"/>
+      <c r="D378" s="11"/>
+      <c r="E378" s="11"/>
+      <c r="F378" s="11"/>
+      <c r="G378" s="11"/>
+      <c r="H378" s="11"/>
+      <c r="I378" s="11"/>
+      <c r="J378" s="11"/>
+      <c r="K378" s="11"/>
+      <c r="L378" s="11"/>
+      <c r="M378" s="11"/>
+      <c r="N378" s="5"/>
+    </row>
+    <row r="379" spans="2:14">
+      <c r="B379" s="4"/>
+      <c r="C379" s="11"/>
+      <c r="D379" s="11"/>
+      <c r="E379" s="11"/>
+      <c r="F379" s="11"/>
+      <c r="G379" s="11"/>
+      <c r="H379" s="11"/>
+      <c r="I379" s="11"/>
+      <c r="J379" s="11"/>
+      <c r="K379" s="11"/>
+      <c r="L379" s="11"/>
+      <c r="M379" s="11"/>
+      <c r="N379" s="5"/>
+    </row>
+    <row r="380" spans="2:14">
+      <c r="B380" s="4"/>
+      <c r="C380" s="11"/>
+      <c r="D380" s="11"/>
+      <c r="E380" s="11"/>
+      <c r="F380" s="11"/>
+      <c r="G380" s="11"/>
+      <c r="H380" s="11"/>
+      <c r="I380" s="11"/>
+      <c r="J380" s="11"/>
+      <c r="K380" s="11"/>
+      <c r="L380" s="11"/>
+      <c r="M380" s="11"/>
+      <c r="N380" s="5"/>
+    </row>
+    <row r="381" spans="2:14">
+      <c r="B381" s="4"/>
+      <c r="C381" s="11"/>
+      <c r="D381" s="11"/>
+      <c r="E381" s="11"/>
+      <c r="F381" s="11"/>
+      <c r="G381" s="11"/>
+      <c r="H381" s="11"/>
+      <c r="I381" s="11"/>
+      <c r="J381" s="11"/>
+      <c r="K381" s="11"/>
+      <c r="L381" s="11"/>
+      <c r="M381" s="11"/>
+      <c r="N381" s="5"/>
+    </row>
+    <row r="382" spans="2:14">
+      <c r="B382" s="4"/>
+      <c r="C382" s="11"/>
+      <c r="D382" s="11"/>
+      <c r="E382" s="11"/>
+      <c r="F382" s="11"/>
+      <c r="G382" s="11"/>
+      <c r="H382" s="11"/>
+      <c r="I382" s="11"/>
+      <c r="J382" s="11"/>
+      <c r="K382" s="11"/>
+      <c r="L382" s="11"/>
+      <c r="M382" s="11"/>
+      <c r="N382" s="5"/>
+    </row>
+    <row r="383" spans="2:14">
+      <c r="B383" s="4"/>
+      <c r="C383" s="11"/>
+      <c r="D383" s="11"/>
+      <c r="E383" s="11"/>
+      <c r="F383" s="11"/>
+      <c r="G383" s="11"/>
+      <c r="H383" s="11"/>
+      <c r="I383" s="11"/>
+      <c r="J383" s="11"/>
+      <c r="K383" s="11"/>
+      <c r="L383" s="11"/>
+      <c r="M383" s="11"/>
+      <c r="N383" s="5"/>
+    </row>
+    <row r="384" spans="2:14">
+      <c r="B384" s="7"/>
+      <c r="C384" s="8"/>
+      <c r="D384" s="8"/>
+      <c r="E384" s="8"/>
+      <c r="F384" s="8"/>
+      <c r="G384" s="8"/>
+      <c r="H384" s="8"/>
+      <c r="I384" s="8"/>
+      <c r="J384" s="8"/>
+      <c r="K384" s="8"/>
+      <c r="L384" s="8"/>
+      <c r="M384" s="8"/>
+      <c r="N384" s="9"/>
+    </row>
+    <row r="387" spans="2:14">
+      <c r="B387" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="C387" s="2"/>
+      <c r="D387" s="2"/>
+      <c r="E387" s="2"/>
+      <c r="F387" s="2"/>
+      <c r="G387" s="2"/>
+      <c r="H387" s="2"/>
+      <c r="I387" s="2"/>
+      <c r="J387" s="2"/>
+      <c r="K387" s="2"/>
+      <c r="L387" s="2"/>
+      <c r="M387" s="2"/>
+      <c r="N387" s="3"/>
+    </row>
+    <row r="388" spans="2:14">
+      <c r="B388" s="4"/>
+      <c r="C388" s="11"/>
+      <c r="D388" s="11"/>
+      <c r="E388" s="11"/>
+      <c r="F388" s="11"/>
+      <c r="G388" s="11"/>
+      <c r="H388" s="11"/>
+      <c r="I388" s="11"/>
+      <c r="J388" s="11"/>
+      <c r="K388" s="11"/>
+      <c r="L388" s="11"/>
+      <c r="M388" s="11"/>
+      <c r="N388" s="5"/>
+    </row>
+    <row r="389" spans="2:14">
+      <c r="B389" s="4"/>
+      <c r="C389" s="11"/>
+      <c r="D389" s="11"/>
+      <c r="E389" s="11"/>
+      <c r="F389" s="11"/>
+      <c r="G389" s="11"/>
+      <c r="H389" s="11"/>
+      <c r="I389" s="11"/>
+      <c r="J389" s="11"/>
+      <c r="K389" s="11"/>
+      <c r="L389" s="11"/>
+      <c r="M389" s="11"/>
+      <c r="N389" s="5"/>
+    </row>
+    <row r="390" spans="2:14">
+      <c r="B390" s="4"/>
+      <c r="C390" s="11"/>
+      <c r="D390" s="11"/>
+      <c r="E390" s="11"/>
+      <c r="F390" s="11"/>
+      <c r="G390" s="11"/>
+      <c r="H390" s="11"/>
+      <c r="I390" s="11"/>
+      <c r="J390" s="11"/>
+      <c r="K390" s="11"/>
+      <c r="L390" s="11"/>
+      <c r="M390" s="11"/>
+      <c r="N390" s="5"/>
+    </row>
+    <row r="391" spans="2:14">
+      <c r="B391" s="4"/>
+      <c r="C391" s="11"/>
+      <c r="D391" s="11"/>
+      <c r="E391" s="11"/>
+      <c r="F391" s="11"/>
+      <c r="G391" s="11"/>
+      <c r="H391" s="11"/>
+      <c r="I391" s="11"/>
+      <c r="J391" s="11"/>
+      <c r="K391" s="11"/>
+      <c r="L391" s="11"/>
+      <c r="M391" s="11"/>
+      <c r="N391" s="5"/>
+    </row>
+    <row r="392" spans="2:14">
+      <c r="B392" s="4"/>
+      <c r="C392" s="11"/>
+      <c r="D392" s="11"/>
+      <c r="E392" s="11"/>
+      <c r="F392" s="11"/>
+      <c r="G392" s="11"/>
+      <c r="H392" s="11"/>
+      <c r="I392" s="11"/>
+      <c r="J392" s="11"/>
+      <c r="K392" s="11"/>
+      <c r="L392" s="11"/>
+      <c r="M392" s="11"/>
+      <c r="N392" s="5"/>
+    </row>
+    <row r="393" spans="2:14">
+      <c r="B393" s="4"/>
+      <c r="C393" s="11"/>
+      <c r="D393" s="11"/>
+      <c r="E393" s="11"/>
+      <c r="F393" s="11"/>
+      <c r="G393" s="11"/>
+      <c r="H393" s="11"/>
+      <c r="I393" s="11"/>
+      <c r="J393" s="11"/>
+      <c r="K393" s="11"/>
+      <c r="L393" s="11"/>
+      <c r="M393" s="11"/>
+      <c r="N393" s="5"/>
+    </row>
+    <row r="394" spans="2:14">
+      <c r="B394" s="4"/>
+      <c r="C394" s="11"/>
+      <c r="D394" s="11"/>
+      <c r="E394" s="11"/>
+      <c r="F394" s="11"/>
+      <c r="G394" s="11"/>
+      <c r="H394" s="11"/>
+      <c r="I394" s="11"/>
+      <c r="J394" s="11"/>
+      <c r="K394" s="11"/>
+      <c r="L394" s="11"/>
+      <c r="M394" s="11"/>
+      <c r="N394" s="5"/>
+    </row>
+    <row r="395" spans="2:14">
+      <c r="B395" s="4"/>
+      <c r="C395" s="11"/>
+      <c r="D395" s="11"/>
+      <c r="E395" s="11"/>
+      <c r="F395" s="11"/>
+      <c r="G395" s="11"/>
+      <c r="H395" s="11"/>
+      <c r="I395" s="11"/>
+      <c r="J395" s="11"/>
+      <c r="K395" s="11"/>
+      <c r="L395" s="11"/>
+      <c r="M395" s="11"/>
+      <c r="N395" s="5"/>
+    </row>
+    <row r="396" spans="2:14">
+      <c r="B396" s="4"/>
+      <c r="C396" s="11"/>
+      <c r="D396" s="11"/>
+      <c r="E396" s="11"/>
+      <c r="F396" s="11"/>
+      <c r="G396" s="11"/>
+      <c r="H396" s="11"/>
+      <c r="I396" s="11"/>
+      <c r="J396" s="11"/>
+      <c r="K396" s="11"/>
+      <c r="L396" s="11"/>
+      <c r="M396" s="11"/>
+      <c r="N396" s="5"/>
+    </row>
+    <row r="397" spans="2:14">
+      <c r="B397" s="4"/>
+      <c r="C397" s="11"/>
+      <c r="D397" s="11"/>
+      <c r="E397" s="11"/>
+      <c r="F397" s="11"/>
+      <c r="G397" s="11"/>
+      <c r="H397" s="11"/>
+      <c r="I397" s="11"/>
+      <c r="J397" s="11"/>
+      <c r="K397" s="11"/>
+      <c r="L397" s="11"/>
+      <c r="M397" s="11"/>
+      <c r="N397" s="5"/>
+    </row>
+    <row r="398" spans="2:14">
+      <c r="B398" s="4"/>
+      <c r="C398" s="11"/>
+      <c r="D398" s="11"/>
+      <c r="E398" s="11"/>
+      <c r="F398" s="11"/>
+      <c r="G398" s="11"/>
+      <c r="H398" s="11"/>
+      <c r="I398" s="11"/>
+      <c r="J398" s="11"/>
+      <c r="K398" s="11"/>
+      <c r="L398" s="11"/>
+      <c r="M398" s="11"/>
+      <c r="N398" s="5"/>
+    </row>
+    <row r="399" spans="2:14">
+      <c r="B399" s="4"/>
+      <c r="C399" s="11"/>
+      <c r="D399" s="11"/>
+      <c r="E399" s="11"/>
+      <c r="F399" s="11"/>
+      <c r="G399" s="11"/>
+      <c r="H399" s="11"/>
+      <c r="I399" s="11"/>
+      <c r="J399" s="11"/>
+      <c r="K399" s="11"/>
+      <c r="L399" s="11"/>
+      <c r="M399" s="11"/>
+      <c r="N399" s="5"/>
+    </row>
+    <row r="400" spans="2:14">
+      <c r="B400" s="4"/>
+      <c r="C400" s="11"/>
+      <c r="D400" s="11"/>
+      <c r="E400" s="11"/>
+      <c r="F400" s="11"/>
+      <c r="G400" s="11"/>
+      <c r="H400" s="11"/>
+      <c r="I400" s="11"/>
+      <c r="J400" s="11"/>
+      <c r="K400" s="11"/>
+      <c r="L400" s="11"/>
+      <c r="M400" s="11"/>
+      <c r="N400" s="5"/>
+    </row>
+    <row r="401" spans="2:14">
+      <c r="B401" s="4"/>
+      <c r="C401" s="11"/>
+      <c r="D401" s="11"/>
+      <c r="E401" s="11"/>
+      <c r="F401" s="11"/>
+      <c r="G401" s="11"/>
+      <c r="H401" s="11"/>
+      <c r="I401" s="11"/>
+      <c r="J401" s="11"/>
+      <c r="K401" s="11"/>
+      <c r="L401" s="11"/>
+      <c r="M401" s="11"/>
+      <c r="N401" s="5"/>
+    </row>
+    <row r="402" spans="2:14">
+      <c r="B402" s="4"/>
+      <c r="C402" s="11"/>
+      <c r="D402" s="11"/>
+      <c r="E402" s="11"/>
+      <c r="F402" s="11"/>
+      <c r="G402" s="11"/>
+      <c r="H402" s="11"/>
+      <c r="I402" s="11"/>
+      <c r="J402" s="11"/>
+      <c r="K402" s="11"/>
+      <c r="L402" s="11"/>
+      <c r="M402" s="11"/>
+      <c r="N402" s="5"/>
+    </row>
+    <row r="403" spans="2:14">
+      <c r="B403" s="4"/>
+      <c r="C403" s="11"/>
+      <c r="D403" s="11"/>
+      <c r="E403" s="11"/>
+      <c r="F403" s="11"/>
+      <c r="G403" s="11"/>
+      <c r="H403" s="11"/>
+      <c r="I403" s="11"/>
+      <c r="J403" s="11"/>
+      <c r="K403" s="11"/>
+      <c r="L403" s="11"/>
+      <c r="M403" s="11"/>
+      <c r="N403" s="5"/>
+    </row>
+    <row r="404" spans="2:14">
+      <c r="B404" s="4"/>
+      <c r="C404" s="11"/>
+      <c r="D404" s="11"/>
+      <c r="E404" s="11"/>
+      <c r="F404" s="11"/>
+      <c r="G404" s="11"/>
+      <c r="H404" s="11"/>
+      <c r="I404" s="11"/>
+      <c r="J404" s="11"/>
+      <c r="K404" s="11"/>
+      <c r="L404" s="11"/>
+      <c r="M404" s="11"/>
+      <c r="N404" s="5"/>
+    </row>
+    <row r="405" spans="2:14">
+      <c r="B405" s="4"/>
+      <c r="C405" s="11"/>
+      <c r="D405" s="11"/>
+      <c r="E405" s="11"/>
+      <c r="F405" s="11"/>
+      <c r="G405" s="11"/>
+      <c r="H405" s="11"/>
+      <c r="I405" s="11"/>
+      <c r="J405" s="11"/>
+      <c r="K405" s="11"/>
+      <c r="L405" s="11"/>
+      <c r="M405" s="11"/>
+      <c r="N405" s="5"/>
+    </row>
+    <row r="406" spans="2:14">
+      <c r="B406" s="4"/>
+      <c r="C406" s="11"/>
+      <c r="D406" s="11"/>
+      <c r="E406" s="11"/>
+      <c r="F406" s="11"/>
+      <c r="G406" s="11"/>
+      <c r="H406" s="11"/>
+      <c r="I406" s="11"/>
+      <c r="J406" s="11"/>
+      <c r="K406" s="11"/>
+      <c r="L406" s="11"/>
+      <c r="M406" s="11"/>
+      <c r="N406" s="5"/>
+    </row>
+    <row r="407" spans="2:14">
+      <c r="B407" s="4"/>
+      <c r="C407" s="11"/>
+      <c r="D407" s="11"/>
+      <c r="E407" s="11"/>
+      <c r="F407" s="11"/>
+      <c r="G407" s="11"/>
+      <c r="H407" s="11"/>
+      <c r="I407" s="11"/>
+      <c r="J407" s="11"/>
+      <c r="K407" s="11"/>
+      <c r="L407" s="11"/>
+      <c r="M407" s="11"/>
+      <c r="N407" s="5"/>
+    </row>
+    <row r="408" spans="2:14">
+      <c r="B408" s="4"/>
+      <c r="C408" s="11"/>
+      <c r="D408" s="11"/>
+      <c r="E408" s="11"/>
+      <c r="F408" s="11"/>
+      <c r="G408" s="11"/>
+      <c r="H408" s="11"/>
+      <c r="I408" s="11"/>
+      <c r="J408" s="11"/>
+      <c r="K408" s="11"/>
+      <c r="L408" s="11"/>
+      <c r="M408" s="11"/>
+      <c r="N408" s="5"/>
+    </row>
+    <row r="409" spans="2:14">
+      <c r="B409" s="4"/>
+      <c r="C409" s="11"/>
+      <c r="D409" s="11"/>
+      <c r="E409" s="11"/>
+      <c r="F409" s="11"/>
+      <c r="G409" s="11"/>
+      <c r="H409" s="11"/>
+      <c r="I409" s="11"/>
+      <c r="J409" s="11"/>
+      <c r="K409" s="11"/>
+      <c r="L409" s="11"/>
+      <c r="M409" s="11"/>
+      <c r="N409" s="5"/>
+    </row>
+    <row r="410" spans="2:14">
+      <c r="B410" s="4"/>
+      <c r="C410" s="11"/>
+      <c r="D410" s="11"/>
+      <c r="E410" s="11"/>
+      <c r="F410" s="11"/>
+      <c r="G410" s="11"/>
+      <c r="H410" s="11"/>
+      <c r="I410" s="11"/>
+      <c r="J410" s="11"/>
+      <c r="K410" s="11"/>
+      <c r="L410" s="11"/>
+      <c r="M410" s="11"/>
+      <c r="N410" s="5"/>
+    </row>
+    <row r="411" spans="2:14">
+      <c r="B411" s="4"/>
+      <c r="C411" s="11"/>
+      <c r="D411" s="11"/>
+      <c r="E411" s="11"/>
+      <c r="F411" s="11"/>
+      <c r="G411" s="11"/>
+      <c r="H411" s="11"/>
+      <c r="I411" s="11"/>
+      <c r="J411" s="11"/>
+      <c r="K411" s="11"/>
+      <c r="L411" s="11"/>
+      <c r="M411" s="11"/>
+      <c r="N411" s="5"/>
+    </row>
+    <row r="412" spans="2:14">
+      <c r="B412" s="4"/>
+      <c r="C412" s="11"/>
+      <c r="D412" s="11"/>
+      <c r="E412" s="11"/>
+      <c r="F412" s="11"/>
+      <c r="G412" s="11"/>
+      <c r="H412" s="11"/>
+      <c r="I412" s="11"/>
+      <c r="J412" s="11"/>
+      <c r="K412" s="11"/>
+      <c r="L412" s="11"/>
+      <c r="M412" s="11"/>
+      <c r="N412" s="5"/>
+    </row>
+    <row r="413" spans="2:14">
+      <c r="B413" s="4"/>
+      <c r="C413" s="11"/>
+      <c r="D413" s="11"/>
+      <c r="E413" s="11"/>
+      <c r="F413" s="11"/>
+      <c r="G413" s="11"/>
+      <c r="H413" s="11"/>
+      <c r="I413" s="11"/>
+      <c r="J413" s="11"/>
+      <c r="K413" s="11"/>
+      <c r="L413" s="11"/>
+      <c r="M413" s="11"/>
+      <c r="N413" s="5"/>
+    </row>
+    <row r="414" spans="2:14">
+      <c r="B414" s="4"/>
+      <c r="C414" s="11"/>
+      <c r="D414" s="11"/>
+      <c r="E414" s="11"/>
+      <c r="F414" s="11"/>
+      <c r="G414" s="11"/>
+      <c r="H414" s="11"/>
+      <c r="I414" s="11"/>
+      <c r="J414" s="11"/>
+      <c r="K414" s="11"/>
+      <c r="L414" s="11"/>
+      <c r="M414" s="11"/>
+      <c r="N414" s="5"/>
+    </row>
+    <row r="415" spans="2:14">
+      <c r="B415" s="4"/>
+      <c r="C415" s="11"/>
+      <c r="D415" s="11"/>
+      <c r="E415" s="11"/>
+      <c r="F415" s="11"/>
+      <c r="G415" s="11"/>
+      <c r="H415" s="11"/>
+      <c r="I415" s="11"/>
+      <c r="J415" s="11"/>
+      <c r="K415" s="11"/>
+      <c r="L415" s="11"/>
+      <c r="M415" s="11"/>
+      <c r="N415" s="5"/>
+    </row>
+    <row r="416" spans="2:14">
+      <c r="B416" s="4"/>
+      <c r="C416" s="11"/>
+      <c r="D416" s="11"/>
+      <c r="E416" s="11"/>
+      <c r="F416" s="11"/>
+      <c r="G416" s="11"/>
+      <c r="H416" s="11"/>
+      <c r="I416" s="11"/>
+      <c r="J416" s="11"/>
+      <c r="K416" s="11"/>
+      <c r="L416" s="11"/>
+      <c r="M416" s="11"/>
+      <c r="N416" s="5"/>
+    </row>
+    <row r="417" spans="2:14">
+      <c r="B417" s="4"/>
+      <c r="C417" s="11"/>
+      <c r="D417" s="11"/>
+      <c r="E417" s="11"/>
+      <c r="F417" s="11"/>
+      <c r="G417" s="11"/>
+      <c r="H417" s="11"/>
+      <c r="I417" s="11"/>
+      <c r="J417" s="11"/>
+      <c r="K417" s="11"/>
+      <c r="L417" s="11"/>
+      <c r="M417" s="11"/>
+      <c r="N417" s="5"/>
+    </row>
+    <row r="418" spans="2:14">
+      <c r="B418" s="4"/>
+      <c r="C418" s="11"/>
+      <c r="D418" s="11"/>
+      <c r="E418" s="11"/>
+      <c r="F418" s="11"/>
+      <c r="G418" s="11"/>
+      <c r="H418" s="11"/>
+      <c r="I418" s="11"/>
+      <c r="J418" s="11"/>
+      <c r="K418" s="11"/>
+      <c r="L418" s="11"/>
+      <c r="M418" s="11"/>
+      <c r="N418" s="5"/>
+    </row>
+    <row r="419" spans="2:14">
+      <c r="B419" s="4"/>
+      <c r="C419" s="11"/>
+      <c r="D419" s="11"/>
+      <c r="E419" s="11"/>
+      <c r="F419" s="11"/>
+      <c r="G419" s="11"/>
+      <c r="H419" s="11"/>
+      <c r="I419" s="11"/>
+      <c r="J419" s="11"/>
+      <c r="K419" s="11"/>
+      <c r="L419" s="11"/>
+      <c r="M419" s="11"/>
+      <c r="N419" s="5"/>
+    </row>
+    <row r="420" spans="2:14">
+      <c r="B420" s="7"/>
+      <c r="C420" s="8"/>
+      <c r="D420" s="8"/>
+      <c r="E420" s="8"/>
+      <c r="F420" s="8"/>
+      <c r="G420" s="8"/>
+      <c r="H420" s="8"/>
+      <c r="I420" s="8"/>
+      <c r="J420" s="8"/>
+      <c r="K420" s="8"/>
+      <c r="L420" s="8"/>
+      <c r="M420" s="8"/>
+      <c r="N420" s="9"/>
+    </row>
+    <row r="423" spans="2:14">
+      <c r="B423" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="C423" s="2"/>
+      <c r="D423" s="2"/>
+      <c r="E423" s="2"/>
+      <c r="F423" s="2"/>
+      <c r="G423" s="2"/>
+      <c r="H423" s="2"/>
+      <c r="I423" s="2"/>
+      <c r="J423" s="2"/>
+      <c r="K423" s="2"/>
+      <c r="L423" s="2"/>
+      <c r="M423" s="2"/>
+      <c r="N423" s="3"/>
+    </row>
+    <row r="424" spans="2:14">
+      <c r="B424" s="4"/>
+      <c r="C424" s="11"/>
+      <c r="D424" s="11"/>
+      <c r="E424" s="11"/>
+      <c r="F424" s="11"/>
+      <c r="G424" s="11"/>
+      <c r="H424" s="11"/>
+      <c r="I424" s="11"/>
+      <c r="J424" s="11"/>
+      <c r="K424" s="11"/>
+      <c r="L424" s="11"/>
+      <c r="M424" s="11"/>
+      <c r="N424" s="5"/>
+    </row>
+    <row r="425" spans="2:14">
+      <c r="B425" s="4"/>
+      <c r="C425" s="11"/>
+      <c r="D425" s="11"/>
+      <c r="E425" s="11"/>
+      <c r="F425" s="11"/>
+      <c r="G425" s="11"/>
+      <c r="H425" s="11"/>
+      <c r="I425" s="11"/>
+      <c r="J425" s="11"/>
+      <c r="K425" s="11"/>
+      <c r="L425" s="11"/>
+      <c r="M425" s="11"/>
+      <c r="N425" s="5"/>
+    </row>
+    <row r="426" spans="2:14">
+      <c r="B426" s="4"/>
+      <c r="C426" s="11"/>
+      <c r="D426" s="11"/>
+      <c r="E426" s="11"/>
+      <c r="F426" s="11"/>
+      <c r="G426" s="11"/>
+      <c r="H426" s="11"/>
+      <c r="I426" s="11"/>
+      <c r="J426" s="11"/>
+      <c r="K426" s="11"/>
+      <c r="L426" s="11"/>
+      <c r="M426" s="11"/>
+      <c r="N426" s="5"/>
+    </row>
+    <row r="427" spans="2:14">
+      <c r="B427" s="4"/>
+      <c r="C427" s="11"/>
+      <c r="D427" s="11"/>
+      <c r="E427" s="11"/>
+      <c r="F427" s="11"/>
+      <c r="G427" s="11"/>
+      <c r="H427" s="11"/>
+      <c r="I427" s="11"/>
+      <c r="J427" s="11"/>
+      <c r="K427" s="11"/>
+      <c r="L427" s="11"/>
+      <c r="M427" s="11"/>
+      <c r="N427" s="5"/>
+    </row>
+    <row r="428" spans="2:14">
+      <c r="B428" s="4"/>
+      <c r="C428" s="11"/>
+      <c r="D428" s="11"/>
+      <c r="E428" s="11"/>
+      <c r="F428" s="11"/>
+      <c r="G428" s="11"/>
+      <c r="H428" s="11"/>
+      <c r="I428" s="11"/>
+      <c r="J428" s="11"/>
+      <c r="K428" s="11"/>
+      <c r="L428" s="11"/>
+      <c r="M428" s="11"/>
+      <c r="N428" s="5"/>
+    </row>
+    <row r="429" spans="2:14">
+      <c r="B429" s="4"/>
+      <c r="C429" s="11"/>
+      <c r="D429" s="11"/>
+      <c r="E429" s="11"/>
+      <c r="F429" s="11"/>
+      <c r="G429" s="11"/>
+      <c r="H429" s="11"/>
+      <c r="I429" s="11"/>
+      <c r="J429" s="11"/>
+      <c r="K429" s="11"/>
+      <c r="L429" s="11"/>
+      <c r="M429" s="11"/>
+      <c r="N429" s="5"/>
+    </row>
+    <row r="430" spans="2:14">
+      <c r="B430" s="4"/>
+      <c r="C430" s="11"/>
+      <c r="D430" s="11"/>
+      <c r="E430" s="11"/>
+      <c r="F430" s="11"/>
+      <c r="G430" s="11"/>
+      <c r="H430" s="11"/>
+      <c r="I430" s="11"/>
+      <c r="J430" s="11"/>
+      <c r="K430" s="11"/>
+      <c r="L430" s="11"/>
+      <c r="M430" s="11"/>
+      <c r="N430" s="5"/>
+    </row>
+    <row r="431" spans="2:14">
+      <c r="B431" s="4"/>
+      <c r="C431" s="11"/>
+      <c r="D431" s="11"/>
+      <c r="E431" s="11"/>
+      <c r="F431" s="11"/>
+      <c r="G431" s="11"/>
+      <c r="H431" s="11"/>
+      <c r="I431" s="11"/>
+      <c r="J431" s="11"/>
+      <c r="K431" s="11"/>
+      <c r="L431" s="11"/>
+      <c r="M431" s="11"/>
+      <c r="N431" s="5"/>
+    </row>
+    <row r="432" spans="2:14">
+      <c r="B432" s="4"/>
+      <c r="C432" s="11"/>
+      <c r="D432" s="11"/>
+      <c r="E432" s="11"/>
+      <c r="F432" s="11"/>
+      <c r="G432" s="11"/>
+      <c r="H432" s="11"/>
+      <c r="I432" s="11"/>
+      <c r="J432" s="11"/>
+      <c r="K432" s="11"/>
+      <c r="L432" s="11"/>
+      <c r="M432" s="11"/>
+      <c r="N432" s="5"/>
+    </row>
+    <row r="433" spans="2:14">
+      <c r="B433" s="4"/>
+      <c r="C433" s="11"/>
+      <c r="D433" s="11"/>
+      <c r="E433" s="11"/>
+      <c r="F433" s="11"/>
+      <c r="G433" s="11"/>
+      <c r="H433" s="11"/>
+      <c r="I433" s="11"/>
+      <c r="J433" s="11"/>
+      <c r="K433" s="11"/>
+      <c r="L433" s="11"/>
+      <c r="M433" s="11"/>
+      <c r="N433" s="5"/>
+    </row>
+    <row r="434" spans="2:14">
+      <c r="B434" s="4"/>
+      <c r="C434" s="11"/>
+      <c r="D434" s="11"/>
+      <c r="E434" s="11"/>
+      <c r="F434" s="11"/>
+      <c r="G434" s="11"/>
+      <c r="H434" s="11"/>
+      <c r="I434" s="11"/>
+      <c r="J434" s="11"/>
+      <c r="K434" s="11"/>
+      <c r="L434" s="11"/>
+      <c r="M434" s="11"/>
+      <c r="N434" s="5"/>
+    </row>
+    <row r="435" spans="2:14">
+      <c r="B435" s="4"/>
+      <c r="C435" s="11"/>
+      <c r="D435" s="11"/>
+      <c r="E435" s="11"/>
+      <c r="F435" s="11"/>
+      <c r="G435" s="11"/>
+      <c r="H435" s="11"/>
+      <c r="I435" s="11"/>
+      <c r="J435" s="11"/>
+      <c r="K435" s="11"/>
+      <c r="L435" s="11"/>
+      <c r="M435" s="11"/>
+      <c r="N435" s="5"/>
+    </row>
+    <row r="436" spans="2:14">
+      <c r="B436" s="4"/>
+      <c r="C436" s="11"/>
+      <c r="D436" s="11"/>
+      <c r="E436" s="11"/>
+      <c r="F436" s="11"/>
+      <c r="G436" s="11"/>
+      <c r="H436" s="11"/>
+      <c r="I436" s="11"/>
+      <c r="J436" s="11"/>
+      <c r="K436" s="11"/>
+      <c r="L436" s="11"/>
+      <c r="M436" s="11"/>
+      <c r="N436" s="5"/>
+    </row>
+    <row r="437" spans="2:14">
+      <c r="B437" s="4"/>
+      <c r="C437" s="11"/>
+      <c r="D437" s="11"/>
+      <c r="E437" s="11"/>
+      <c r="F437" s="11"/>
+      <c r="G437" s="11"/>
+      <c r="H437" s="11"/>
+      <c r="I437" s="11"/>
+      <c r="J437" s="11"/>
+      <c r="K437" s="11"/>
+      <c r="L437" s="11"/>
+      <c r="M437" s="11"/>
+      <c r="N437" s="5"/>
+    </row>
+    <row r="438" spans="2:14">
+      <c r="B438" s="4"/>
+      <c r="C438" s="11"/>
+      <c r="D438" s="11"/>
+      <c r="E438" s="11"/>
+      <c r="F438" s="11"/>
+      <c r="G438" s="11"/>
+      <c r="H438" s="11"/>
+      <c r="I438" s="11"/>
+      <c r="J438" s="11"/>
+      <c r="K438" s="11"/>
+      <c r="L438" s="11"/>
+      <c r="M438" s="11"/>
+      <c r="N438" s="5"/>
+    </row>
+    <row r="439" spans="2:14">
+      <c r="B439" s="4"/>
+      <c r="C439" s="11"/>
+      <c r="D439" s="11"/>
+      <c r="E439" s="11"/>
+      <c r="F439" s="11"/>
+      <c r="G439" s="11"/>
+      <c r="H439" s="11"/>
+      <c r="I439" s="11"/>
+      <c r="J439" s="11"/>
+      <c r="K439" s="11"/>
+      <c r="L439" s="11"/>
+      <c r="M439" s="11"/>
+      <c r="N439" s="5"/>
+    </row>
+    <row r="440" spans="2:14">
+      <c r="B440" s="4"/>
+      <c r="C440" s="11"/>
+      <c r="D440" s="11"/>
+      <c r="E440" s="11"/>
+      <c r="F440" s="11"/>
+      <c r="G440" s="11"/>
+      <c r="H440" s="11"/>
+      <c r="I440" s="11"/>
+      <c r="J440" s="11"/>
+      <c r="K440" s="11"/>
+      <c r="L440" s="11"/>
+      <c r="M440" s="11"/>
+      <c r="N440" s="5"/>
+    </row>
+    <row r="441" spans="2:14">
+      <c r="B441" s="4"/>
+      <c r="C441" s="11"/>
+      <c r="D441" s="11"/>
+      <c r="E441" s="11"/>
+      <c r="F441" s="11"/>
+      <c r="G441" s="11"/>
+      <c r="H441" s="11"/>
+      <c r="I441" s="11"/>
+      <c r="J441" s="11"/>
+      <c r="K441" s="11"/>
+      <c r="L441" s="11"/>
+      <c r="M441" s="11"/>
+      <c r="N441" s="5"/>
+    </row>
+    <row r="442" spans="2:14">
+      <c r="B442" s="4"/>
+      <c r="C442" s="11"/>
+      <c r="D442" s="11"/>
+      <c r="E442" s="11"/>
+      <c r="F442" s="11"/>
+      <c r="G442" s="11"/>
+      <c r="H442" s="11"/>
+      <c r="I442" s="11"/>
+      <c r="J442" s="11"/>
+      <c r="K442" s="11"/>
+      <c r="L442" s="11"/>
+      <c r="M442" s="11"/>
+      <c r="N442" s="5"/>
+    </row>
+    <row r="443" spans="2:14">
+      <c r="B443" s="4"/>
+      <c r="C443" s="11"/>
+      <c r="D443" s="11"/>
+      <c r="E443" s="11"/>
+      <c r="F443" s="11"/>
+      <c r="G443" s="11"/>
+      <c r="H443" s="11"/>
+      <c r="I443" s="11"/>
+      <c r="J443" s="11"/>
+      <c r="K443" s="11"/>
+      <c r="L443" s="11"/>
+      <c r="M443" s="11"/>
+      <c r="N443" s="5"/>
+    </row>
+    <row r="444" spans="2:14">
+      <c r="B444" s="4"/>
+      <c r="C444" s="11"/>
+      <c r="D444" s="11"/>
+      <c r="E444" s="11"/>
+      <c r="F444" s="11"/>
+      <c r="G444" s="11"/>
+      <c r="H444" s="11"/>
+      <c r="I444" s="11"/>
+      <c r="J444" s="11"/>
+      <c r="K444" s="11"/>
+      <c r="L444" s="11"/>
+      <c r="M444" s="11"/>
+      <c r="N444" s="5"/>
+    </row>
+    <row r="445" spans="2:14">
+      <c r="B445" s="4"/>
+      <c r="C445" s="11"/>
+      <c r="D445" s="11"/>
+      <c r="E445" s="11"/>
+      <c r="F445" s="11"/>
+      <c r="G445" s="11"/>
+      <c r="H445" s="11"/>
+      <c r="I445" s="11"/>
+      <c r="J445" s="11"/>
+      <c r="K445" s="11"/>
+      <c r="L445" s="11"/>
+      <c r="M445" s="11"/>
+      <c r="N445" s="5"/>
+    </row>
+    <row r="446" spans="2:14">
+      <c r="B446" s="4"/>
+      <c r="C446" s="11"/>
+      <c r="D446" s="11"/>
+      <c r="E446" s="11"/>
+      <c r="F446" s="11"/>
+      <c r="G446" s="11"/>
+      <c r="H446" s="11"/>
+      <c r="I446" s="11"/>
+      <c r="J446" s="11"/>
+      <c r="K446" s="11"/>
+      <c r="L446" s="11"/>
+      <c r="M446" s="11"/>
+      <c r="N446" s="5"/>
+    </row>
+    <row r="447" spans="2:14">
+      <c r="B447" s="4"/>
+      <c r="C447" s="11"/>
+      <c r="D447" s="11"/>
+      <c r="E447" s="11"/>
+      <c r="F447" s="11"/>
+      <c r="G447" s="11"/>
+      <c r="H447" s="11"/>
+      <c r="I447" s="11"/>
+      <c r="J447" s="11"/>
+      <c r="K447" s="11"/>
+      <c r="L447" s="11"/>
+      <c r="M447" s="11"/>
+      <c r="N447" s="5"/>
+    </row>
+    <row r="448" spans="2:14">
+      <c r="B448" s="4"/>
+      <c r="C448" s="11"/>
+      <c r="D448" s="11"/>
+      <c r="E448" s="11"/>
+      <c r="F448" s="11"/>
+      <c r="G448" s="11"/>
+      <c r="H448" s="11"/>
+      <c r="I448" s="11"/>
+      <c r="J448" s="11"/>
+      <c r="K448" s="11"/>
+      <c r="L448" s="11"/>
+      <c r="M448" s="11"/>
+      <c r="N448" s="5"/>
+    </row>
+    <row r="449" spans="2:14">
+      <c r="B449" s="4"/>
+      <c r="C449" s="11"/>
+      <c r="D449" s="11"/>
+      <c r="E449" s="11"/>
+      <c r="F449" s="11"/>
+      <c r="G449" s="11"/>
+      <c r="H449" s="11"/>
+      <c r="I449" s="11"/>
+      <c r="J449" s="11"/>
+      <c r="K449" s="11"/>
+      <c r="L449" s="11"/>
+      <c r="M449" s="11"/>
+      <c r="N449" s="5"/>
+    </row>
+    <row r="450" spans="2:14">
+      <c r="B450" s="4"/>
+      <c r="C450" s="11"/>
+      <c r="D450" s="11"/>
+      <c r="E450" s="11"/>
+      <c r="F450" s="11"/>
+      <c r="G450" s="11"/>
+      <c r="H450" s="11"/>
+      <c r="I450" s="11"/>
+      <c r="J450" s="11"/>
+      <c r="K450" s="11"/>
+      <c r="L450" s="11"/>
+      <c r="M450" s="11"/>
+      <c r="N450" s="5"/>
+    </row>
+    <row r="451" spans="2:14">
+      <c r="B451" s="4"/>
+      <c r="C451" s="11"/>
+      <c r="D451" s="11"/>
+      <c r="E451" s="11"/>
+      <c r="F451" s="11"/>
+      <c r="G451" s="11"/>
+      <c r="H451" s="11"/>
+      <c r="I451" s="11"/>
+      <c r="J451" s="11"/>
+      <c r="K451" s="11"/>
+      <c r="L451" s="11"/>
+      <c r="M451" s="11"/>
+      <c r="N451" s="5"/>
+    </row>
+    <row r="452" spans="2:14">
+      <c r="B452" s="4"/>
+      <c r="C452" s="11"/>
+      <c r="D452" s="11"/>
+      <c r="E452" s="11"/>
+      <c r="F452" s="11"/>
+      <c r="G452" s="11"/>
+      <c r="H452" s="11"/>
+      <c r="I452" s="11"/>
+      <c r="J452" s="11"/>
+      <c r="K452" s="11"/>
+      <c r="L452" s="11"/>
+      <c r="M452" s="11"/>
+      <c r="N452" s="5"/>
+    </row>
+    <row r="453" spans="2:14">
+      <c r="B453" s="4"/>
+      <c r="C453" s="11"/>
+      <c r="D453" s="11"/>
+      <c r="E453" s="11"/>
+      <c r="F453" s="11"/>
+      <c r="G453" s="11"/>
+      <c r="H453" s="11"/>
+      <c r="I453" s="11"/>
+      <c r="J453" s="11"/>
+      <c r="K453" s="11"/>
+      <c r="L453" s="11"/>
+      <c r="M453" s="11"/>
+      <c r="N453" s="5"/>
+    </row>
+    <row r="454" spans="2:14">
+      <c r="B454" s="4"/>
+      <c r="C454" s="11"/>
+      <c r="D454" s="11"/>
+      <c r="E454" s="11"/>
+      <c r="F454" s="11"/>
+      <c r="G454" s="11"/>
+      <c r="H454" s="11"/>
+      <c r="I454" s="11"/>
+      <c r="J454" s="11"/>
+      <c r="K454" s="11"/>
+      <c r="L454" s="11"/>
+      <c r="M454" s="11"/>
+      <c r="N454" s="5"/>
+    </row>
+    <row r="455" spans="2:14">
+      <c r="B455" s="7"/>
+      <c r="C455" s="8"/>
+      <c r="D455" s="8"/>
+      <c r="E455" s="8"/>
+      <c r="F455" s="8"/>
+      <c r="G455" s="8"/>
+      <c r="H455" s="8"/>
+      <c r="I455" s="8"/>
+      <c r="J455" s="8"/>
+      <c r="K455" s="8"/>
+      <c r="L455" s="8"/>
+      <c r="M455" s="8"/>
+      <c r="N455" s="9"/>
+    </row>
+    <row r="456" spans="2:14">
+      <c r="B456" s="11"/>
+      <c r="C456" s="11"/>
+      <c r="D456" s="11"/>
+      <c r="E456" s="11"/>
+      <c r="F456" s="11"/>
+      <c r="G456" s="11"/>
+      <c r="H456" s="11"/>
+      <c r="I456" s="11"/>
+      <c r="J456" s="11"/>
+      <c r="K456" s="11"/>
+      <c r="L456" s="11"/>
+      <c r="M456" s="11"/>
+      <c r="N456" s="11"/>
+    </row>
+    <row r="460" spans="2:14">
+      <c r="B460" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="C460" s="2"/>
+      <c r="D460" s="2"/>
+      <c r="E460" s="2"/>
+      <c r="F460" s="2"/>
+      <c r="G460" s="2"/>
+      <c r="H460" s="2"/>
+      <c r="I460" s="2"/>
+      <c r="J460" s="2"/>
+      <c r="K460" s="2"/>
+      <c r="L460" s="2"/>
+      <c r="M460" s="2"/>
+      <c r="N460" s="3"/>
+    </row>
+    <row r="461" spans="2:14">
+      <c r="B461" s="4"/>
+      <c r="C461" s="11"/>
+      <c r="D461" s="11"/>
+      <c r="E461" s="11"/>
+      <c r="F461" s="11"/>
+      <c r="G461" s="11"/>
+      <c r="H461" s="11"/>
+      <c r="I461" s="11"/>
+      <c r="J461" s="11"/>
+      <c r="K461" s="11"/>
+      <c r="L461" s="11"/>
+      <c r="M461" s="11"/>
+      <c r="N461" s="5"/>
+    </row>
+    <row r="462" spans="2:14">
+      <c r="B462" s="4"/>
+      <c r="C462" s="11"/>
+      <c r="D462" s="11"/>
+      <c r="E462" s="11"/>
+      <c r="F462" s="11"/>
+      <c r="G462" s="11"/>
+      <c r="H462" s="11"/>
+      <c r="I462" s="11"/>
+      <c r="J462" s="11"/>
+      <c r="K462" s="11"/>
+      <c r="L462" s="11"/>
+      <c r="M462" s="11"/>
+      <c r="N462" s="5"/>
+    </row>
+    <row r="463" spans="2:14">
+      <c r="B463" s="4"/>
+      <c r="C463" s="11"/>
+      <c r="D463" s="11"/>
+      <c r="E463" s="11"/>
+      <c r="F463" s="11"/>
+      <c r="G463" s="11"/>
+      <c r="H463" s="11"/>
+      <c r="I463" s="11"/>
+      <c r="J463" s="11"/>
+      <c r="K463" s="11"/>
+      <c r="L463" s="11"/>
+      <c r="M463" s="11"/>
+      <c r="N463" s="5"/>
+    </row>
+    <row r="464" spans="2:14">
+      <c r="B464" s="4"/>
+      <c r="C464" s="11"/>
+      <c r="D464" s="11"/>
+      <c r="E464" s="11"/>
+      <c r="F464" s="11"/>
+      <c r="G464" s="11"/>
+      <c r="H464" s="11"/>
+      <c r="I464" s="11"/>
+      <c r="J464" s="11"/>
+      <c r="K464" s="11"/>
+      <c r="L464" s="11"/>
+      <c r="M464" s="11"/>
+      <c r="N464" s="5"/>
+    </row>
+    <row r="465" spans="2:14">
+      <c r="B465" s="4"/>
+      <c r="C465" s="11"/>
+      <c r="D465" s="11"/>
+      <c r="E465" s="11"/>
+      <c r="F465" s="11"/>
+      <c r="G465" s="11"/>
+      <c r="H465" s="11"/>
+      <c r="I465" s="11"/>
+      <c r="J465" s="11"/>
+      <c r="K465" s="11"/>
+      <c r="L465" s="11"/>
+      <c r="M465" s="11"/>
+      <c r="N465" s="5"/>
+    </row>
+    <row r="466" spans="2:14">
+      <c r="B466" s="4"/>
+      <c r="C466" s="11"/>
+      <c r="D466" s="11"/>
+      <c r="E466" s="11"/>
+      <c r="F466" s="11"/>
+      <c r="G466" s="11"/>
+      <c r="H466" s="11"/>
+      <c r="I466" s="11"/>
+      <c r="J466" s="11"/>
+      <c r="K466" s="11"/>
+      <c r="L466" s="11"/>
+      <c r="M466" s="11"/>
+      <c r="N466" s="5"/>
+    </row>
+    <row r="467" spans="2:14">
+      <c r="B467" s="4"/>
+      <c r="C467" s="11"/>
+      <c r="D467" s="11"/>
+      <c r="E467" s="11"/>
+      <c r="F467" s="11"/>
+      <c r="G467" s="11"/>
+      <c r="H467" s="11"/>
+      <c r="I467" s="11"/>
+      <c r="J467" s="11"/>
+      <c r="K467" s="11"/>
+      <c r="L467" s="11"/>
+      <c r="M467" s="11"/>
+      <c r="N467" s="5"/>
+    </row>
+    <row r="468" spans="2:14">
+      <c r="B468" s="4"/>
+      <c r="C468" s="11"/>
+      <c r="D468" s="11"/>
+      <c r="E468" s="11"/>
+      <c r="F468" s="11"/>
+      <c r="G468" s="11"/>
+      <c r="H468" s="11"/>
+      <c r="I468" s="11"/>
+      <c r="J468" s="11"/>
+      <c r="K468" s="11"/>
+      <c r="L468" s="11"/>
+      <c r="M468" s="11"/>
+      <c r="N468" s="5"/>
+    </row>
+    <row r="469" spans="2:14">
+      <c r="B469" s="4"/>
+      <c r="C469" s="11"/>
+      <c r="D469" s="11"/>
+      <c r="E469" s="11"/>
+      <c r="F469" s="11"/>
+      <c r="G469" s="11"/>
+      <c r="H469" s="11"/>
+      <c r="I469" s="11"/>
+      <c r="J469" s="11"/>
+      <c r="K469" s="11"/>
+      <c r="L469" s="11"/>
+      <c r="M469" s="11"/>
+      <c r="N469" s="5"/>
+    </row>
+    <row r="470" spans="2:14">
+      <c r="B470" s="4"/>
+      <c r="C470" s="11"/>
+      <c r="D470" s="11"/>
+      <c r="E470" s="11"/>
+      <c r="F470" s="11"/>
+      <c r="G470" s="11"/>
+      <c r="H470" s="11"/>
+      <c r="I470" s="11"/>
+      <c r="J470" s="11"/>
+      <c r="K470" s="11"/>
+      <c r="L470" s="11"/>
+      <c r="M470" s="11"/>
+      <c r="N470" s="5"/>
+    </row>
+    <row r="471" spans="2:14">
+      <c r="B471" s="4"/>
+      <c r="C471" s="11"/>
+      <c r="D471" s="11"/>
+      <c r="E471" s="11"/>
+      <c r="F471" s="11"/>
+      <c r="G471" s="11"/>
+      <c r="H471" s="11"/>
+      <c r="I471" s="11"/>
+      <c r="J471" s="11"/>
+      <c r="K471" s="11"/>
+      <c r="L471" s="11"/>
+      <c r="M471" s="11"/>
+      <c r="N471" s="5"/>
+    </row>
+    <row r="472" spans="2:14">
+      <c r="B472" s="4"/>
+      <c r="C472" s="11"/>
+      <c r="D472" s="11"/>
+      <c r="E472" s="11"/>
+      <c r="F472" s="11"/>
+      <c r="G472" s="11"/>
+      <c r="H472" s="11"/>
+      <c r="I472" s="11"/>
+      <c r="J472" s="11"/>
+      <c r="K472" s="11"/>
+      <c r="L472" s="11"/>
+      <c r="M472" s="11"/>
+      <c r="N472" s="5"/>
+    </row>
+    <row r="473" spans="2:14">
+      <c r="B473" s="4"/>
+      <c r="C473" s="11"/>
+      <c r="D473" s="11"/>
+      <c r="E473" s="11"/>
+      <c r="F473" s="11"/>
+      <c r="G473" s="11"/>
+      <c r="H473" s="11"/>
+      <c r="I473" s="11"/>
+      <c r="J473" s="11"/>
+      <c r="K473" s="11"/>
+      <c r="L473" s="11"/>
+      <c r="M473" s="11"/>
+      <c r="N473" s="5"/>
+    </row>
+    <row r="474" spans="2:14">
+      <c r="B474" s="4"/>
+      <c r="C474" s="11"/>
+      <c r="D474" s="11"/>
+      <c r="E474" s="11"/>
+      <c r="F474" s="11"/>
+      <c r="G474" s="11"/>
+      <c r="H474" s="11"/>
+      <c r="I474" s="11"/>
+      <c r="J474" s="11"/>
+      <c r="K474" s="11"/>
+      <c r="L474" s="11"/>
+      <c r="M474" s="11"/>
+      <c r="N474" s="5"/>
+    </row>
+    <row r="475" spans="2:14">
+      <c r="B475" s="4"/>
+      <c r="C475" s="11"/>
+      <c r="D475" s="11"/>
+      <c r="E475" s="11"/>
+      <c r="F475" s="11"/>
+      <c r="G475" s="11"/>
+      <c r="H475" s="11"/>
+      <c r="I475" s="11"/>
+      <c r="J475" s="11"/>
+      <c r="K475" s="11"/>
+      <c r="L475" s="11"/>
+      <c r="M475" s="11"/>
+      <c r="N475" s="5"/>
+    </row>
+    <row r="476" spans="2:14">
+      <c r="B476" s="4"/>
+      <c r="C476" s="11"/>
+      <c r="D476" s="11"/>
+      <c r="E476" s="11"/>
+      <c r="F476" s="11"/>
+      <c r="G476" s="11"/>
+      <c r="H476" s="11"/>
+      <c r="I476" s="11"/>
+      <c r="J476" s="11"/>
+      <c r="K476" s="11"/>
+      <c r="L476" s="11"/>
+      <c r="M476" s="11"/>
+      <c r="N476" s="5"/>
+    </row>
+    <row r="477" spans="2:14">
+      <c r="B477" s="4"/>
+      <c r="C477" s="11"/>
+      <c r="D477" s="11"/>
+      <c r="E477" s="11"/>
+      <c r="F477" s="11"/>
+      <c r="G477" s="11"/>
+      <c r="H477" s="11"/>
+      <c r="I477" s="11"/>
+      <c r="J477" s="11"/>
+      <c r="K477" s="11"/>
+      <c r="L477" s="11"/>
+      <c r="M477" s="11"/>
+      <c r="N477" s="5"/>
+    </row>
+    <row r="478" spans="2:14">
+      <c r="B478" s="4"/>
+      <c r="C478" s="11"/>
+      <c r="D478" s="11"/>
+      <c r="E478" s="11"/>
+      <c r="F478" s="11"/>
+      <c r="G478" s="11"/>
+      <c r="H478" s="11"/>
+      <c r="I478" s="11"/>
+      <c r="J478" s="11"/>
+      <c r="K478" s="11"/>
+      <c r="L478" s="11"/>
+      <c r="M478" s="11"/>
+      <c r="N478" s="5"/>
+    </row>
+    <row r="479" spans="2:14">
+      <c r="B479" s="4"/>
+      <c r="C479" s="11"/>
+      <c r="D479" s="11"/>
+      <c r="E479" s="11"/>
+      <c r="F479" s="11"/>
+      <c r="G479" s="11"/>
+      <c r="H479" s="11"/>
+      <c r="I479" s="11"/>
+      <c r="J479" s="11"/>
+      <c r="K479" s="11"/>
+      <c r="L479" s="11"/>
+      <c r="M479" s="11"/>
+      <c r="N479" s="5"/>
+    </row>
+    <row r="480" spans="2:14">
+      <c r="B480" s="4"/>
+      <c r="C480" s="11"/>
+      <c r="D480" s="11"/>
+      <c r="E480" s="11"/>
+      <c r="F480" s="11"/>
+      <c r="G480" s="11"/>
+      <c r="H480" s="11"/>
+      <c r="I480" s="11"/>
+      <c r="J480" s="11"/>
+      <c r="K480" s="11"/>
+      <c r="L480" s="11"/>
+      <c r="M480" s="11"/>
+      <c r="N480" s="5"/>
+    </row>
+    <row r="481" spans="2:14">
+      <c r="B481" s="4"/>
+      <c r="C481" s="11"/>
+      <c r="D481" s="11"/>
+      <c r="E481" s="11"/>
+      <c r="F481" s="11"/>
+      <c r="G481" s="11"/>
+      <c r="H481" s="11"/>
+      <c r="I481" s="11"/>
+      <c r="J481" s="11"/>
+      <c r="K481" s="11"/>
+      <c r="L481" s="11"/>
+      <c r="M481" s="11"/>
+      <c r="N481" s="5"/>
+    </row>
+    <row r="482" spans="2:14">
+      <c r="B482" s="4"/>
+      <c r="C482" s="11"/>
+      <c r="D482" s="11"/>
+      <c r="E482" s="11"/>
+      <c r="F482" s="11"/>
+      <c r="G482" s="11"/>
+      <c r="H482" s="11"/>
+      <c r="I482" s="11"/>
+      <c r="J482" s="11"/>
+      <c r="K482" s="11"/>
+      <c r="L482" s="11"/>
+      <c r="M482" s="11"/>
+      <c r="N482" s="5"/>
+    </row>
+    <row r="483" spans="2:14">
+      <c r="B483" s="4"/>
+      <c r="C483" s="11"/>
+      <c r="D483" s="11"/>
+      <c r="E483" s="11"/>
+      <c r="F483" s="11"/>
+      <c r="G483" s="11"/>
+      <c r="H483" s="11"/>
+      <c r="I483" s="11"/>
+      <c r="J483" s="11"/>
+      <c r="K483" s="11"/>
+      <c r="L483" s="11"/>
+      <c r="M483" s="11"/>
+      <c r="N483" s="5"/>
+    </row>
+    <row r="484" spans="2:14">
+      <c r="B484" s="4"/>
+      <c r="C484" s="11"/>
+      <c r="D484" s="11"/>
+      <c r="E484" s="11"/>
+      <c r="F484" s="11"/>
+      <c r="G484" s="11"/>
+      <c r="H484" s="11"/>
+      <c r="I484" s="11"/>
+      <c r="J484" s="11"/>
+      <c r="K484" s="11"/>
+      <c r="L484" s="11"/>
+      <c r="M484" s="11"/>
+      <c r="N484" s="5"/>
+    </row>
+    <row r="485" spans="2:14">
+      <c r="B485" s="4"/>
+      <c r="C485" s="11"/>
+      <c r="D485" s="11"/>
+      <c r="E485" s="11"/>
+      <c r="F485" s="11"/>
+      <c r="G485" s="11"/>
+      <c r="H485" s="11"/>
+      <c r="I485" s="11"/>
+      <c r="J485" s="11"/>
+      <c r="K485" s="11"/>
+      <c r="L485" s="11"/>
+      <c r="M485" s="11"/>
+      <c r="N485" s="5"/>
+    </row>
+    <row r="486" spans="2:14">
+      <c r="B486" s="4"/>
+      <c r="C486" s="11"/>
+      <c r="D486" s="11"/>
+      <c r="E486" s="11"/>
+      <c r="F486" s="11"/>
+      <c r="G486" s="11"/>
+      <c r="H486" s="11"/>
+      <c r="I486" s="11"/>
+      <c r="J486" s="11"/>
+      <c r="K486" s="11"/>
+      <c r="L486" s="11"/>
+      <c r="M486" s="11"/>
+      <c r="N486" s="5"/>
+    </row>
+    <row r="487" spans="2:14">
+      <c r="B487" s="4"/>
+      <c r="C487" s="11"/>
+      <c r="D487" s="11"/>
+      <c r="E487" s="11"/>
+      <c r="F487" s="11"/>
+      <c r="G487" s="11"/>
+      <c r="H487" s="11"/>
+      <c r="I487" s="11"/>
+      <c r="J487" s="11"/>
+      <c r="K487" s="11"/>
+      <c r="L487" s="11"/>
+      <c r="M487" s="11"/>
+      <c r="N487" s="5"/>
+    </row>
+    <row r="488" spans="2:14">
+      <c r="B488" s="4"/>
+      <c r="C488" s="11"/>
+      <c r="D488" s="11"/>
+      <c r="E488" s="11"/>
+      <c r="F488" s="11"/>
+      <c r="G488" s="11"/>
+      <c r="H488" s="11"/>
+      <c r="I488" s="11"/>
+      <c r="J488" s="11"/>
+      <c r="K488" s="11"/>
+      <c r="L488" s="11"/>
+      <c r="M488" s="11"/>
+      <c r="N488" s="5"/>
+    </row>
+    <row r="489" spans="2:14">
+      <c r="B489" s="4"/>
+      <c r="C489" s="11"/>
+      <c r="D489" s="11"/>
+      <c r="E489" s="11"/>
+      <c r="F489" s="11"/>
+      <c r="G489" s="11"/>
+      <c r="H489" s="11"/>
+      <c r="I489" s="11"/>
+      <c r="J489" s="11"/>
+      <c r="K489" s="11"/>
+      <c r="L489" s="11"/>
+      <c r="M489" s="11"/>
+      <c r="N489" s="5"/>
+    </row>
+    <row r="490" spans="2:14">
+      <c r="B490" s="4"/>
+      <c r="C490" s="11"/>
+      <c r="D490" s="11"/>
+      <c r="E490" s="11"/>
+      <c r="F490" s="11"/>
+      <c r="G490" s="11"/>
+      <c r="H490" s="11"/>
+      <c r="I490" s="11"/>
+      <c r="J490" s="11"/>
+      <c r="K490" s="11"/>
+      <c r="L490" s="11"/>
+      <c r="M490" s="11"/>
+      <c r="N490" s="5"/>
+    </row>
+    <row r="491" spans="2:14">
+      <c r="B491" s="4"/>
+      <c r="C491" s="11"/>
+      <c r="D491" s="11"/>
+      <c r="E491" s="11"/>
+      <c r="F491" s="11"/>
+      <c r="G491" s="11"/>
+      <c r="H491" s="11"/>
+      <c r="I491" s="11"/>
+      <c r="J491" s="11"/>
+      <c r="K491" s="11"/>
+      <c r="L491" s="11"/>
+      <c r="M491" s="11"/>
+      <c r="N491" s="5"/>
+    </row>
+    <row r="492" spans="2:14">
+      <c r="B492" s="7"/>
+      <c r="C492" s="8"/>
+      <c r="D492" s="8"/>
+      <c r="E492" s="8"/>
+      <c r="F492" s="8"/>
+      <c r="G492" s="8"/>
+      <c r="H492" s="8"/>
+      <c r="I492" s="8"/>
+      <c r="J492" s="8"/>
+      <c r="K492" s="8"/>
+      <c r="L492" s="8"/>
+      <c r="M492" s="8"/>
+      <c r="N492" s="9"/>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
 </file>